--- a/GSKDATA/app2.vHco.xlsx
+++ b/GSKDATA/app2.vHco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AV829TH\OneDrive - EY\Desktop\GSK\NewDataSet\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VC899BC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D742CF0C-5A18-4484-AC24-C4C87F883DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB8D01C-4E86-46DC-877D-300545549FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app2.vHco" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="486">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -515,12 +515,975 @@
   </si>
   <si>
     <t>www.comprehensivecareinitiative.org</t>
+  </si>
+  <si>
+    <t>Hospice Santa Maria</t>
+  </si>
+  <si>
+    <t>B101</t>
+  </si>
+  <si>
+    <t>www.hospicesantamaria.com.br</t>
+  </si>
+  <si>
+    <t>orgK998765432109</t>
+  </si>
+  <si>
+    <t>Hospital SÃ£o Paulo Norte</t>
+  </si>
+  <si>
+    <t>B102</t>
+  </si>
+  <si>
+    <t>www.hospitalsaopaulonorte.com.br</t>
+  </si>
+  <si>
+    <t>Instituto de CÃ¢ncer SÃ£o Paulo</t>
+  </si>
+  <si>
+    <t>B103</t>
+  </si>
+  <si>
+    <t>www.institutodecancersp.com.br</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Vida Nueva</t>
+  </si>
+  <si>
+    <t>S101</t>
+  </si>
+  <si>
+    <t>www.fundacionvidanueva.org</t>
+  </si>
+  <si>
+    <t>Centro de Apoyo Esperanza</t>
+  </si>
+  <si>
+    <t>S102</t>
+  </si>
+  <si>
+    <t>www.centroapoyoesperanza.org</t>
+  </si>
+  <si>
+    <t>AsociaciÃ³n Progreso y Salud</t>
+  </si>
+  <si>
+    <t>S103</t>
+  </si>
+  <si>
+    <t>www.asociacionprogresoysalud.org</t>
+  </si>
+  <si>
+    <t>Global Health Initiative</t>
+  </si>
+  <si>
+    <t>U101</t>
+  </si>
+  <si>
+    <t>www.globalhealthinitiative.org</t>
+  </si>
+  <si>
+    <t>Hope for Health Foundation</t>
+  </si>
+  <si>
+    <t>U102</t>
+  </si>
+  <si>
+    <t>www.hopeforhealthfoundation.org</t>
+  </si>
+  <si>
+    <t>United Care Network</t>
+  </si>
+  <si>
+    <t>U103</t>
+  </si>
+  <si>
+    <t>www.unitedcarenetwork.org</t>
+  </si>
+  <si>
+    <t>Hospital SÃ£o JoÃ£o</t>
+  </si>
+  <si>
+    <t>B121</t>
+  </si>
+  <si>
+    <t>www.hospitalsaojoao.com.br</t>
+  </si>
+  <si>
+    <t>orgK998765432111</t>
+  </si>
+  <si>
+    <t>Instituto Vida e SaÃºde</t>
+  </si>
+  <si>
+    <t>B122</t>
+  </si>
+  <si>
+    <t>www.institutovidaesaude.com.br</t>
+  </si>
+  <si>
+    <t>ClÃ­nica SÃ£o Judas</t>
+  </si>
+  <si>
+    <t>B123</t>
+  </si>
+  <si>
+    <t>www.clinicasaojudas.com.br</t>
+  </si>
+  <si>
+    <t>Centro MÃ©dico Santa Maria</t>
+  </si>
+  <si>
+    <t>B124</t>
+  </si>
+  <si>
+    <t>www.centromedicosantamaria.com.br</t>
+  </si>
+  <si>
+    <t>Hospital Vila Mariana</t>
+  </si>
+  <si>
+    <t>B125</t>
+  </si>
+  <si>
+    <t>www.hospitalvilamariana.com.br</t>
+  </si>
+  <si>
+    <t>Hospital SÃ£o JosÃ©</t>
+  </si>
+  <si>
+    <t>B126</t>
+  </si>
+  <si>
+    <t>www.hospitalsaojose.com.br</t>
+  </si>
+  <si>
+    <t>Instituto Paulista de CÃ¢ncer</t>
+  </si>
+  <si>
+    <t>B127</t>
+  </si>
+  <si>
+    <t>www.institutopaulistadecancer.com.br</t>
+  </si>
+  <si>
+    <t>ClÃ­nica SÃ£o Francisco</t>
+  </si>
+  <si>
+    <t>B128</t>
+  </si>
+  <si>
+    <t>www.clinicasaofrancisco.com.br</t>
+  </si>
+  <si>
+    <t>Hospital da Luz</t>
+  </si>
+  <si>
+    <t>B129</t>
+  </si>
+  <si>
+    <t>www.hospitaldaluz.com.br</t>
+  </si>
+  <si>
+    <t>Instituto Paulista de SaÃºde</t>
+  </si>
+  <si>
+    <t>B130</t>
+  </si>
+  <si>
+    <t>www.institutopaulistadesaude.com.br</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Salud Total</t>
+  </si>
+  <si>
+    <t>S121</t>
+  </si>
+  <si>
+    <t>www.fundacionsaludtotal.org</t>
+  </si>
+  <si>
+    <t>AsociaciÃ³n Vida Plena</t>
+  </si>
+  <si>
+    <t>S122</t>
+  </si>
+  <si>
+    <t>www.asociacionvidaplena.org</t>
+  </si>
+  <si>
+    <t>Centro de RehabilitaciÃ³n Esperanza</t>
+  </si>
+  <si>
+    <t>S123</t>
+  </si>
+  <si>
+    <t>www.centrorehabilitacionesperanza.org</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Progreso y Salud</t>
+  </si>
+  <si>
+    <t>S124</t>
+  </si>
+  <si>
+    <t>www.fundacionprogresoysalud.org</t>
+  </si>
+  <si>
+    <t>AsociaciÃ³n Esperanza Viva</t>
+  </si>
+  <si>
+    <t>S125</t>
+  </si>
+  <si>
+    <t>www.asociacionesperanzaviva.org</t>
+  </si>
+  <si>
+    <t>Centro de Salud Integral</t>
+  </si>
+  <si>
+    <t>S126</t>
+  </si>
+  <si>
+    <t>www.centrosaludintegral.org</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n de Cuidado Integral</t>
+  </si>
+  <si>
+    <t>S127</t>
+  </si>
+  <si>
+    <t>www.fundaciondecuidadointegral.org</t>
+  </si>
+  <si>
+    <t>Red de Salud Esperanza</t>
+  </si>
+  <si>
+    <t>S128</t>
+  </si>
+  <si>
+    <t>www.redsaludesperanza.org</t>
+  </si>
+  <si>
+    <t>AsociaciÃ³n Progreso y Vida</t>
+  </si>
+  <si>
+    <t>S129</t>
+  </si>
+  <si>
+    <t>www.asociacionprogresoyvida.org</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Bienestar Integral</t>
+  </si>
+  <si>
+    <t>S130</t>
+  </si>
+  <si>
+    <t>www.fundacionbienestarintegral.org</t>
+  </si>
+  <si>
+    <t>Global Wellness Initiative</t>
+  </si>
+  <si>
+    <t>U121</t>
+  </si>
+  <si>
+    <t>www.globalwellnessinitiative.org</t>
+  </si>
+  <si>
+    <t>Health Care Alliance</t>
+  </si>
+  <si>
+    <t>U122</t>
+  </si>
+  <si>
+    <t>www.healthcarealliance.org</t>
+  </si>
+  <si>
+    <t>Hope Foundation America</t>
+  </si>
+  <si>
+    <t>U123</t>
+  </si>
+  <si>
+    <t>www.hopefoundationamerica.org</t>
+  </si>
+  <si>
+    <t>National Health Network</t>
+  </si>
+  <si>
+    <t>U124</t>
+  </si>
+  <si>
+    <t>www.nationalhealthnetwork.org</t>
+  </si>
+  <si>
+    <t>Unified Health Solutions</t>
+  </si>
+  <si>
+    <t>U125</t>
+  </si>
+  <si>
+    <t>www.unifiedhealthsolutions.org</t>
+  </si>
+  <si>
+    <t>United Care Initiative</t>
+  </si>
+  <si>
+    <t>U126</t>
+  </si>
+  <si>
+    <t>www.unitedcareinitiative.org</t>
+  </si>
+  <si>
+    <t>Futures for Health</t>
+  </si>
+  <si>
+    <t>U127</t>
+  </si>
+  <si>
+    <t>www.futuresforhealth.org</t>
+  </si>
+  <si>
+    <t>Nationwide Care Network</t>
+  </si>
+  <si>
+    <t>U128</t>
+  </si>
+  <si>
+    <t>www.nationwidecarenetwork.org</t>
+  </si>
+  <si>
+    <t>Health and Wellness Foundation</t>
+  </si>
+  <si>
+    <t>U129</t>
+  </si>
+  <si>
+    <t>www.healthandwellnessfoundation.org</t>
+  </si>
+  <si>
+    <t>Global Health Partners</t>
+  </si>
+  <si>
+    <t>U130</t>
+  </si>
+  <si>
+    <t>www.globalhealthpartners.org</t>
+  </si>
+  <si>
+    <t>Hospital Nossa Senhora de FÃ¡tima</t>
+  </si>
+  <si>
+    <t>B131</t>
+  </si>
+  <si>
+    <t>www.hospitalnossasenhoradefatima.com.br</t>
+  </si>
+  <si>
+    <t>orgK998765432112</t>
+  </si>
+  <si>
+    <t>Instituto do CoraÃ§Ã£o Paulista</t>
+  </si>
+  <si>
+    <t>B132</t>
+  </si>
+  <si>
+    <t>www.institutodocoraopaulista.com.br</t>
+  </si>
+  <si>
+    <t>ClÃ­nica SÃ£o Pedro</t>
+  </si>
+  <si>
+    <t>B133</t>
+  </si>
+  <si>
+    <t>www.clinicasaopedro.com.br</t>
+  </si>
+  <si>
+    <t>orgK990223456780</t>
+  </si>
+  <si>
+    <t>Centro MÃ©dico SÃ£o Lucas</t>
+  </si>
+  <si>
+    <t>B134</t>
+  </si>
+  <si>
+    <t>www.centromedicosaolucas.com.br</t>
+  </si>
+  <si>
+    <t>orgK990334567891</t>
+  </si>
+  <si>
+    <t>Hospital Vila Nova</t>
+  </si>
+  <si>
+    <t>B135</t>
+  </si>
+  <si>
+    <t>www.hospitalvilanova.com.br</t>
+  </si>
+  <si>
+    <t>orgK990445678902</t>
+  </si>
+  <si>
+    <t>Hospital SÃ£o Rafael</t>
+  </si>
+  <si>
+    <t>B136</t>
+  </si>
+  <si>
+    <t>www.hospitalsaorafael.com.br</t>
+  </si>
+  <si>
+    <t>Instituto Paulista de Oncologia</t>
+  </si>
+  <si>
+    <t>B137</t>
+  </si>
+  <si>
+    <t>www.institutopaulistadeoncologia.com.br</t>
+  </si>
+  <si>
+    <t>orgK990556789013</t>
+  </si>
+  <si>
+    <t>ClÃ­nica SÃ£o Jorge</t>
+  </si>
+  <si>
+    <t>B138</t>
+  </si>
+  <si>
+    <t>www.clinicasaojorge.com.br</t>
+  </si>
+  <si>
+    <t>Hospital da Vida</t>
+  </si>
+  <si>
+    <t>B139</t>
+  </si>
+  <si>
+    <t>www.hospitaldavida.com.br</t>
+  </si>
+  <si>
+    <t>Instituto Paulista de Cardiologia</t>
+  </si>
+  <si>
+    <t>B140</t>
+  </si>
+  <si>
+    <t>www.institutopaulistadecardiologia.com.br</t>
+  </si>
+  <si>
+    <t>orgK990889012346</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Salud y Vida</t>
+  </si>
+  <si>
+    <t>S131</t>
+  </si>
+  <si>
+    <t>www.fundacionsaludyvida.org</t>
+  </si>
+  <si>
+    <t>AsociaciÃ³n Nueva Esperanza</t>
+  </si>
+  <si>
+    <t>S132</t>
+  </si>
+  <si>
+    <t>www.asociacionnuevaesperanza.org</t>
+  </si>
+  <si>
+    <t>Centro de RehabilitaciÃ³n y Vida</t>
+  </si>
+  <si>
+    <t>S133</t>
+  </si>
+  <si>
+    <t>www.centrorehabilitacionyvida.org</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Progreso Social</t>
+  </si>
+  <si>
+    <t>S134</t>
+  </si>
+  <si>
+    <t>www.fundacionprogresosocial.org</t>
+  </si>
+  <si>
+    <t>AsociaciÃ³n Viva la Vida</t>
+  </si>
+  <si>
+    <t>S135</t>
+  </si>
+  <si>
+    <t>www.asociacionvivalavida.org</t>
+  </si>
+  <si>
+    <t>Centro de Salud y Esperanza</t>
+  </si>
+  <si>
+    <t>S136</t>
+  </si>
+  <si>
+    <t>www.centrosaludyesperanza.org</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Cuidado Total</t>
+  </si>
+  <si>
+    <t>S137</t>
+  </si>
+  <si>
+    <t>www.fundacioncuidadototal.org</t>
+  </si>
+  <si>
+    <t>orgK990334567892</t>
+  </si>
+  <si>
+    <t>Red de Vida y Progreso</t>
+  </si>
+  <si>
+    <t>S138</t>
+  </si>
+  <si>
+    <t>www.reddevidayprogreso.org</t>
+  </si>
+  <si>
+    <t>AsociaciÃ³n de Vida y Bienestar</t>
+  </si>
+  <si>
+    <t>S139</t>
+  </si>
+  <si>
+    <t>www.asociaciondevidaybienestar.org</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Integral de Salud</t>
+  </si>
+  <si>
+    <t>S140</t>
+  </si>
+  <si>
+    <t>www.fundacionintegraldesalud.org</t>
+  </si>
+  <si>
+    <t>orgK990556789014</t>
+  </si>
+  <si>
+    <t>Global Wellness Foundation</t>
+  </si>
+  <si>
+    <t>U131</t>
+  </si>
+  <si>
+    <t>www.globalwellnessfoundation.org</t>
+  </si>
+  <si>
+    <t>Health Care United</t>
+  </si>
+  <si>
+    <t>U132</t>
+  </si>
+  <si>
+    <t>www.healthcareunited.org</t>
+  </si>
+  <si>
+    <t>Hope America Foundation</t>
+  </si>
+  <si>
+    <t>U133</t>
+  </si>
+  <si>
+    <t>www.hopeamericafoundation.org</t>
+  </si>
+  <si>
+    <t>orgK990112345679</t>
+  </si>
+  <si>
+    <t>National Health Initiative</t>
+  </si>
+  <si>
+    <t>U134</t>
+  </si>
+  <si>
+    <t>www.nationalhealthinitiative.org</t>
+  </si>
+  <si>
+    <t>Unified Care Network</t>
+  </si>
+  <si>
+    <t>U135</t>
+  </si>
+  <si>
+    <t>www.unifiedcarenetwork.org</t>
+  </si>
+  <si>
+    <t>United Health Partners</t>
+  </si>
+  <si>
+    <t>U136</t>
+  </si>
+  <si>
+    <t>www.unitedhealthpartners.org</t>
+  </si>
+  <si>
+    <t>orgK990223456781</t>
+  </si>
+  <si>
+    <t>Futures for Wellness</t>
+  </si>
+  <si>
+    <t>U137</t>
+  </si>
+  <si>
+    <t>www.futuresforwellness.org</t>
+  </si>
+  <si>
+    <t>orgK990334567893</t>
+  </si>
+  <si>
+    <t>Nationwide Wellness Network</t>
+  </si>
+  <si>
+    <t>U138</t>
+  </si>
+  <si>
+    <t>www.nationwidewellnessnetwork.org</t>
+  </si>
+  <si>
+    <t>Health and Care Foundation</t>
+  </si>
+  <si>
+    <t>U139</t>
+  </si>
+  <si>
+    <t>www.healthandcarefoundation.org</t>
+  </si>
+  <si>
+    <t>U140</t>
+  </si>
+  <si>
+    <t>orgK990556789015</t>
+  </si>
+  <si>
+    <t>Hospital Santa Helena</t>
+  </si>
+  <si>
+    <t>B141</t>
+  </si>
+  <si>
+    <t>www.hospitalsantahelena.com.br</t>
+  </si>
+  <si>
+    <t>orgK998765432113</t>
+  </si>
+  <si>
+    <t>Instituto Brasileiro de SaÃºde</t>
+  </si>
+  <si>
+    <t>B142</t>
+  </si>
+  <si>
+    <t>www.institutobrasileirodesaude.com.br</t>
+  </si>
+  <si>
+    <t>ClÃ­nica SÃ£o Benedito</t>
+  </si>
+  <si>
+    <t>B143</t>
+  </si>
+  <si>
+    <t>www.clinicasaobenedito.com.br</t>
+  </si>
+  <si>
+    <t>Centro MÃ©dico SÃ£o JoÃ£o</t>
+  </si>
+  <si>
+    <t>B144</t>
+  </si>
+  <si>
+    <t>www.centromedicosaojoao.com.br</t>
+  </si>
+  <si>
+    <t>Hospital Vila Boa</t>
+  </si>
+  <si>
+    <t>B145</t>
+  </si>
+  <si>
+    <t>www.hospitalvilaboa.com.br</t>
+  </si>
+  <si>
+    <t>orgK990445678913</t>
+  </si>
+  <si>
+    <t>Hospital SÃ£o Marcos</t>
+  </si>
+  <si>
+    <t>B146</t>
+  </si>
+  <si>
+    <t>www.hospitalsaomarcos.com.br</t>
+  </si>
+  <si>
+    <t>Instituto Paulista de Hematologia</t>
+  </si>
+  <si>
+    <t>B147</t>
+  </si>
+  <si>
+    <t>www.institutopaulistadehematologia.com.br</t>
+  </si>
+  <si>
+    <t>ClÃ­nica SÃ£o Lucas</t>
+  </si>
+  <si>
+    <t>B148</t>
+  </si>
+  <si>
+    <t>www.clinicasaolucas.com.br</t>
+  </si>
+  <si>
+    <t>Hospital da CrianÃ§a</t>
+  </si>
+  <si>
+    <t>B149</t>
+  </si>
+  <si>
+    <t>www.hospitaldacrianca.com.br</t>
+  </si>
+  <si>
+    <t>Instituto Paulista de Nefrologia</t>
+  </si>
+  <si>
+    <t>B150</t>
+  </si>
+  <si>
+    <t>www.institutopaulistadenefrologia.com.br</t>
+  </si>
+  <si>
+    <t>orgK990889012347</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Vida Plena</t>
+  </si>
+  <si>
+    <t>S141</t>
+  </si>
+  <si>
+    <t>www.fundacionvidaplena.org</t>
+  </si>
+  <si>
+    <t>AsociaciÃ³n Nuevas Oportunidades</t>
+  </si>
+  <si>
+    <t>S142</t>
+  </si>
+  <si>
+    <t>www.asociacionnuevasoportunidades.org</t>
+  </si>
+  <si>
+    <t>Centro de RehabilitaciÃ³n Integral</t>
+  </si>
+  <si>
+    <t>S143</t>
+  </si>
+  <si>
+    <t>www.centrorehabilitacionintegral.org</t>
+  </si>
+  <si>
+    <t>orgK990334567894</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Desarrollo Social</t>
+  </si>
+  <si>
+    <t>S144</t>
+  </si>
+  <si>
+    <t>www.fundaciondesarrollosocial.org</t>
+  </si>
+  <si>
+    <t>AsociaciÃ³n Esperanza y Vida</t>
+  </si>
+  <si>
+    <t>S145</t>
+  </si>
+  <si>
+    <t>www.asociacionesperanzayvida.org</t>
+  </si>
+  <si>
+    <t>Centro de Bienestar y Salud</t>
+  </si>
+  <si>
+    <t>S146</t>
+  </si>
+  <si>
+    <t>www.centrobienestarysalud.org</t>
+  </si>
+  <si>
+    <t>orgK990556789016</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Cuidado de Vida</t>
+  </si>
+  <si>
+    <t>S147</t>
+  </si>
+  <si>
+    <t>www.fundacioncuidadodevida.org</t>
+  </si>
+  <si>
+    <t>orgK990334567895</t>
+  </si>
+  <si>
+    <t>Red de Bienestar y Progreso</t>
+  </si>
+  <si>
+    <t>S148</t>
+  </si>
+  <si>
+    <t>www.reddebienestaryprogreso.org</t>
+  </si>
+  <si>
+    <t>AsociaciÃ³n de Bienestar Integral</t>
+  </si>
+  <si>
+    <t>S149</t>
+  </si>
+  <si>
+    <t>www.asociaciondebienestarintegral.org</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Integral de Vida</t>
+  </si>
+  <si>
+    <t>S150</t>
+  </si>
+  <si>
+    <t>www.fundacionintegraldevida.org</t>
+  </si>
+  <si>
+    <t>orgK990556789017</t>
+  </si>
+  <si>
+    <t>Global Wellness Partnership</t>
+  </si>
+  <si>
+    <t>U141</t>
+  </si>
+  <si>
+    <t>www.globalwellnesspartnership.org</t>
+  </si>
+  <si>
+    <t>Health Network Alliance</t>
+  </si>
+  <si>
+    <t>U142</t>
+  </si>
+  <si>
+    <t>www.healthnetworkalliance.org</t>
+  </si>
+  <si>
+    <t>U143</t>
+  </si>
+  <si>
+    <t>orgK990112345680</t>
+  </si>
+  <si>
+    <t>National Health Support</t>
+  </si>
+  <si>
+    <t>U144</t>
+  </si>
+  <si>
+    <t>www.nationalhealthsupport.org</t>
+  </si>
+  <si>
+    <t>Unified Wellness Initiative</t>
+  </si>
+  <si>
+    <t>U145</t>
+  </si>
+  <si>
+    <t>www.unifiedwellnessinitiative.org</t>
+  </si>
+  <si>
+    <t>U146</t>
+  </si>
+  <si>
+    <t>orgK990223456782</t>
+  </si>
+  <si>
+    <t>Futures for Care</t>
+  </si>
+  <si>
+    <t>U147</t>
+  </si>
+  <si>
+    <t>www.futuresforcare.org</t>
+  </si>
+  <si>
+    <t>orgK990334567896</t>
+  </si>
+  <si>
+    <t>Nationwide Health Foundation</t>
+  </si>
+  <si>
+    <t>U148</t>
+  </si>
+  <si>
+    <t>www.nationwidehealthfoundation.org</t>
+  </si>
+  <si>
+    <t>Health and Care Alliance</t>
+  </si>
+  <si>
+    <t>U149</t>
+  </si>
+  <si>
+    <t>www.healthandcarealliance.org</t>
+  </si>
+  <si>
+    <t>Global Health Organization</t>
+  </si>
+  <si>
+    <t>U150</t>
+  </si>
+  <si>
+    <t>www.globalhealthorganization.org</t>
+  </si>
+  <si>
+    <t>orgK990556789018</t>
+  </si>
+  <si>
+    <t>Hospital Santo AntÃ´nio</t>
+  </si>
+  <si>
+    <t>B151</t>
+  </si>
+  <si>
+    <t>www.hospitalsantoantonio.com.br</t>
+  </si>
+  <si>
+    <t>orgK998765432114</t>
+  </si>
+  <si>
+    <t>NEW DATA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1381,14 +2344,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="29.90625" customWidth="1"/>
+    <col min="10" max="10" width="27.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -2035,11 +3002,11 @@
       <c r="H17" t="s">
         <v>15</v>
       </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" t="s">
-        <v>15</v>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2140,11 +3107,11 @@
       <c r="H20" t="s">
         <v>15</v>
       </c>
-      <c r="I20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" t="s">
-        <v>15</v>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -2280,11 +3247,11 @@
       <c r="H24" t="s">
         <v>15</v>
       </c>
-      <c r="I24" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" t="s">
-        <v>15</v>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2385,11 +3352,11 @@
       <c r="H27" t="s">
         <v>15</v>
       </c>
-      <c r="I27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" t="s">
-        <v>15</v>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2525,11 +3492,11 @@
       <c r="H31" t="s">
         <v>15</v>
       </c>
-      <c r="I31" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" t="s">
-        <v>15</v>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2570,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2605,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2630,17 +3597,17 @@
       <c r="H34" t="s">
         <v>15</v>
       </c>
-      <c r="I34" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" t="s">
-        <v>15</v>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2675,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -2710,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2745,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -2770,17 +3737,17 @@
       <c r="H38" t="s">
         <v>15</v>
       </c>
-      <c r="I38" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" t="s">
-        <v>15</v>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -2815,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -2840,17 +3807,17 @@
       <c r="H40" t="s">
         <v>15</v>
       </c>
-      <c r="I40" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" t="s">
-        <v>15</v>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -2885,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2910,17 +3877,17 @@
       <c r="H42" t="s">
         <v>15</v>
       </c>
-      <c r="I42" t="s">
-        <v>15</v>
-      </c>
-      <c r="J42" t="s">
-        <v>15</v>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
       </c>
       <c r="K42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2955,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2990,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -3015,17 +3982,17 @@
       <c r="H45" t="s">
         <v>15</v>
       </c>
-      <c r="I45" t="s">
-        <v>15</v>
-      </c>
-      <c r="J45" t="s">
-        <v>15</v>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
       </c>
       <c r="K45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -3058,6 +4025,3806 @@
       </c>
       <c r="K46">
         <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>168</v>
+      </c>
+      <c r="H47">
+        <v>9900987654</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>14523</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" t="s">
+        <v>171</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49">
+        <v>9900765432</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>13234</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" t="s">
+        <v>177</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50">
+        <v>9900234567</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>14876</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" t="s">
+        <v>180</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51">
+        <v>9900654321</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>15234</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" t="s">
+        <v>183</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s">
+        <v>108</v>
+      </c>
+      <c r="H52">
+        <v>9900876543</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>16345</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" t="s">
+        <v>185</v>
+      </c>
+      <c r="D53" t="s">
+        <v>186</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53">
+        <v>9900789345</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>13567</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="M53" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" t="s">
+        <v>189</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" t="s">
+        <v>122</v>
+      </c>
+      <c r="H54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" t="s">
+        <v>190</v>
+      </c>
+      <c r="C55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D55" t="s">
+        <v>192</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" t="s">
+        <v>126</v>
+      </c>
+      <c r="H55">
+        <v>9900123456</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>15432</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C56" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" t="s">
+        <v>195</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" t="s">
+        <v>196</v>
+      </c>
+      <c r="H56">
+        <v>9900123456</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>14234</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" t="s">
+        <v>198</v>
+      </c>
+      <c r="D57" t="s">
+        <v>199</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57">
+        <v>9900654321</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>15321</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="M57" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" t="s">
+        <v>201</v>
+      </c>
+      <c r="D58" t="s">
+        <v>202</v>
+      </c>
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" t="s">
+        <v>94</v>
+      </c>
+      <c r="H58">
+        <v>9900876543</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>13456</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" t="s">
+        <v>204</v>
+      </c>
+      <c r="D59" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" t="s">
+        <v>98</v>
+      </c>
+      <c r="H59">
+        <v>9900987654</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>17654</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="M59" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" t="s">
+        <v>208</v>
+      </c>
+      <c r="E60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" t="s">
+        <v>139</v>
+      </c>
+      <c r="H60" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="M60" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" t="s">
+        <v>210</v>
+      </c>
+      <c r="D61" t="s">
+        <v>211</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61">
+        <v>9900123456</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>18765</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="M61" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" t="s">
+        <v>214</v>
+      </c>
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" t="s">
+        <v>108</v>
+      </c>
+      <c r="H62" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="M62" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>215</v>
+      </c>
+      <c r="C63" t="s">
+        <v>216</v>
+      </c>
+      <c r="D63" t="s">
+        <v>217</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63">
+        <v>9900765432</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>13546</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="M63" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>218</v>
+      </c>
+      <c r="C64" t="s">
+        <v>219</v>
+      </c>
+      <c r="D64" t="s">
+        <v>220</v>
+      </c>
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64">
+        <v>9900984321</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <v>14765</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>221</v>
+      </c>
+      <c r="C65" t="s">
+        <v>222</v>
+      </c>
+      <c r="D65" t="s">
+        <v>223</v>
+      </c>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" t="s">
+        <v>118</v>
+      </c>
+      <c r="H65">
+        <v>9900543210</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>17654</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="M65" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" t="s">
+        <v>224</v>
+      </c>
+      <c r="C66" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66" t="s">
+        <v>226</v>
+      </c>
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66">
+        <v>9900456789</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>14678</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="M66" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" t="s">
+        <v>227</v>
+      </c>
+      <c r="C67" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67" t="s">
+        <v>229</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67">
+        <v>9900984321</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>15467</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="M67" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" t="s">
+        <v>230</v>
+      </c>
+      <c r="C68" t="s">
+        <v>231</v>
+      </c>
+      <c r="D68" t="s">
+        <v>232</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" t="s">
+        <v>94</v>
+      </c>
+      <c r="H68">
+        <v>9900234567</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <v>14321</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="M68" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>233</v>
+      </c>
+      <c r="C69" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" t="s">
+        <v>235</v>
+      </c>
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s">
+        <v>98</v>
+      </c>
+      <c r="H69" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" t="s">
+        <v>236</v>
+      </c>
+      <c r="C70" t="s">
+        <v>237</v>
+      </c>
+      <c r="D70" t="s">
+        <v>238</v>
+      </c>
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70">
+        <v>9900654321</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>17654</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" t="s">
+        <v>239</v>
+      </c>
+      <c r="C71" t="s">
+        <v>240</v>
+      </c>
+      <c r="D71" t="s">
+        <v>241</v>
+      </c>
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s">
+        <v>108</v>
+      </c>
+      <c r="H71">
+        <v>9900876543</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>14567</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="M71" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" t="s">
+        <v>242</v>
+      </c>
+      <c r="C72" t="s">
+        <v>243</v>
+      </c>
+      <c r="D72" t="s">
+        <v>244</v>
+      </c>
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
+        <v>139</v>
+      </c>
+      <c r="H72" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="M72" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" t="s">
+        <v>245</v>
+      </c>
+      <c r="C73" t="s">
+        <v>246</v>
+      </c>
+      <c r="D73" t="s">
+        <v>247</v>
+      </c>
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73">
+        <v>9900123456</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>17890</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="M73" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" t="s">
+        <v>248</v>
+      </c>
+      <c r="C74" t="s">
+        <v>249</v>
+      </c>
+      <c r="D74" t="s">
+        <v>250</v>
+      </c>
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74">
+        <v>9900765432</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>16754</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="M74" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" t="s">
+        <v>251</v>
+      </c>
+      <c r="C75" t="s">
+        <v>252</v>
+      </c>
+      <c r="D75" t="s">
+        <v>253</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s">
+        <v>108</v>
+      </c>
+      <c r="H75">
+        <v>9900984321</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>15987</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="M75" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" t="s">
+        <v>254</v>
+      </c>
+      <c r="C76" t="s">
+        <v>255</v>
+      </c>
+      <c r="D76" t="s">
+        <v>256</v>
+      </c>
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76">
+        <v>9900789345</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>16543</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="M76" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" t="s">
+        <v>257</v>
+      </c>
+      <c r="C77" t="s">
+        <v>258</v>
+      </c>
+      <c r="D77" t="s">
+        <v>259</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77">
+        <v>9900543210</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>15324</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="M77" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" t="s">
+        <v>260</v>
+      </c>
+      <c r="C78" t="s">
+        <v>261</v>
+      </c>
+      <c r="D78" t="s">
+        <v>262</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" t="s">
+        <v>94</v>
+      </c>
+      <c r="H78">
+        <v>9900654321</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>14876</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="M78" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" t="s">
+        <v>263</v>
+      </c>
+      <c r="C79" t="s">
+        <v>264</v>
+      </c>
+      <c r="D79" t="s">
+        <v>265</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79">
+        <v>9900345678</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>13654</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="M79" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" t="s">
+        <v>266</v>
+      </c>
+      <c r="C80" t="s">
+        <v>267</v>
+      </c>
+      <c r="D80" t="s">
+        <v>268</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80">
+        <v>9900876543</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>16342</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="M80" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" t="s">
+        <v>269</v>
+      </c>
+      <c r="C81" t="s">
+        <v>270</v>
+      </c>
+      <c r="D81" t="s">
+        <v>271</v>
+      </c>
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" t="s">
+        <v>98</v>
+      </c>
+      <c r="H81" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="M81" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" t="s">
+        <v>272</v>
+      </c>
+      <c r="C82" t="s">
+        <v>273</v>
+      </c>
+      <c r="D82" t="s">
+        <v>274</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" t="s">
+        <v>139</v>
+      </c>
+      <c r="H82">
+        <v>9900987654</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>17654</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="M82" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" t="s">
+        <v>275</v>
+      </c>
+      <c r="C83" t="s">
+        <v>276</v>
+      </c>
+      <c r="D83" t="s">
+        <v>277</v>
+      </c>
+      <c r="E83" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83">
+        <v>9900543210</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <v>15467</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="M83" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" t="s">
+        <v>278</v>
+      </c>
+      <c r="C84" t="s">
+        <v>279</v>
+      </c>
+      <c r="D84" t="s">
+        <v>280</v>
+      </c>
+      <c r="E84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84">
+        <v>9900654321</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>17890</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="M84" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" t="s">
+        <v>281</v>
+      </c>
+      <c r="C85" t="s">
+        <v>282</v>
+      </c>
+      <c r="D85" t="s">
+        <v>283</v>
+      </c>
+      <c r="E85" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s">
+        <v>108</v>
+      </c>
+      <c r="H85">
+        <v>9900123456</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <v>16543</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="M85" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>284</v>
+      </c>
+      <c r="C86" t="s">
+        <v>285</v>
+      </c>
+      <c r="D86" t="s">
+        <v>286</v>
+      </c>
+      <c r="E86" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s">
+        <v>287</v>
+      </c>
+      <c r="H86">
+        <v>9900125678</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <v>14235</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="M86" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>288</v>
+      </c>
+      <c r="C87" t="s">
+        <v>289</v>
+      </c>
+      <c r="D87" t="s">
+        <v>290</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87">
+        <v>9900659876</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>15322</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="M87" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>291</v>
+      </c>
+      <c r="C88" t="s">
+        <v>292</v>
+      </c>
+      <c r="D88" t="s">
+        <v>293</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>294</v>
+      </c>
+      <c r="H88">
+        <v>9900876532</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <v>13457</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="M88" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>295</v>
+      </c>
+      <c r="C89" t="s">
+        <v>296</v>
+      </c>
+      <c r="D89" t="s">
+        <v>297</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>298</v>
+      </c>
+      <c r="H89">
+        <v>9900987651</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>17653</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="M89" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>299</v>
+      </c>
+      <c r="C90" t="s">
+        <v>300</v>
+      </c>
+      <c r="D90" t="s">
+        <v>301</v>
+      </c>
+      <c r="E90" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" t="s">
+        <v>302</v>
+      </c>
+      <c r="H90" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="M90" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>303</v>
+      </c>
+      <c r="C91" t="s">
+        <v>304</v>
+      </c>
+      <c r="D91" t="s">
+        <v>305</v>
+      </c>
+      <c r="E91" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91">
+        <v>9900123498</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <v>18764</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="M91" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>306</v>
+      </c>
+      <c r="C92" t="s">
+        <v>307</v>
+      </c>
+      <c r="D92" t="s">
+        <v>308</v>
+      </c>
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" t="s">
+        <v>309</v>
+      </c>
+      <c r="H92" t="s">
+        <v>15</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="M92" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>310</v>
+      </c>
+      <c r="C93" t="s">
+        <v>311</v>
+      </c>
+      <c r="D93" t="s">
+        <v>312</v>
+      </c>
+      <c r="E93" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93">
+        <v>9900765431</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>13547</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="M93" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>313</v>
+      </c>
+      <c r="C94" t="s">
+        <v>314</v>
+      </c>
+      <c r="D94" t="s">
+        <v>315</v>
+      </c>
+      <c r="E94" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94">
+        <v>9900984320</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <v>14766</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="M94" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>316</v>
+      </c>
+      <c r="C95" t="s">
+        <v>317</v>
+      </c>
+      <c r="D95" t="s">
+        <v>318</v>
+      </c>
+      <c r="E95" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" t="s">
+        <v>319</v>
+      </c>
+      <c r="H95">
+        <v>9900543219</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>17653</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="M95" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>36</v>
+      </c>
+      <c r="B96" t="s">
+        <v>320</v>
+      </c>
+      <c r="C96" t="s">
+        <v>321</v>
+      </c>
+      <c r="D96" t="s">
+        <v>322</v>
+      </c>
+      <c r="E96" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96">
+        <v>9900456788</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>14679</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="M96" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>36</v>
+      </c>
+      <c r="B97" t="s">
+        <v>323</v>
+      </c>
+      <c r="C97" t="s">
+        <v>324</v>
+      </c>
+      <c r="D97" t="s">
+        <v>325</v>
+      </c>
+      <c r="E97" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97">
+        <v>9900984320</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>15468</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="M97" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>36</v>
+      </c>
+      <c r="B98" t="s">
+        <v>326</v>
+      </c>
+      <c r="C98" t="s">
+        <v>327</v>
+      </c>
+      <c r="D98" t="s">
+        <v>328</v>
+      </c>
+      <c r="E98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" t="s">
+        <v>298</v>
+      </c>
+      <c r="H98">
+        <v>9900234566</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98">
+        <v>14322</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="M98" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99" t="s">
+        <v>329</v>
+      </c>
+      <c r="C99" t="s">
+        <v>330</v>
+      </c>
+      <c r="D99" t="s">
+        <v>331</v>
+      </c>
+      <c r="E99" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" t="s">
+        <v>294</v>
+      </c>
+      <c r="H99" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="M99" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>36</v>
+      </c>
+      <c r="B100" t="s">
+        <v>332</v>
+      </c>
+      <c r="C100" t="s">
+        <v>333</v>
+      </c>
+      <c r="D100" t="s">
+        <v>334</v>
+      </c>
+      <c r="E100" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100">
+        <v>9900654312</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>17653</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="M100" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>36</v>
+      </c>
+      <c r="B101" t="s">
+        <v>335</v>
+      </c>
+      <c r="C101" t="s">
+        <v>336</v>
+      </c>
+      <c r="D101" t="s">
+        <v>337</v>
+      </c>
+      <c r="E101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" t="s">
+        <v>309</v>
+      </c>
+      <c r="H101">
+        <v>9900876542</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101">
+        <v>14568</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="M101" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>36</v>
+      </c>
+      <c r="B102" t="s">
+        <v>338</v>
+      </c>
+      <c r="C102" t="s">
+        <v>339</v>
+      </c>
+      <c r="D102" t="s">
+        <v>340</v>
+      </c>
+      <c r="E102" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" t="s">
+        <v>341</v>
+      </c>
+      <c r="H102" t="s">
+        <v>15</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+      <c r="M102" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>36</v>
+      </c>
+      <c r="B103" t="s">
+        <v>342</v>
+      </c>
+      <c r="C103" t="s">
+        <v>343</v>
+      </c>
+      <c r="D103" t="s">
+        <v>344</v>
+      </c>
+      <c r="E103" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103">
+        <v>9900123459</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103">
+        <v>17891</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="M103" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>36</v>
+      </c>
+      <c r="B104" t="s">
+        <v>345</v>
+      </c>
+      <c r="C104" t="s">
+        <v>346</v>
+      </c>
+      <c r="D104" t="s">
+        <v>347</v>
+      </c>
+      <c r="E104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104">
+        <v>9900765431</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>16755</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="M104" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>36</v>
+      </c>
+      <c r="B105" t="s">
+        <v>348</v>
+      </c>
+      <c r="C105" t="s">
+        <v>349</v>
+      </c>
+      <c r="D105" t="s">
+        <v>350</v>
+      </c>
+      <c r="E105" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" t="s">
+        <v>351</v>
+      </c>
+      <c r="H105">
+        <v>9900984311</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105">
+        <v>15988</v>
+      </c>
+      <c r="K105">
+        <v>2</v>
+      </c>
+      <c r="M105" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>48</v>
+      </c>
+      <c r="B106" t="s">
+        <v>352</v>
+      </c>
+      <c r="C106" t="s">
+        <v>353</v>
+      </c>
+      <c r="D106" t="s">
+        <v>354</v>
+      </c>
+      <c r="E106" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106">
+        <v>9900789346</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106">
+        <v>16544</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="M106" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107" t="s">
+        <v>355</v>
+      </c>
+      <c r="C107" t="s">
+        <v>356</v>
+      </c>
+      <c r="D107" t="s">
+        <v>357</v>
+      </c>
+      <c r="E107" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107">
+        <v>9900543211</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>15325</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="M107" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>48</v>
+      </c>
+      <c r="B108" t="s">
+        <v>358</v>
+      </c>
+      <c r="C108" t="s">
+        <v>359</v>
+      </c>
+      <c r="D108" t="s">
+        <v>360</v>
+      </c>
+      <c r="E108" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" t="s">
+        <v>15</v>
+      </c>
+      <c r="G108" t="s">
+        <v>361</v>
+      </c>
+      <c r="H108">
+        <v>9900654322</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108">
+        <v>14877</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="M108" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>48</v>
+      </c>
+      <c r="B109" t="s">
+        <v>362</v>
+      </c>
+      <c r="C109" t="s">
+        <v>363</v>
+      </c>
+      <c r="D109" t="s">
+        <v>364</v>
+      </c>
+      <c r="E109" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109">
+        <v>9900345679</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>13655</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="M109" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>48</v>
+      </c>
+      <c r="B110" t="s">
+        <v>365</v>
+      </c>
+      <c r="C110" t="s">
+        <v>366</v>
+      </c>
+      <c r="D110" t="s">
+        <v>367</v>
+      </c>
+      <c r="E110" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110">
+        <v>9900876544</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110">
+        <v>16343</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="M110" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>48</v>
+      </c>
+      <c r="B111" t="s">
+        <v>368</v>
+      </c>
+      <c r="C111" t="s">
+        <v>369</v>
+      </c>
+      <c r="D111" t="s">
+        <v>370</v>
+      </c>
+      <c r="E111" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" t="s">
+        <v>371</v>
+      </c>
+      <c r="H111" t="s">
+        <v>15</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="M111" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>48</v>
+      </c>
+      <c r="B112" t="s">
+        <v>372</v>
+      </c>
+      <c r="C112" t="s">
+        <v>373</v>
+      </c>
+      <c r="D112" t="s">
+        <v>374</v>
+      </c>
+      <c r="E112" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" t="s">
+        <v>375</v>
+      </c>
+      <c r="H112">
+        <v>9900987652</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>17655</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="M112" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>48</v>
+      </c>
+      <c r="B113" t="s">
+        <v>376</v>
+      </c>
+      <c r="C113" t="s">
+        <v>377</v>
+      </c>
+      <c r="D113" t="s">
+        <v>378</v>
+      </c>
+      <c r="E113" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113">
+        <v>9900543221</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113">
+        <v>15468</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="M113" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>48</v>
+      </c>
+      <c r="B114" t="s">
+        <v>379</v>
+      </c>
+      <c r="C114" t="s">
+        <v>380</v>
+      </c>
+      <c r="D114" t="s">
+        <v>381</v>
+      </c>
+      <c r="E114" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114">
+        <v>9900654323</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>17891</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="M114" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>48</v>
+      </c>
+      <c r="B115" t="s">
+        <v>184</v>
+      </c>
+      <c r="C115" t="s">
+        <v>382</v>
+      </c>
+      <c r="D115" t="s">
+        <v>186</v>
+      </c>
+      <c r="E115" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>383</v>
+      </c>
+      <c r="H115">
+        <v>9900123457</v>
+      </c>
+      <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115">
+        <v>16544</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="M115" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" t="s">
+        <v>384</v>
+      </c>
+      <c r="C116" t="s">
+        <v>385</v>
+      </c>
+      <c r="D116" t="s">
+        <v>386</v>
+      </c>
+      <c r="E116" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>387</v>
+      </c>
+      <c r="H116">
+        <v>9900125679</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116">
+        <v>14236</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="M116" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>388</v>
+      </c>
+      <c r="C117" t="s">
+        <v>389</v>
+      </c>
+      <c r="D117" t="s">
+        <v>390</v>
+      </c>
+      <c r="E117" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117">
+        <v>9900659877</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>15323</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="M117" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" t="s">
+        <v>391</v>
+      </c>
+      <c r="C118" t="s">
+        <v>392</v>
+      </c>
+      <c r="D118" t="s">
+        <v>393</v>
+      </c>
+      <c r="E118" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>371</v>
+      </c>
+      <c r="H118">
+        <v>9900876533</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+      <c r="J118">
+        <v>13458</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="M118" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" t="s">
+        <v>394</v>
+      </c>
+      <c r="C119" t="s">
+        <v>395</v>
+      </c>
+      <c r="D119" t="s">
+        <v>396</v>
+      </c>
+      <c r="E119" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>375</v>
+      </c>
+      <c r="H119">
+        <v>9900987652</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>17656</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="M119" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" t="s">
+        <v>397</v>
+      </c>
+      <c r="C120" t="s">
+        <v>398</v>
+      </c>
+      <c r="D120" t="s">
+        <v>399</v>
+      </c>
+      <c r="E120" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>400</v>
+      </c>
+      <c r="H120" t="s">
+        <v>15</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="M120" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" t="s">
+        <v>401</v>
+      </c>
+      <c r="C121" t="s">
+        <v>402</v>
+      </c>
+      <c r="D121" t="s">
+        <v>403</v>
+      </c>
+      <c r="E121" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121">
+        <v>9900123499</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <v>18766</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="M121" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" t="s">
+        <v>404</v>
+      </c>
+      <c r="C122" t="s">
+        <v>405</v>
+      </c>
+      <c r="D122" t="s">
+        <v>406</v>
+      </c>
+      <c r="E122" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" t="s">
+        <v>383</v>
+      </c>
+      <c r="H122" t="s">
+        <v>15</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="M122" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" t="s">
+        <v>407</v>
+      </c>
+      <c r="C123" t="s">
+        <v>408</v>
+      </c>
+      <c r="D123" t="s">
+        <v>409</v>
+      </c>
+      <c r="E123" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123">
+        <v>9900765433</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>13548</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="M123" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" t="s">
+        <v>410</v>
+      </c>
+      <c r="C124" t="s">
+        <v>411</v>
+      </c>
+      <c r="D124" t="s">
+        <v>412</v>
+      </c>
+      <c r="E124" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124">
+        <v>9900984322</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124">
+        <v>14767</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="M124" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" t="s">
+        <v>413</v>
+      </c>
+      <c r="C125" t="s">
+        <v>414</v>
+      </c>
+      <c r="D125" t="s">
+        <v>415</v>
+      </c>
+      <c r="E125" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" t="s">
+        <v>416</v>
+      </c>
+      <c r="H125">
+        <v>9900543220</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>17656</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="M125" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>36</v>
+      </c>
+      <c r="B126" t="s">
+        <v>417</v>
+      </c>
+      <c r="C126" t="s">
+        <v>418</v>
+      </c>
+      <c r="D126" t="s">
+        <v>419</v>
+      </c>
+      <c r="E126" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126">
+        <v>9900456789</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126">
+        <v>14680</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="M126" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>36</v>
+      </c>
+      <c r="B127" t="s">
+        <v>420</v>
+      </c>
+      <c r="C127" t="s">
+        <v>421</v>
+      </c>
+      <c r="D127" t="s">
+        <v>422</v>
+      </c>
+      <c r="E127" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127">
+        <v>9900984323</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>15469</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="M127" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>36</v>
+      </c>
+      <c r="B128" t="s">
+        <v>423</v>
+      </c>
+      <c r="C128" t="s">
+        <v>424</v>
+      </c>
+      <c r="D128" t="s">
+        <v>425</v>
+      </c>
+      <c r="E128" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
+        <v>426</v>
+      </c>
+      <c r="H128">
+        <v>9900234568</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128">
+        <v>14323</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="M128" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>36</v>
+      </c>
+      <c r="B129" t="s">
+        <v>427</v>
+      </c>
+      <c r="C129" t="s">
+        <v>428</v>
+      </c>
+      <c r="D129" t="s">
+        <v>429</v>
+      </c>
+      <c r="E129" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
+        <v>371</v>
+      </c>
+      <c r="H129" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="M129" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>36</v>
+      </c>
+      <c r="B130" t="s">
+        <v>430</v>
+      </c>
+      <c r="C130" t="s">
+        <v>431</v>
+      </c>
+      <c r="D130" t="s">
+        <v>432</v>
+      </c>
+      <c r="E130" t="s">
+        <v>15</v>
+      </c>
+      <c r="F130" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130">
+        <v>9900654313</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>17656</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="M130" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>36</v>
+      </c>
+      <c r="B131" t="s">
+        <v>433</v>
+      </c>
+      <c r="C131" t="s">
+        <v>434</v>
+      </c>
+      <c r="D131" t="s">
+        <v>435</v>
+      </c>
+      <c r="E131" t="s">
+        <v>15</v>
+      </c>
+      <c r="F131" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" t="s">
+        <v>436</v>
+      </c>
+      <c r="H131">
+        <v>9900876545</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131">
+        <v>14569</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="M131" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>36</v>
+      </c>
+      <c r="B132" t="s">
+        <v>437</v>
+      </c>
+      <c r="C132" t="s">
+        <v>438</v>
+      </c>
+      <c r="D132" t="s">
+        <v>439</v>
+      </c>
+      <c r="E132" t="s">
+        <v>15</v>
+      </c>
+      <c r="F132" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" t="s">
+        <v>440</v>
+      </c>
+      <c r="H132" t="s">
+        <v>15</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="M132" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>36</v>
+      </c>
+      <c r="B133" t="s">
+        <v>441</v>
+      </c>
+      <c r="C133" t="s">
+        <v>442</v>
+      </c>
+      <c r="D133" t="s">
+        <v>443</v>
+      </c>
+      <c r="E133" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133">
+        <v>9900123460</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133">
+        <v>17892</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="M133" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>36</v>
+      </c>
+      <c r="B134" t="s">
+        <v>444</v>
+      </c>
+      <c r="C134" t="s">
+        <v>445</v>
+      </c>
+      <c r="D134" t="s">
+        <v>446</v>
+      </c>
+      <c r="E134" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134">
+        <v>9900765434</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>16756</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="M134" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>36</v>
+      </c>
+      <c r="B135" t="s">
+        <v>447</v>
+      </c>
+      <c r="C135" t="s">
+        <v>448</v>
+      </c>
+      <c r="D135" t="s">
+        <v>449</v>
+      </c>
+      <c r="E135" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" t="s">
+        <v>15</v>
+      </c>
+      <c r="G135" t="s">
+        <v>450</v>
+      </c>
+      <c r="H135">
+        <v>9900984312</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135">
+        <v>15989</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="M135" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>48</v>
+      </c>
+      <c r="B136" t="s">
+        <v>451</v>
+      </c>
+      <c r="C136" t="s">
+        <v>452</v>
+      </c>
+      <c r="D136" t="s">
+        <v>453</v>
+      </c>
+      <c r="E136" t="s">
+        <v>15</v>
+      </c>
+      <c r="F136" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136">
+        <v>9900789347</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136">
+        <v>16545</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="M136" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>48</v>
+      </c>
+      <c r="B137" t="s">
+        <v>454</v>
+      </c>
+      <c r="C137" t="s">
+        <v>455</v>
+      </c>
+      <c r="D137" t="s">
+        <v>456</v>
+      </c>
+      <c r="E137" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137">
+        <v>9900543212</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>15326</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="M137" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>48</v>
+      </c>
+      <c r="B138" t="s">
+        <v>187</v>
+      </c>
+      <c r="C138" t="s">
+        <v>457</v>
+      </c>
+      <c r="D138" t="s">
+        <v>189</v>
+      </c>
+      <c r="E138" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" t="s">
+        <v>458</v>
+      </c>
+      <c r="H138">
+        <v>9900654324</v>
+      </c>
+      <c r="I138">
+        <v>2</v>
+      </c>
+      <c r="J138">
+        <v>14878</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="M138" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>48</v>
+      </c>
+      <c r="B139" t="s">
+        <v>459</v>
+      </c>
+      <c r="C139" t="s">
+        <v>460</v>
+      </c>
+      <c r="D139" t="s">
+        <v>461</v>
+      </c>
+      <c r="E139" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139">
+        <v>9900345680</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>13656</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="M139" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>48</v>
+      </c>
+      <c r="B140" t="s">
+        <v>462</v>
+      </c>
+      <c r="C140" t="s">
+        <v>463</v>
+      </c>
+      <c r="D140" t="s">
+        <v>464</v>
+      </c>
+      <c r="E140" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140">
+        <v>9900876546</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140">
+        <v>16344</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="M140" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>48</v>
+      </c>
+      <c r="B141" t="s">
+        <v>190</v>
+      </c>
+      <c r="C141" t="s">
+        <v>465</v>
+      </c>
+      <c r="D141" t="s">
+        <v>192</v>
+      </c>
+      <c r="E141" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" t="s">
+        <v>466</v>
+      </c>
+      <c r="H141" t="s">
+        <v>15</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="M141" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>48</v>
+      </c>
+      <c r="B142" t="s">
+        <v>467</v>
+      </c>
+      <c r="C142" t="s">
+        <v>468</v>
+      </c>
+      <c r="D142" t="s">
+        <v>469</v>
+      </c>
+      <c r="E142" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>470</v>
+      </c>
+      <c r="H142">
+        <v>9900987653</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>17656</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="M142" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>48</v>
+      </c>
+      <c r="B143" t="s">
+        <v>471</v>
+      </c>
+      <c r="C143" t="s">
+        <v>472</v>
+      </c>
+      <c r="D143" t="s">
+        <v>473</v>
+      </c>
+      <c r="E143" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143">
+        <v>9900543222</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143">
+        <v>15469</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="M143" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>48</v>
+      </c>
+      <c r="B144" t="s">
+        <v>474</v>
+      </c>
+      <c r="C144" t="s">
+        <v>475</v>
+      </c>
+      <c r="D144" t="s">
+        <v>476</v>
+      </c>
+      <c r="E144" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144">
+        <v>9900654325</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>17892</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="M144" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>48</v>
+      </c>
+      <c r="B145" t="s">
+        <v>477</v>
+      </c>
+      <c r="C145" t="s">
+        <v>478</v>
+      </c>
+      <c r="D145" t="s">
+        <v>479</v>
+      </c>
+      <c r="E145" t="s">
+        <v>15</v>
+      </c>
+      <c r="F145" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>480</v>
+      </c>
+      <c r="H145">
+        <v>9900123461</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145">
+        <v>16545</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="M145" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" t="s">
+        <v>481</v>
+      </c>
+      <c r="C146" t="s">
+        <v>482</v>
+      </c>
+      <c r="D146" t="s">
+        <v>483</v>
+      </c>
+      <c r="E146" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" t="s">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
+        <v>484</v>
+      </c>
+      <c r="H146">
+        <v>9900125680</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146">
+        <v>14237</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="M146" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>

--- a/GSKDATA/app2.vHco.xlsx
+++ b/GSKDATA/app2.vHco.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VC899BC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VC899BC\OneDrive - EY\Desktop\back\HighRiskThirdParty-Backend\GSKDATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB8D01C-4E86-46DC-877D-300545549FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7273D2E-25B6-4637-BB65-0CED17A84720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2847" uniqueCount="1134">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -1478,6 +1478,1950 @@
   </si>
   <si>
     <t>NEW DATA</t>
+  </si>
+  <si>
+    <t>Instituto Brasileiro de Oncologia</t>
+  </si>
+  <si>
+    <t>B152</t>
+  </si>
+  <si>
+    <t>www.institutobrasileirodeoncologia.com.br</t>
+  </si>
+  <si>
+    <t>ClÃ­nica SÃ£o Gabriel</t>
+  </si>
+  <si>
+    <t>B153</t>
+  </si>
+  <si>
+    <t>www.clinicasaogabriel.com.br</t>
+  </si>
+  <si>
+    <t>Centro MÃ©dico SÃ£o Mateus</t>
+  </si>
+  <si>
+    <t>B154</t>
+  </si>
+  <si>
+    <t>www.centromedicosaomateus.com.br</t>
+  </si>
+  <si>
+    <t>orgK990334567897</t>
+  </si>
+  <si>
+    <t>Hospital Vila Clara</t>
+  </si>
+  <si>
+    <t>B155</t>
+  </si>
+  <si>
+    <t>www.hospitalvilaclara.com.br</t>
+  </si>
+  <si>
+    <t>orgK990445678914</t>
+  </si>
+  <si>
+    <t>Hospital SÃ£o Miguel</t>
+  </si>
+  <si>
+    <t>B156</t>
+  </si>
+  <si>
+    <t>www.hospitalsaomiguel.com.br</t>
+  </si>
+  <si>
+    <t>Instituto Paulista de Reumatologia</t>
+  </si>
+  <si>
+    <t>B157</t>
+  </si>
+  <si>
+    <t>www.institutopaulistadereumatologia.com.br</t>
+  </si>
+  <si>
+    <t>orgK990556789019</t>
+  </si>
+  <si>
+    <t>ClÃ­nica SÃ£o Marcos</t>
+  </si>
+  <si>
+    <t>B158</t>
+  </si>
+  <si>
+    <t>www.clinicasaomarcos.com.br</t>
+  </si>
+  <si>
+    <t>Hospital da SaÃºde</t>
+  </si>
+  <si>
+    <t>B159</t>
+  </si>
+  <si>
+    <t>www.hospitaldasaude.com.br</t>
+  </si>
+  <si>
+    <t>Instituto Paulista de Endocrinologia</t>
+  </si>
+  <si>
+    <t>B160</t>
+  </si>
+  <si>
+    <t>www.institutopaulistadeendocrinologia.com.br</t>
+  </si>
+  <si>
+    <t>orgK990889012348</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Vida Saludable</t>
+  </si>
+  <si>
+    <t>S151</t>
+  </si>
+  <si>
+    <t>www.fundacionvidasaludable.org</t>
+  </si>
+  <si>
+    <t>AsociaciÃ³n Nuevas Vidas</t>
+  </si>
+  <si>
+    <t>S152</t>
+  </si>
+  <si>
+    <t>www.asociacionnuevasvidas.org</t>
+  </si>
+  <si>
+    <t>Centro de RehabilitaciÃ³n y Progreso</t>
+  </si>
+  <si>
+    <t>S153</t>
+  </si>
+  <si>
+    <t>www.centrorehabilitacionyprogreso.org</t>
+  </si>
+  <si>
+    <t>orgK990334567898</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Desarrollo y Bienestar</t>
+  </si>
+  <si>
+    <t>S154</t>
+  </si>
+  <si>
+    <t>www.fundaciondesarrolloybienestar.org</t>
+  </si>
+  <si>
+    <t>orgK990223456783</t>
+  </si>
+  <si>
+    <t>S155</t>
+  </si>
+  <si>
+    <t>Centro de Bienestar y Vida</t>
+  </si>
+  <si>
+    <t>S156</t>
+  </si>
+  <si>
+    <t>www.centrobienestaryvida.org</t>
+  </si>
+  <si>
+    <t>orgK990556789020</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Cuidado Integral</t>
+  </si>
+  <si>
+    <t>S157</t>
+  </si>
+  <si>
+    <t>www.fundacioncuidadointegral.org</t>
+  </si>
+  <si>
+    <t>orgK990334567899</t>
+  </si>
+  <si>
+    <t>Red de Progreso y Salud</t>
+  </si>
+  <si>
+    <t>S158</t>
+  </si>
+  <si>
+    <t>www.reddeprogresoysalud.org</t>
+  </si>
+  <si>
+    <t>AsociaciÃ³n de Bienestar Social</t>
+  </si>
+  <si>
+    <t>S159</t>
+  </si>
+  <si>
+    <t>www.asociaciondebienestarsocial.org</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Vida Integral</t>
+  </si>
+  <si>
+    <t>S160</t>
+  </si>
+  <si>
+    <t>www.fundacionvidaintegral.org</t>
+  </si>
+  <si>
+    <t>orgK990556789021</t>
+  </si>
+  <si>
+    <t>Global Wellness Health</t>
+  </si>
+  <si>
+    <t>U151</t>
+  </si>
+  <si>
+    <t>www.globalwellnesshealth.org</t>
+  </si>
+  <si>
+    <t>Health Network Foundation</t>
+  </si>
+  <si>
+    <t>U152</t>
+  </si>
+  <si>
+    <t>www.healthnetworkfoundation.org</t>
+  </si>
+  <si>
+    <t>Hope for Tomorrow Foundation</t>
+  </si>
+  <si>
+    <t>U153</t>
+  </si>
+  <si>
+    <t>www.hopefortomorrowfoundation.org</t>
+  </si>
+  <si>
+    <t>orgK990112345681</t>
+  </si>
+  <si>
+    <t>National Health Organization</t>
+  </si>
+  <si>
+    <t>U154</t>
+  </si>
+  <si>
+    <t>www.nationalhealthorganization.org</t>
+  </si>
+  <si>
+    <t>Unified Health Partners</t>
+  </si>
+  <si>
+    <t>U155</t>
+  </si>
+  <si>
+    <t>www.unifiedhealthpartners.org</t>
+  </si>
+  <si>
+    <t>U156</t>
+  </si>
+  <si>
+    <t>orgK990223456784</t>
+  </si>
+  <si>
+    <t>Futures for Health and Wellness</t>
+  </si>
+  <si>
+    <t>U157</t>
+  </si>
+  <si>
+    <t>www.futuresforhealthandwellness.org</t>
+  </si>
+  <si>
+    <t>orgK990334567900</t>
+  </si>
+  <si>
+    <t>Nationwide Wellness Initiative</t>
+  </si>
+  <si>
+    <t>U158</t>
+  </si>
+  <si>
+    <t>www.nationwidewellnessinitiative.org</t>
+  </si>
+  <si>
+    <t>Health and Wellness Alliance</t>
+  </si>
+  <si>
+    <t>U159</t>
+  </si>
+  <si>
+    <t>www.healthandwellnessalliance.org</t>
+  </si>
+  <si>
+    <t>Global Health and Care</t>
+  </si>
+  <si>
+    <t>U160</t>
+  </si>
+  <si>
+    <t>www.globalhealthandcare.org</t>
+  </si>
+  <si>
+    <t>orgK990556789022</t>
+  </si>
+  <si>
+    <t>Hospital SÃ£o Lucas</t>
+  </si>
+  <si>
+    <t>B171</t>
+  </si>
+  <si>
+    <t>www.hospitalsaolucas.com.br</t>
+  </si>
+  <si>
+    <t>orgK998765432116</t>
+  </si>
+  <si>
+    <t>Instituto Brasileiro de Cardiologia</t>
+  </si>
+  <si>
+    <t>B172</t>
+  </si>
+  <si>
+    <t>www.institutobrasileirodecardiologia.com.br</t>
+  </si>
+  <si>
+    <t>ClÃ­nica SÃ£o JosÃ©</t>
+  </si>
+  <si>
+    <t>B173</t>
+  </si>
+  <si>
+    <t>www.clinicasaojose.com.br</t>
+  </si>
+  <si>
+    <t>orgK990223456786</t>
+  </si>
+  <si>
+    <t>Centro MÃ©dico SÃ£o Rafael</t>
+  </si>
+  <si>
+    <t>B174</t>
+  </si>
+  <si>
+    <t>www.centromedicosaorafael.com.br</t>
+  </si>
+  <si>
+    <t>orgK990334567905</t>
+  </si>
+  <si>
+    <t>B175</t>
+  </si>
+  <si>
+    <t>orgK990445678916</t>
+  </si>
+  <si>
+    <t>Hospital SÃ£o Bento</t>
+  </si>
+  <si>
+    <t>B176</t>
+  </si>
+  <si>
+    <t>www.hospitalsaobento.com.br</t>
+  </si>
+  <si>
+    <t>Instituto Paulista de Pediatria</t>
+  </si>
+  <si>
+    <t>B177</t>
+  </si>
+  <si>
+    <t>www.institutopaulistadepediatria.com.br</t>
+  </si>
+  <si>
+    <t>orgK990556789027</t>
+  </si>
+  <si>
+    <t>ClÃ­nica SÃ£o TomÃ©</t>
+  </si>
+  <si>
+    <t>B178</t>
+  </si>
+  <si>
+    <t>www.clinicasaotome.com.br</t>
+  </si>
+  <si>
+    <t>B179</t>
+  </si>
+  <si>
+    <t>orgK990889012350</t>
+  </si>
+  <si>
+    <t>Instituto Paulista de Oftalmologia</t>
+  </si>
+  <si>
+    <t>B180</t>
+  </si>
+  <si>
+    <t>www.institutopaulistadeoftalmologia.com.br</t>
+  </si>
+  <si>
+    <t>orgK998765432117</t>
+  </si>
+  <si>
+    <t>S171</t>
+  </si>
+  <si>
+    <t>www.fundacionvidaplena.com</t>
+  </si>
+  <si>
+    <t>orgK990223456787</t>
+  </si>
+  <si>
+    <t>AsociaciÃ³n Nuevas Perspectivas</t>
+  </si>
+  <si>
+    <t>S172</t>
+  </si>
+  <si>
+    <t>www.asociacionnuevasperspectivas.com</t>
+  </si>
+  <si>
+    <t>Centro de RehabilitaciÃ³n Nueva Vida</t>
+  </si>
+  <si>
+    <t>S173</t>
+  </si>
+  <si>
+    <t>www.centrorehabilitacionnuevavida.com</t>
+  </si>
+  <si>
+    <t>orgK990334567906</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Desarrollo Sustentable</t>
+  </si>
+  <si>
+    <t>S174</t>
+  </si>
+  <si>
+    <t>www.fundaciondesarrollosustentable.com</t>
+  </si>
+  <si>
+    <t>orgK990445678917</t>
+  </si>
+  <si>
+    <t>AsociaciÃ³n Esperanza Renaciente</t>
+  </si>
+  <si>
+    <t>S175</t>
+  </si>
+  <si>
+    <t>www.asociacionesperanzarenaciente.com</t>
+  </si>
+  <si>
+    <t>Centro de Bienestar Comunitario</t>
+  </si>
+  <si>
+    <t>S176</t>
+  </si>
+  <si>
+    <t>www.centrobienestarcomunitario.com</t>
+  </si>
+  <si>
+    <t>orgK990556789028</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Cuidado Responsable</t>
+  </si>
+  <si>
+    <t>S177</t>
+  </si>
+  <si>
+    <t>www.fundacioncuidadoresponsable.com</t>
+  </si>
+  <si>
+    <t>orgK990334567907</t>
+  </si>
+  <si>
+    <t>Red de Apoyo y Bienestar</t>
+  </si>
+  <si>
+    <t>S178</t>
+  </si>
+  <si>
+    <t>www.reddeapoyoybienestar.com</t>
+  </si>
+  <si>
+    <t>AsociaciÃ³n de Salud Integral</t>
+  </si>
+  <si>
+    <t>S179</t>
+  </si>
+  <si>
+    <t>www.asociaciondesaludintegral.com</t>
+  </si>
+  <si>
+    <t>orgK990889012351</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Vida Activa</t>
+  </si>
+  <si>
+    <t>S180</t>
+  </si>
+  <si>
+    <t>www.fundacionvidaactiva.com</t>
+  </si>
+  <si>
+    <t>orgK998765432118</t>
+  </si>
+  <si>
+    <t>U171</t>
+  </si>
+  <si>
+    <t>www.globalwellnessinitiative.com</t>
+  </si>
+  <si>
+    <t>orgK990223456788</t>
+  </si>
+  <si>
+    <t>Health Network Support</t>
+  </si>
+  <si>
+    <t>U172</t>
+  </si>
+  <si>
+    <t>www.healthnetworksupport.com</t>
+  </si>
+  <si>
+    <t>Hope for a Healthy Future</t>
+  </si>
+  <si>
+    <t>U173</t>
+  </si>
+  <si>
+    <t>www.hopeforahealthyfuture.com</t>
+  </si>
+  <si>
+    <t>orgK990334567908</t>
+  </si>
+  <si>
+    <t>National Health Service</t>
+  </si>
+  <si>
+    <t>U174</t>
+  </si>
+  <si>
+    <t>www.nationalhealthservice.com</t>
+  </si>
+  <si>
+    <t>orgK990445678918</t>
+  </si>
+  <si>
+    <t>Unified Care Alliance</t>
+  </si>
+  <si>
+    <t>U175</t>
+  </si>
+  <si>
+    <t>www.unifiedcarealliance.com</t>
+  </si>
+  <si>
+    <t>United Wellness Foundation</t>
+  </si>
+  <si>
+    <t>U176</t>
+  </si>
+  <si>
+    <t>www.unitedwellnessfoundation.com</t>
+  </si>
+  <si>
+    <t>orgK990556789029</t>
+  </si>
+  <si>
+    <t>Futures for Health and Care</t>
+  </si>
+  <si>
+    <t>U177</t>
+  </si>
+  <si>
+    <t>www.futuresforhealthandcare.com</t>
+  </si>
+  <si>
+    <t>Nationwide Health Partners</t>
+  </si>
+  <si>
+    <t>U178</t>
+  </si>
+  <si>
+    <t>www.nationwidehealthpartners.com</t>
+  </si>
+  <si>
+    <t>orgK990889012352</t>
+  </si>
+  <si>
+    <t>Health and Care Network</t>
+  </si>
+  <si>
+    <t>U179</t>
+  </si>
+  <si>
+    <t>www.healthandcarenetwork.com</t>
+  </si>
+  <si>
+    <t>Global Care Foundation</t>
+  </si>
+  <si>
+    <t>U180</t>
+  </si>
+  <si>
+    <t>www.globalcarefoundation.com</t>
+  </si>
+  <si>
+    <t>orgK998765432119</t>
+  </si>
+  <si>
+    <t>Hospital UniversitÃ¡rio</t>
+  </si>
+  <si>
+    <t>B181</t>
+  </si>
+  <si>
+    <t>www.hospitaluniversitario.com.br</t>
+  </si>
+  <si>
+    <t>orgK998765432120</t>
+  </si>
+  <si>
+    <t>Instituto Nacional de Cardiologia</t>
+  </si>
+  <si>
+    <t>B182</t>
+  </si>
+  <si>
+    <t>www.institutonacionaldecardiologia.com.br</t>
+  </si>
+  <si>
+    <t>ClÃ­nica SÃ£o Geraldo</t>
+  </si>
+  <si>
+    <t>B183</t>
+  </si>
+  <si>
+    <t>www.clinicasaogeraldo.com.br</t>
+  </si>
+  <si>
+    <t>Centro MÃ©dico SÃ£o Pedro</t>
+  </si>
+  <si>
+    <t>B184</t>
+  </si>
+  <si>
+    <t>www.centromedicosaopedro.com.br</t>
+  </si>
+  <si>
+    <t>orgK990334567910</t>
+  </si>
+  <si>
+    <t>Hospital Santa Teresa</t>
+  </si>
+  <si>
+    <t>B185</t>
+  </si>
+  <si>
+    <t>www.hospitalsantateresa.com.br</t>
+  </si>
+  <si>
+    <t>orgK990445678920</t>
+  </si>
+  <si>
+    <t>Hospital SÃ£o Gabriel</t>
+  </si>
+  <si>
+    <t>B186</t>
+  </si>
+  <si>
+    <t>www.hospitalsaogabriel.com.br</t>
+  </si>
+  <si>
+    <t>B187</t>
+  </si>
+  <si>
+    <t>orgK990556789031</t>
+  </si>
+  <si>
+    <t>B188</t>
+  </si>
+  <si>
+    <t>Hospital da EsperanÃ§a</t>
+  </si>
+  <si>
+    <t>B189</t>
+  </si>
+  <si>
+    <t>www.hospitaldaesperanca.com.br</t>
+  </si>
+  <si>
+    <t>orgK990889012353</t>
+  </si>
+  <si>
+    <t>B190</t>
+  </si>
+  <si>
+    <t>orgK998765432121</t>
+  </si>
+  <si>
+    <t>S181</t>
+  </si>
+  <si>
+    <t>orgK990223456790</t>
+  </si>
+  <si>
+    <t>S182</t>
+  </si>
+  <si>
+    <t>Centro de RehabilitaciÃ³n Vida Nueva</t>
+  </si>
+  <si>
+    <t>S183</t>
+  </si>
+  <si>
+    <t>www.centrorehabilitacionvidanueva.org</t>
+  </si>
+  <si>
+    <t>orgK990334567911</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Desarrollo y Futuro</t>
+  </si>
+  <si>
+    <t>S184</t>
+  </si>
+  <si>
+    <t>www.fundaciondesarrolloyfuturo.org</t>
+  </si>
+  <si>
+    <t>orgK990445678921</t>
+  </si>
+  <si>
+    <t>AsociaciÃ³n Esperanza para Todos</t>
+  </si>
+  <si>
+    <t>S185</t>
+  </si>
+  <si>
+    <t>www.asociacionesperanzaparatodos.org</t>
+  </si>
+  <si>
+    <t>Centro de Bienestar Integral</t>
+  </si>
+  <si>
+    <t>S186</t>
+  </si>
+  <si>
+    <t>www.centrobienestarintegral.org</t>
+  </si>
+  <si>
+    <t>orgK990556789032</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Cuidado Pleno</t>
+  </si>
+  <si>
+    <t>S187</t>
+  </si>
+  <si>
+    <t>www.fundacioncuidadopleno.org</t>
+  </si>
+  <si>
+    <t>orgK990334567912</t>
+  </si>
+  <si>
+    <t>Red de Salud y Vida</t>
+  </si>
+  <si>
+    <t>S188</t>
+  </si>
+  <si>
+    <t>www.redsaludyvida.org</t>
+  </si>
+  <si>
+    <t>S189</t>
+  </si>
+  <si>
+    <t>orgK990889012354</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Vida en Plenitud</t>
+  </si>
+  <si>
+    <t>S190</t>
+  </si>
+  <si>
+    <t>www.fundacionvidaenplenitud.org</t>
+  </si>
+  <si>
+    <t>orgK998765432122</t>
+  </si>
+  <si>
+    <t>Global Wellness Network</t>
+  </si>
+  <si>
+    <t>U181</t>
+  </si>
+  <si>
+    <t>www.globalwellnessnetwork.org</t>
+  </si>
+  <si>
+    <t>orgK990223456791</t>
+  </si>
+  <si>
+    <t>Health Network Solutions</t>
+  </si>
+  <si>
+    <t>U182</t>
+  </si>
+  <si>
+    <t>www.healthnetworksolutions.org</t>
+  </si>
+  <si>
+    <t>Hope for a Better Future</t>
+  </si>
+  <si>
+    <t>U183</t>
+  </si>
+  <si>
+    <t>www.hopeforabetterfuture.org</t>
+  </si>
+  <si>
+    <t>orgK990334567913</t>
+  </si>
+  <si>
+    <t>National Health Services</t>
+  </si>
+  <si>
+    <t>U184</t>
+  </si>
+  <si>
+    <t>www.nationalhealthservices.org</t>
+  </si>
+  <si>
+    <t>orgK990445678922</t>
+  </si>
+  <si>
+    <t>U185</t>
+  </si>
+  <si>
+    <t>United Wellness Initiative</t>
+  </si>
+  <si>
+    <t>U186</t>
+  </si>
+  <si>
+    <t>www.unitedwellnessinitiative.org</t>
+  </si>
+  <si>
+    <t>orgK990556789033</t>
+  </si>
+  <si>
+    <t>U187</t>
+  </si>
+  <si>
+    <t>Nationwide Wellness Partners</t>
+  </si>
+  <si>
+    <t>U188</t>
+  </si>
+  <si>
+    <t>www.nationwidewellnesspartners.org</t>
+  </si>
+  <si>
+    <t>orgK990889012355</t>
+  </si>
+  <si>
+    <t>Health and Wellness Solutions</t>
+  </si>
+  <si>
+    <t>U189</t>
+  </si>
+  <si>
+    <t>www.healthandwellnesssolutions.org</t>
+  </si>
+  <si>
+    <t>Global Care Solutions</t>
+  </si>
+  <si>
+    <t>U190</t>
+  </si>
+  <si>
+    <t>www.globalcaresolutions.org</t>
+  </si>
+  <si>
+    <t>orgK998765432123</t>
+  </si>
+  <si>
+    <t>Hospital SÃ£o Mateus</t>
+  </si>
+  <si>
+    <t>B191</t>
+  </si>
+  <si>
+    <t>www.hospitalsaomateus.com.br</t>
+  </si>
+  <si>
+    <t>orgK998765432124</t>
+  </si>
+  <si>
+    <t>Instituto Brasileiro de Dermatologia</t>
+  </si>
+  <si>
+    <t>B192</t>
+  </si>
+  <si>
+    <t>www.institutobrasileirodedermatologia.com.br</t>
+  </si>
+  <si>
+    <t>ClÃ­nica SÃ£o Carlos</t>
+  </si>
+  <si>
+    <t>B193</t>
+  </si>
+  <si>
+    <t>www.clinicasaocarlos.com.br</t>
+  </si>
+  <si>
+    <t>orgK990223456792</t>
+  </si>
+  <si>
+    <t>Centro MÃ©dico SÃ£o Marcos</t>
+  </si>
+  <si>
+    <t>B194</t>
+  </si>
+  <si>
+    <t>www.centromedicosaomarcos.com.br</t>
+  </si>
+  <si>
+    <t>orgK990334567914</t>
+  </si>
+  <si>
+    <t>Hospital Santa Marta</t>
+  </si>
+  <si>
+    <t>B195</t>
+  </si>
+  <si>
+    <t>www.hospitalsantamarta.com.br</t>
+  </si>
+  <si>
+    <t>orgK990445678923</t>
+  </si>
+  <si>
+    <t>Hospital SÃ£o Domingos</t>
+  </si>
+  <si>
+    <t>B196</t>
+  </si>
+  <si>
+    <t>www.hospitalsaodomingos.com.br</t>
+  </si>
+  <si>
+    <t>Instituto Paulista de Ginecologia</t>
+  </si>
+  <si>
+    <t>B197</t>
+  </si>
+  <si>
+    <t>www.institutopaulistadeginecologia.com.br</t>
+  </si>
+  <si>
+    <t>orgK990556789034</t>
+  </si>
+  <si>
+    <t>ClÃ­nica SÃ£o Paulo</t>
+  </si>
+  <si>
+    <t>B198</t>
+  </si>
+  <si>
+    <t>www.clinicasaopaulo.com.br</t>
+  </si>
+  <si>
+    <t>Hospital da RedenÃ§Ã£o</t>
+  </si>
+  <si>
+    <t>B199</t>
+  </si>
+  <si>
+    <t>www.hospitaldaredencao.com.br</t>
+  </si>
+  <si>
+    <t>orgK990889012356</t>
+  </si>
+  <si>
+    <t>Instituto Brasileiro de Neurologia</t>
+  </si>
+  <si>
+    <t>B200</t>
+  </si>
+  <si>
+    <t>www.institutobrasileirodeneorologia.com.br</t>
+  </si>
+  <si>
+    <t>orgK998765432125</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Salud y Bienestar</t>
+  </si>
+  <si>
+    <t>S191</t>
+  </si>
+  <si>
+    <t>www.fundacionsaludybienestar.org</t>
+  </si>
+  <si>
+    <t>orgK990223456793</t>
+  </si>
+  <si>
+    <t>S192</t>
+  </si>
+  <si>
+    <t>S193</t>
+  </si>
+  <si>
+    <t>orgK990334567915</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Futuro y Vida</t>
+  </si>
+  <si>
+    <t>S194</t>
+  </si>
+  <si>
+    <t>www.fundacionfuturoyvida.org</t>
+  </si>
+  <si>
+    <t>orgK990445678924</t>
+  </si>
+  <si>
+    <t>AsociaciÃ³n Esperanza Renueva</t>
+  </si>
+  <si>
+    <t>S195</t>
+  </si>
+  <si>
+    <t>www.asociacionesperanzarenueva.org</t>
+  </si>
+  <si>
+    <t>Centro de Bienestar Social</t>
+  </si>
+  <si>
+    <t>S196</t>
+  </si>
+  <si>
+    <t>www.centrobienestarsocial.org</t>
+  </si>
+  <si>
+    <t>orgK990556789035</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Apoyo Vital</t>
+  </si>
+  <si>
+    <t>S197</t>
+  </si>
+  <si>
+    <t>www.fundacionapoyovital.org</t>
+  </si>
+  <si>
+    <t>orgK990334567916</t>
+  </si>
+  <si>
+    <t>Red de Salud PÃºblica</t>
+  </si>
+  <si>
+    <t>S198</t>
+  </si>
+  <si>
+    <t>www.reddesaludpublica.org</t>
+  </si>
+  <si>
+    <t>AsociaciÃ³n de Salud y Vida</t>
+  </si>
+  <si>
+    <t>S199</t>
+  </si>
+  <si>
+    <t>www.asociaciondesaludyvida.org</t>
+  </si>
+  <si>
+    <t>orgK990889012357</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Vida y Salud</t>
+  </si>
+  <si>
+    <t>S200</t>
+  </si>
+  <si>
+    <t>www.fundacionvidaysalud.org</t>
+  </si>
+  <si>
+    <t>orgK998765432126</t>
+  </si>
+  <si>
+    <t>Global Wellness Society</t>
+  </si>
+  <si>
+    <t>U191</t>
+  </si>
+  <si>
+    <t>www.globalwellnesssociety.org</t>
+  </si>
+  <si>
+    <t>orgK990223456794</t>
+  </si>
+  <si>
+    <t>U192</t>
+  </si>
+  <si>
+    <t>U193</t>
+  </si>
+  <si>
+    <t>orgK990334567917</t>
+  </si>
+  <si>
+    <t>U194</t>
+  </si>
+  <si>
+    <t>orgK990445678925</t>
+  </si>
+  <si>
+    <t>Unified Wellness Solutions</t>
+  </si>
+  <si>
+    <t>U195</t>
+  </si>
+  <si>
+    <t>www.unifiedwellnesssolutions.org</t>
+  </si>
+  <si>
+    <t>United Wellness Network</t>
+  </si>
+  <si>
+    <t>U196</t>
+  </si>
+  <si>
+    <t>www.unitedwellnessnetwork.org</t>
+  </si>
+  <si>
+    <t>orgK990556789036</t>
+  </si>
+  <si>
+    <t>Futures for Health Network</t>
+  </si>
+  <si>
+    <t>U197</t>
+  </si>
+  <si>
+    <t>www.futuresforhealthnetwork.org</t>
+  </si>
+  <si>
+    <t>Nationwide Health Alliance</t>
+  </si>
+  <si>
+    <t>U198</t>
+  </si>
+  <si>
+    <t>www.nationwidehealthalliance.org</t>
+  </si>
+  <si>
+    <t>orgK990889012358</t>
+  </si>
+  <si>
+    <t>U199</t>
+  </si>
+  <si>
+    <t>Global Care Initiative</t>
+  </si>
+  <si>
+    <t>U200</t>
+  </si>
+  <si>
+    <t>www.globalcareinitiative.org</t>
+  </si>
+  <si>
+    <t>orgK998765432127</t>
+  </si>
+  <si>
+    <t>B201</t>
+  </si>
+  <si>
+    <t>orgK998765432128</t>
+  </si>
+  <si>
+    <t>Instituto Nacional de Oncologia</t>
+  </si>
+  <si>
+    <t>B202</t>
+  </si>
+  <si>
+    <t>www.institutonacionaldeoncologia.com.br</t>
+  </si>
+  <si>
+    <t>ClÃ­nica SÃ£o Vicente</t>
+  </si>
+  <si>
+    <t>B203</t>
+  </si>
+  <si>
+    <t>www.clinicasaovicente.com.br</t>
+  </si>
+  <si>
+    <t>orgK990223456795</t>
+  </si>
+  <si>
+    <t>B204</t>
+  </si>
+  <si>
+    <t>orgK990334567918</t>
+  </si>
+  <si>
+    <t>Hospital Santa Maria</t>
+  </si>
+  <si>
+    <t>B205</t>
+  </si>
+  <si>
+    <t>www.hospitalsantamaria.com.br</t>
+  </si>
+  <si>
+    <t>orgK990445678926</t>
+  </si>
+  <si>
+    <t>Hospital SÃ£o Pedro</t>
+  </si>
+  <si>
+    <t>B206</t>
+  </si>
+  <si>
+    <t>www.hospitalsaopedro.com.br</t>
+  </si>
+  <si>
+    <t>Instituto Paulista de Urologia</t>
+  </si>
+  <si>
+    <t>B207</t>
+  </si>
+  <si>
+    <t>www.institutopaulistadeurologia.com.br</t>
+  </si>
+  <si>
+    <t>orgK990556789037</t>
+  </si>
+  <si>
+    <t>B208</t>
+  </si>
+  <si>
+    <t>Hospital da Boa EsperanÃ§a</t>
+  </si>
+  <si>
+    <t>B209</t>
+  </si>
+  <si>
+    <t>www.hospitaldaboaesperanca.com.br</t>
+  </si>
+  <si>
+    <t>orgK990889012360</t>
+  </si>
+  <si>
+    <t>Instituto Brasileiro de Oftalmologia</t>
+  </si>
+  <si>
+    <t>B210</t>
+  </si>
+  <si>
+    <t>www.institutobrasileirodeoftalmologia.com.br</t>
+  </si>
+  <si>
+    <t>orgK998765432129</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Vida Sana</t>
+  </si>
+  <si>
+    <t>S201</t>
+  </si>
+  <si>
+    <t>www.fundacionvidasana.org</t>
+  </si>
+  <si>
+    <t>orgK990223456796</t>
+  </si>
+  <si>
+    <t>S202</t>
+  </si>
+  <si>
+    <t>Centro de RehabilitaciÃ³n San Juan</t>
+  </si>
+  <si>
+    <t>S203</t>
+  </si>
+  <si>
+    <t>www.centrorehabilitacionsanjuan.org</t>
+  </si>
+  <si>
+    <t>orgK990334567919</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Futuro para Todos</t>
+  </si>
+  <si>
+    <t>S204</t>
+  </si>
+  <si>
+    <t>www.fundacionfuturopatodos.org</t>
+  </si>
+  <si>
+    <t>orgK990445678927</t>
+  </si>
+  <si>
+    <t>S205</t>
+  </si>
+  <si>
+    <t>Centro de Bienestar Familiar</t>
+  </si>
+  <si>
+    <t>S206</t>
+  </si>
+  <si>
+    <t>www.centrobienestarfamiliar.org</t>
+  </si>
+  <si>
+    <t>orgK990556789038</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Apoyo y Salud</t>
+  </si>
+  <si>
+    <t>S207</t>
+  </si>
+  <si>
+    <t>www.fundacionapoyoysalud.org</t>
+  </si>
+  <si>
+    <t>orgK990334567920</t>
+  </si>
+  <si>
+    <t>Red de Salud Integral</t>
+  </si>
+  <si>
+    <t>S208</t>
+  </si>
+  <si>
+    <t>www.redsaludintegral.org</t>
+  </si>
+  <si>
+    <t>AsociaciÃ³n de Vida y Salud</t>
+  </si>
+  <si>
+    <t>S209</t>
+  </si>
+  <si>
+    <t>www.asociaciondevidaysalud.org</t>
+  </si>
+  <si>
+    <t>orgK990889012361</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Vida y Futuro</t>
+  </si>
+  <si>
+    <t>S210</t>
+  </si>
+  <si>
+    <t>www.fundacionvidayfuturo.org</t>
+  </si>
+  <si>
+    <t>orgK998765432130</t>
+  </si>
+  <si>
+    <t>Global Health Network</t>
+  </si>
+  <si>
+    <t>U201</t>
+  </si>
+  <si>
+    <t>www.globalhealthnetwork.org</t>
+  </si>
+  <si>
+    <t>orgK990223456797</t>
+  </si>
+  <si>
+    <t>Health Alliance Network</t>
+  </si>
+  <si>
+    <t>U202</t>
+  </si>
+  <si>
+    <t>www.healthalliancenetwork.org</t>
+  </si>
+  <si>
+    <t>Hope for Tomorrow Alliance</t>
+  </si>
+  <si>
+    <t>U203</t>
+  </si>
+  <si>
+    <t>www.hopefortomorrowalliance.org</t>
+  </si>
+  <si>
+    <t>orgK990334567921</t>
+  </si>
+  <si>
+    <t>National Wellness Initiative</t>
+  </si>
+  <si>
+    <t>U204</t>
+  </si>
+  <si>
+    <t>www.nationalwellnessinitiative.org</t>
+  </si>
+  <si>
+    <t>orgK990445678928</t>
+  </si>
+  <si>
+    <t>Unified Wellness Partners</t>
+  </si>
+  <si>
+    <t>U205</t>
+  </si>
+  <si>
+    <t>www.unifiedwellnesspartners.org</t>
+  </si>
+  <si>
+    <t>U206</t>
+  </si>
+  <si>
+    <t>orgK990556789039</t>
+  </si>
+  <si>
+    <t>U207</t>
+  </si>
+  <si>
+    <t>Nationwide Health Initiative</t>
+  </si>
+  <si>
+    <t>U208</t>
+  </si>
+  <si>
+    <t>www.nationwidehealthinitiative.org</t>
+  </si>
+  <si>
+    <t>orgK990889012362</t>
+  </si>
+  <si>
+    <t>Health and Wellness Network</t>
+  </si>
+  <si>
+    <t>U209</t>
+  </si>
+  <si>
+    <t>www.healthandwellnessnetwork.org</t>
+  </si>
+  <si>
+    <t>Global Care Alliance</t>
+  </si>
+  <si>
+    <t>U210</t>
+  </si>
+  <si>
+    <t>www.globalcarealliance.org</t>
+  </si>
+  <si>
+    <t>orgK998765432131</t>
+  </si>
+  <si>
+    <t>Hospital SÃ£o Francisco</t>
+  </si>
+  <si>
+    <t>B211</t>
+  </si>
+  <si>
+    <t>www.hospitalsaofrancisco.com.br</t>
+  </si>
+  <si>
+    <t>orgK998765432132</t>
+  </si>
+  <si>
+    <t>B212</t>
+  </si>
+  <si>
+    <t>ClÃ­nica SÃ£o JoÃ£o</t>
+  </si>
+  <si>
+    <t>B213</t>
+  </si>
+  <si>
+    <t>www.clinicasaojoao.com.br</t>
+  </si>
+  <si>
+    <t>orgK990223456798</t>
+  </si>
+  <si>
+    <t>Centro MÃ©dico SÃ£o Gabriel</t>
+  </si>
+  <si>
+    <t>B214</t>
+  </si>
+  <si>
+    <t>www.centromedicosaogabriel.com.br</t>
+  </si>
+  <si>
+    <t>orgK990334567922</t>
+  </si>
+  <si>
+    <t>Hospital Santa Clara</t>
+  </si>
+  <si>
+    <t>B215</t>
+  </si>
+  <si>
+    <t>www.hospitalsantaclara.com.br</t>
+  </si>
+  <si>
+    <t>orgK990445678929</t>
+  </si>
+  <si>
+    <t>B216</t>
+  </si>
+  <si>
+    <t>B217</t>
+  </si>
+  <si>
+    <t>orgK990556789040</t>
+  </si>
+  <si>
+    <t>ClÃ­nica SÃ£o Rafael</t>
+  </si>
+  <si>
+    <t>B218</t>
+  </si>
+  <si>
+    <t>www.clinicasaorafael.com.br</t>
+  </si>
+  <si>
+    <t>B219</t>
+  </si>
+  <si>
+    <t>orgK990889012363</t>
+  </si>
+  <si>
+    <t>B220</t>
+  </si>
+  <si>
+    <t>orgK998765432133</t>
+  </si>
+  <si>
+    <t>S211</t>
+  </si>
+  <si>
+    <t>orgK990223456799</t>
+  </si>
+  <si>
+    <t>S212</t>
+  </si>
+  <si>
+    <t>S213</t>
+  </si>
+  <si>
+    <t>orgK990334567923</t>
+  </si>
+  <si>
+    <t>S214</t>
+  </si>
+  <si>
+    <t>orgK990445678930</t>
+  </si>
+  <si>
+    <t>S215</t>
+  </si>
+  <si>
+    <t>S216</t>
+  </si>
+  <si>
+    <t>orgK990556789041</t>
+  </si>
+  <si>
+    <t>S217</t>
+  </si>
+  <si>
+    <t>orgK990334567924</t>
+  </si>
+  <si>
+    <t>S218</t>
+  </si>
+  <si>
+    <t>S219</t>
+  </si>
+  <si>
+    <t>orgK990889012364</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Luz y Vida</t>
+  </si>
+  <si>
+    <t>S220</t>
+  </si>
+  <si>
+    <t>www.fundacionluzvida.org</t>
+  </si>
+  <si>
+    <t>orgK998765432134</t>
+  </si>
+  <si>
+    <t>U211</t>
+  </si>
+  <si>
+    <t>orgK990223456800</t>
+  </si>
+  <si>
+    <t>U212</t>
+  </si>
+  <si>
+    <t>U213</t>
+  </si>
+  <si>
+    <t>orgK990334567925</t>
+  </si>
+  <si>
+    <t>U214</t>
+  </si>
+  <si>
+    <t>orgK990445678931</t>
+  </si>
+  <si>
+    <t>U215</t>
+  </si>
+  <si>
+    <t>U216</t>
+  </si>
+  <si>
+    <t>orgK990556789042</t>
+  </si>
+  <si>
+    <t>U217</t>
+  </si>
+  <si>
+    <t>U218</t>
+  </si>
+  <si>
+    <t>orgK990889012365</t>
+  </si>
+  <si>
+    <t>U219</t>
+  </si>
+  <si>
+    <t>U220</t>
+  </si>
+  <si>
+    <t>orgK998765432135</t>
+  </si>
+  <si>
+    <t>B221</t>
+  </si>
+  <si>
+    <t>orgK990556789043</t>
+  </si>
+  <si>
+    <t>ClÃ­nica Santa Maria</t>
+  </si>
+  <si>
+    <t>B222</t>
+  </si>
+  <si>
+    <t>www.clinicasantamaria.com.br</t>
+  </si>
+  <si>
+    <t>orgK990667890123</t>
+  </si>
+  <si>
+    <t>Centro ClÃ­nico Rio Grande</t>
+  </si>
+  <si>
+    <t>B223</t>
+  </si>
+  <si>
+    <t>www.centroclinico.com.br</t>
+  </si>
+  <si>
+    <t>Instituto de SaÃºde Central</t>
+  </si>
+  <si>
+    <t>B224</t>
+  </si>
+  <si>
+    <t>www.institutosaude.com.br</t>
+  </si>
+  <si>
+    <t>Hospital das ClÃ­nicas</t>
+  </si>
+  <si>
+    <t>B225</t>
+  </si>
+  <si>
+    <t>orgK998877665544</t>
+  </si>
+  <si>
+    <t>B226</t>
+  </si>
+  <si>
+    <t>orgK998876543210</t>
+  </si>
+  <si>
+    <t>Instituto de SaÃºde da Mulher</t>
+  </si>
+  <si>
+    <t>B227</t>
+  </si>
+  <si>
+    <t>www.institutosaudedamulher.com.br</t>
+  </si>
+  <si>
+    <t>orgK998765432144</t>
+  </si>
+  <si>
+    <t>ClÃ­nica Boa SaÃºde</t>
+  </si>
+  <si>
+    <t>B228</t>
+  </si>
+  <si>
+    <t>www.clinicaboasaude.com.br</t>
+  </si>
+  <si>
+    <t>orgK998654321234</t>
+  </si>
+  <si>
+    <t>Centro de ReabilitaÃ§Ã£o Brasil</t>
+  </si>
+  <si>
+    <t>B229</t>
+  </si>
+  <si>
+    <t>www.centrodereabilitacao.com.br</t>
+  </si>
+  <si>
+    <t>orgK998543210987</t>
+  </si>
+  <si>
+    <t>Hospital SÃ£o Luiz</t>
+  </si>
+  <si>
+    <t>B230</t>
+  </si>
+  <si>
+    <t>orgK998432109876</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Esperanza</t>
+  </si>
+  <si>
+    <t>S221</t>
+  </si>
+  <si>
+    <t>www.fundacionesperanza.org</t>
+  </si>
+  <si>
+    <t>orgK990765432345</t>
+  </si>
+  <si>
+    <t>Centro de Salud Vida</t>
+  </si>
+  <si>
+    <t>S222</t>
+  </si>
+  <si>
+    <t>www.centrosaludvida.org</t>
+  </si>
+  <si>
+    <t>AsociaciÃ³n Salud y Futuro</t>
+  </si>
+  <si>
+    <t>S223</t>
+  </si>
+  <si>
+    <t>www.asociacionsaludyfuturo.org</t>
+  </si>
+  <si>
+    <t>orgK990987654321</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Renueva</t>
+  </si>
+  <si>
+    <t>S224</t>
+  </si>
+  <si>
+    <t>www.fundacionrenueva.org</t>
+  </si>
+  <si>
+    <t>orgK991098765432</t>
+  </si>
+  <si>
+    <t>Centro MÃ©dico y Bienestar</t>
+  </si>
+  <si>
+    <t>S225</t>
+  </si>
+  <si>
+    <t>www.centromedicobienestar.org</t>
+  </si>
+  <si>
+    <t>orgK991209876543</t>
+  </si>
+  <si>
+    <t>AsociaciÃ³n Vitalidad</t>
+  </si>
+  <si>
+    <t>S226</t>
+  </si>
+  <si>
+    <t>www.asociacionvitalidad.org</t>
+  </si>
+  <si>
+    <t>orgK991345678901</t>
+  </si>
+  <si>
+    <t>S227</t>
+  </si>
+  <si>
+    <t>www.fundacionapoyosalud.org</t>
+  </si>
+  <si>
+    <t>orgK991456789012</t>
+  </si>
+  <si>
+    <t>S228</t>
+  </si>
+  <si>
+    <t>orgK991567890123</t>
+  </si>
+  <si>
+    <t>AsociaciÃ³n Futuro Salud</t>
+  </si>
+  <si>
+    <t>S229</t>
+  </si>
+  <si>
+    <t>www.asociacionfuturosalud.org</t>
+  </si>
+  <si>
+    <t>orgK991678901234</t>
+  </si>
+  <si>
+    <t>FundaciÃ³n Luz</t>
+  </si>
+  <si>
+    <t>S230</t>
+  </si>
+  <si>
+    <t>www.fundacionluz.org</t>
+  </si>
+  <si>
+    <t>orgK991789012345</t>
+  </si>
+  <si>
+    <t>U221</t>
+  </si>
+  <si>
+    <t>orgK990876543211</t>
+  </si>
+  <si>
+    <t>Health Solutions Group</t>
+  </si>
+  <si>
+    <t>U222</t>
+  </si>
+  <si>
+    <t>www.healthsolutionsgroup.org</t>
+  </si>
+  <si>
+    <t>Wellness Foundation of America</t>
+  </si>
+  <si>
+    <t>U223</t>
+  </si>
+  <si>
+    <t>www.wellnessfoundation.org</t>
+  </si>
+  <si>
+    <t>National Health Partners</t>
+  </si>
+  <si>
+    <t>U224</t>
+  </si>
+  <si>
+    <t>www.nationalhealthpartners.org</t>
+  </si>
+  <si>
+    <t>Unified Health Network</t>
+  </si>
+  <si>
+    <t>U225</t>
+  </si>
+  <si>
+    <t>www.unifiedhealthnetwork.org</t>
+  </si>
+  <si>
+    <t>orgK991345678910</t>
+  </si>
+  <si>
+    <t>U226</t>
+  </si>
+  <si>
+    <t>orgK991456789021</t>
+  </si>
+  <si>
+    <t>Health First Alliance</t>
+  </si>
+  <si>
+    <t>U227</t>
+  </si>
+  <si>
+    <t>www.healthfirstalliance.org</t>
+  </si>
+  <si>
+    <t>orgK991567890132</t>
+  </si>
+  <si>
+    <t>Future Wellness Foundation</t>
+  </si>
+  <si>
+    <t>U228</t>
+  </si>
+  <si>
+    <t>www.futurewellnessfoundation.org</t>
+  </si>
+  <si>
+    <t>orgK991678901243</t>
+  </si>
+  <si>
+    <t>National Care Network</t>
+  </si>
+  <si>
+    <t>U229</t>
+  </si>
+  <si>
+    <t>www.nationalcarenetwork.org</t>
+  </si>
+  <si>
+    <t>orgK991789012354</t>
+  </si>
+  <si>
+    <t>U230</t>
+  </si>
+  <si>
+    <t>orgK991890123465</t>
   </si>
 </sst>
 </file>
@@ -2345,10 +4289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:M355"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7555,7 +9499,7 @@
         <v>13656</v>
       </c>
       <c r="K139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M139" t="s">
         <v>485</v>
@@ -7707,7 +9651,7 @@
         <v>15469</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M143" t="s">
         <v>485</v>
@@ -7745,7 +9689,7 @@
         <v>17892</v>
       </c>
       <c r="K144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M144" t="s">
         <v>485</v>
@@ -7824,6 +9768,7948 @@
         <v>0</v>
       </c>
       <c r="M146" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" t="s">
+        <v>486</v>
+      </c>
+      <c r="C147" t="s">
+        <v>487</v>
+      </c>
+      <c r="D147" t="s">
+        <v>488</v>
+      </c>
+      <c r="E147" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>15</v>
+      </c>
+      <c r="H147">
+        <v>9900659878</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>15324</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="M147" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" t="s">
+        <v>489</v>
+      </c>
+      <c r="C148" t="s">
+        <v>490</v>
+      </c>
+      <c r="D148" t="s">
+        <v>491</v>
+      </c>
+      <c r="E148" t="s">
+        <v>15</v>
+      </c>
+      <c r="F148" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s">
+        <v>466</v>
+      </c>
+      <c r="H148">
+        <v>9900876534</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148">
+        <v>13459</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="M148" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" t="s">
+        <v>492</v>
+      </c>
+      <c r="C149" t="s">
+        <v>493</v>
+      </c>
+      <c r="D149" t="s">
+        <v>494</v>
+      </c>
+      <c r="E149" t="s">
+        <v>15</v>
+      </c>
+      <c r="F149" t="s">
+        <v>15</v>
+      </c>
+      <c r="G149" t="s">
+        <v>495</v>
+      </c>
+      <c r="H149">
+        <v>9900987653</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>17657</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="M149" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" t="s">
+        <v>496</v>
+      </c>
+      <c r="C150" t="s">
+        <v>497</v>
+      </c>
+      <c r="D150" t="s">
+        <v>498</v>
+      </c>
+      <c r="E150" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" t="s">
+        <v>15</v>
+      </c>
+      <c r="G150" t="s">
+        <v>499</v>
+      </c>
+      <c r="H150" t="s">
+        <v>15</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="M150" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" t="s">
+        <v>500</v>
+      </c>
+      <c r="C151" t="s">
+        <v>501</v>
+      </c>
+      <c r="D151" t="s">
+        <v>502</v>
+      </c>
+      <c r="E151" t="s">
+        <v>15</v>
+      </c>
+      <c r="F151" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151">
+        <v>9900123500</v>
+      </c>
+      <c r="I151">
+        <v>2</v>
+      </c>
+      <c r="J151">
+        <v>18767</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="M151" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152" t="s">
+        <v>503</v>
+      </c>
+      <c r="C152" t="s">
+        <v>504</v>
+      </c>
+      <c r="D152" t="s">
+        <v>505</v>
+      </c>
+      <c r="E152" t="s">
+        <v>15</v>
+      </c>
+      <c r="F152" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" t="s">
+        <v>506</v>
+      </c>
+      <c r="H152" t="s">
+        <v>15</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="M152" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" t="s">
+        <v>507</v>
+      </c>
+      <c r="C153" t="s">
+        <v>508</v>
+      </c>
+      <c r="D153" t="s">
+        <v>509</v>
+      </c>
+      <c r="E153" t="s">
+        <v>15</v>
+      </c>
+      <c r="F153" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153" t="s">
+        <v>15</v>
+      </c>
+      <c r="H153">
+        <v>9900765435</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>13549</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="M153" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" t="s">
+        <v>510</v>
+      </c>
+      <c r="C154" t="s">
+        <v>511</v>
+      </c>
+      <c r="D154" t="s">
+        <v>512</v>
+      </c>
+      <c r="E154" t="s">
+        <v>15</v>
+      </c>
+      <c r="F154" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154">
+        <v>9900984324</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154">
+        <v>14768</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="M154" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" t="s">
+        <v>513</v>
+      </c>
+      <c r="C155" t="s">
+        <v>514</v>
+      </c>
+      <c r="D155" t="s">
+        <v>515</v>
+      </c>
+      <c r="E155" t="s">
+        <v>15</v>
+      </c>
+      <c r="F155" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" t="s">
+        <v>516</v>
+      </c>
+      <c r="H155">
+        <v>9900543223</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>17657</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="M155" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>36</v>
+      </c>
+      <c r="B156" t="s">
+        <v>517</v>
+      </c>
+      <c r="C156" t="s">
+        <v>518</v>
+      </c>
+      <c r="D156" t="s">
+        <v>519</v>
+      </c>
+      <c r="E156" t="s">
+        <v>15</v>
+      </c>
+      <c r="F156" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" t="s">
+        <v>15</v>
+      </c>
+      <c r="H156">
+        <v>9900456790</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156">
+        <v>14681</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="M156" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>36</v>
+      </c>
+      <c r="B157" t="s">
+        <v>520</v>
+      </c>
+      <c r="C157" t="s">
+        <v>521</v>
+      </c>
+      <c r="D157" t="s">
+        <v>522</v>
+      </c>
+      <c r="E157" t="s">
+        <v>15</v>
+      </c>
+      <c r="F157" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" t="s">
+        <v>15</v>
+      </c>
+      <c r="H157">
+        <v>9900984325</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>15470</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="M157" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>36</v>
+      </c>
+      <c r="B158" t="s">
+        <v>523</v>
+      </c>
+      <c r="C158" t="s">
+        <v>524</v>
+      </c>
+      <c r="D158" t="s">
+        <v>525</v>
+      </c>
+      <c r="E158" t="s">
+        <v>15</v>
+      </c>
+      <c r="F158" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" t="s">
+        <v>526</v>
+      </c>
+      <c r="H158">
+        <v>9900234569</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158">
+        <v>14324</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="M158" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>36</v>
+      </c>
+      <c r="B159" t="s">
+        <v>527</v>
+      </c>
+      <c r="C159" t="s">
+        <v>528</v>
+      </c>
+      <c r="D159" t="s">
+        <v>529</v>
+      </c>
+      <c r="E159" t="s">
+        <v>15</v>
+      </c>
+      <c r="F159" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" t="s">
+        <v>530</v>
+      </c>
+      <c r="H159" t="s">
+        <v>15</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="M159" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>36</v>
+      </c>
+      <c r="B160" t="s">
+        <v>236</v>
+      </c>
+      <c r="C160" t="s">
+        <v>531</v>
+      </c>
+      <c r="D160" t="s">
+        <v>238</v>
+      </c>
+      <c r="E160" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" t="s">
+        <v>15</v>
+      </c>
+      <c r="G160" t="s">
+        <v>15</v>
+      </c>
+      <c r="H160">
+        <v>9900654314</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>17657</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="M160" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>36</v>
+      </c>
+      <c r="B161" t="s">
+        <v>532</v>
+      </c>
+      <c r="C161" t="s">
+        <v>533</v>
+      </c>
+      <c r="D161" t="s">
+        <v>534</v>
+      </c>
+      <c r="E161" t="s">
+        <v>15</v>
+      </c>
+      <c r="F161" t="s">
+        <v>15</v>
+      </c>
+      <c r="G161" t="s">
+        <v>535</v>
+      </c>
+      <c r="H161">
+        <v>9900876547</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161">
+        <v>14570</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="M161" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>36</v>
+      </c>
+      <c r="B162" t="s">
+        <v>536</v>
+      </c>
+      <c r="C162" t="s">
+        <v>537</v>
+      </c>
+      <c r="D162" t="s">
+        <v>538</v>
+      </c>
+      <c r="E162" t="s">
+        <v>15</v>
+      </c>
+      <c r="F162" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162" t="s">
+        <v>539</v>
+      </c>
+      <c r="H162" t="s">
+        <v>15</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>2</v>
+      </c>
+      <c r="M162" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>36</v>
+      </c>
+      <c r="B163" t="s">
+        <v>540</v>
+      </c>
+      <c r="C163" t="s">
+        <v>541</v>
+      </c>
+      <c r="D163" t="s">
+        <v>542</v>
+      </c>
+      <c r="E163" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" t="s">
+        <v>15</v>
+      </c>
+      <c r="G163" t="s">
+        <v>15</v>
+      </c>
+      <c r="H163">
+        <v>9900123462</v>
+      </c>
+      <c r="I163">
+        <v>2</v>
+      </c>
+      <c r="J163">
+        <v>17893</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="M163" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>36</v>
+      </c>
+      <c r="B164" t="s">
+        <v>543</v>
+      </c>
+      <c r="C164" t="s">
+        <v>544</v>
+      </c>
+      <c r="D164" t="s">
+        <v>545</v>
+      </c>
+      <c r="E164" t="s">
+        <v>15</v>
+      </c>
+      <c r="F164" t="s">
+        <v>15</v>
+      </c>
+      <c r="G164" t="s">
+        <v>15</v>
+      </c>
+      <c r="H164">
+        <v>9900765436</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>16757</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="M164" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>36</v>
+      </c>
+      <c r="B165" t="s">
+        <v>546</v>
+      </c>
+      <c r="C165" t="s">
+        <v>547</v>
+      </c>
+      <c r="D165" t="s">
+        <v>548</v>
+      </c>
+      <c r="E165" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" t="s">
+        <v>15</v>
+      </c>
+      <c r="G165" t="s">
+        <v>549</v>
+      </c>
+      <c r="H165">
+        <v>9900984313</v>
+      </c>
+      <c r="I165">
+        <v>2</v>
+      </c>
+      <c r="J165">
+        <v>15990</v>
+      </c>
+      <c r="K165">
+        <v>2</v>
+      </c>
+      <c r="M165" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>48</v>
+      </c>
+      <c r="B166" t="s">
+        <v>550</v>
+      </c>
+      <c r="C166" t="s">
+        <v>551</v>
+      </c>
+      <c r="D166" t="s">
+        <v>552</v>
+      </c>
+      <c r="E166" t="s">
+        <v>15</v>
+      </c>
+      <c r="F166" t="s">
+        <v>15</v>
+      </c>
+      <c r="G166" t="s">
+        <v>15</v>
+      </c>
+      <c r="H166">
+        <v>9900789348</v>
+      </c>
+      <c r="I166">
+        <v>2</v>
+      </c>
+      <c r="J166">
+        <v>16546</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="M166" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>48</v>
+      </c>
+      <c r="B167" t="s">
+        <v>553</v>
+      </c>
+      <c r="C167" t="s">
+        <v>554</v>
+      </c>
+      <c r="D167" t="s">
+        <v>555</v>
+      </c>
+      <c r="E167" t="s">
+        <v>15</v>
+      </c>
+      <c r="F167" t="s">
+        <v>15</v>
+      </c>
+      <c r="G167" t="s">
+        <v>15</v>
+      </c>
+      <c r="H167">
+        <v>9900543213</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>15327</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="M167" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>48</v>
+      </c>
+      <c r="B168" t="s">
+        <v>556</v>
+      </c>
+      <c r="C168" t="s">
+        <v>557</v>
+      </c>
+      <c r="D168" t="s">
+        <v>558</v>
+      </c>
+      <c r="E168" t="s">
+        <v>15</v>
+      </c>
+      <c r="F168" t="s">
+        <v>15</v>
+      </c>
+      <c r="G168" t="s">
+        <v>559</v>
+      </c>
+      <c r="H168">
+        <v>9900654326</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168">
+        <v>14879</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="M168" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>48</v>
+      </c>
+      <c r="B169" t="s">
+        <v>560</v>
+      </c>
+      <c r="C169" t="s">
+        <v>561</v>
+      </c>
+      <c r="D169" t="s">
+        <v>562</v>
+      </c>
+      <c r="E169" t="s">
+        <v>15</v>
+      </c>
+      <c r="F169" t="s">
+        <v>15</v>
+      </c>
+      <c r="G169" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169">
+        <v>9900345681</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>13657</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="M169" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>48</v>
+      </c>
+      <c r="B170" t="s">
+        <v>563</v>
+      </c>
+      <c r="C170" t="s">
+        <v>564</v>
+      </c>
+      <c r="D170" t="s">
+        <v>565</v>
+      </c>
+      <c r="E170" t="s">
+        <v>15</v>
+      </c>
+      <c r="F170" t="s">
+        <v>15</v>
+      </c>
+      <c r="G170" t="s">
+        <v>15</v>
+      </c>
+      <c r="H170">
+        <v>9900876548</v>
+      </c>
+      <c r="I170">
+        <v>2</v>
+      </c>
+      <c r="J170">
+        <v>16345</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="M170" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>48</v>
+      </c>
+      <c r="B171" t="s">
+        <v>269</v>
+      </c>
+      <c r="C171" t="s">
+        <v>566</v>
+      </c>
+      <c r="D171" t="s">
+        <v>271</v>
+      </c>
+      <c r="E171" t="s">
+        <v>15</v>
+      </c>
+      <c r="F171" t="s">
+        <v>15</v>
+      </c>
+      <c r="G171" t="s">
+        <v>567</v>
+      </c>
+      <c r="H171" t="s">
+        <v>15</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="M171" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>48</v>
+      </c>
+      <c r="B172" t="s">
+        <v>568</v>
+      </c>
+      <c r="C172" t="s">
+        <v>569</v>
+      </c>
+      <c r="D172" t="s">
+        <v>570</v>
+      </c>
+      <c r="E172" t="s">
+        <v>15</v>
+      </c>
+      <c r="F172" t="s">
+        <v>15</v>
+      </c>
+      <c r="G172" t="s">
+        <v>571</v>
+      </c>
+      <c r="H172">
+        <v>9900987654</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>17657</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="M172" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>48</v>
+      </c>
+      <c r="B173" t="s">
+        <v>572</v>
+      </c>
+      <c r="C173" t="s">
+        <v>573</v>
+      </c>
+      <c r="D173" t="s">
+        <v>574</v>
+      </c>
+      <c r="E173" t="s">
+        <v>15</v>
+      </c>
+      <c r="F173" t="s">
+        <v>15</v>
+      </c>
+      <c r="G173" t="s">
+        <v>15</v>
+      </c>
+      <c r="H173">
+        <v>9900543224</v>
+      </c>
+      <c r="I173">
+        <v>2</v>
+      </c>
+      <c r="J173">
+        <v>15470</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="M173" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>48</v>
+      </c>
+      <c r="B174" t="s">
+        <v>575</v>
+      </c>
+      <c r="C174" t="s">
+        <v>576</v>
+      </c>
+      <c r="D174" t="s">
+        <v>577</v>
+      </c>
+      <c r="E174" t="s">
+        <v>15</v>
+      </c>
+      <c r="F174" t="s">
+        <v>15</v>
+      </c>
+      <c r="G174" t="s">
+        <v>15</v>
+      </c>
+      <c r="H174">
+        <v>9900654327</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>17893</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="M174" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>48</v>
+      </c>
+      <c r="B175" t="s">
+        <v>578</v>
+      </c>
+      <c r="C175" t="s">
+        <v>579</v>
+      </c>
+      <c r="D175" t="s">
+        <v>580</v>
+      </c>
+      <c r="E175" t="s">
+        <v>15</v>
+      </c>
+      <c r="F175" t="s">
+        <v>15</v>
+      </c>
+      <c r="G175" t="s">
+        <v>581</v>
+      </c>
+      <c r="H175">
+        <v>9900123463</v>
+      </c>
+      <c r="I175">
+        <v>2</v>
+      </c>
+      <c r="J175">
+        <v>16546</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="M175" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176" t="s">
+        <v>582</v>
+      </c>
+      <c r="C176" t="s">
+        <v>583</v>
+      </c>
+      <c r="D176" t="s">
+        <v>584</v>
+      </c>
+      <c r="E176" t="s">
+        <v>15</v>
+      </c>
+      <c r="F176" t="s">
+        <v>15</v>
+      </c>
+      <c r="G176" t="s">
+        <v>585</v>
+      </c>
+      <c r="H176">
+        <v>9900125682</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176">
+        <v>14239</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="M176" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>11</v>
+      </c>
+      <c r="B177" t="s">
+        <v>586</v>
+      </c>
+      <c r="C177" t="s">
+        <v>587</v>
+      </c>
+      <c r="D177" t="s">
+        <v>588</v>
+      </c>
+      <c r="E177" t="s">
+        <v>15</v>
+      </c>
+      <c r="F177" t="s">
+        <v>15</v>
+      </c>
+      <c r="G177" t="s">
+        <v>15</v>
+      </c>
+      <c r="H177">
+        <v>9900659880</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>15326</v>
+      </c>
+      <c r="K177">
+        <v>2</v>
+      </c>
+      <c r="M177" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" t="s">
+        <v>589</v>
+      </c>
+      <c r="C178" t="s">
+        <v>590</v>
+      </c>
+      <c r="D178" t="s">
+        <v>591</v>
+      </c>
+      <c r="E178" t="s">
+        <v>15</v>
+      </c>
+      <c r="F178" t="s">
+        <v>15</v>
+      </c>
+      <c r="G178" t="s">
+        <v>592</v>
+      </c>
+      <c r="H178">
+        <v>9900876536</v>
+      </c>
+      <c r="I178">
+        <v>2</v>
+      </c>
+      <c r="J178">
+        <v>13461</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="M178" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>11</v>
+      </c>
+      <c r="B179" t="s">
+        <v>593</v>
+      </c>
+      <c r="C179" t="s">
+        <v>594</v>
+      </c>
+      <c r="D179" t="s">
+        <v>595</v>
+      </c>
+      <c r="E179" t="s">
+        <v>15</v>
+      </c>
+      <c r="F179" t="s">
+        <v>15</v>
+      </c>
+      <c r="G179" t="s">
+        <v>596</v>
+      </c>
+      <c r="H179">
+        <v>9900987655</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>17659</v>
+      </c>
+      <c r="K179">
+        <v>2</v>
+      </c>
+      <c r="M179" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>11</v>
+      </c>
+      <c r="B180" t="s">
+        <v>299</v>
+      </c>
+      <c r="C180" t="s">
+        <v>597</v>
+      </c>
+      <c r="D180" t="s">
+        <v>301</v>
+      </c>
+      <c r="E180" t="s">
+        <v>15</v>
+      </c>
+      <c r="F180" t="s">
+        <v>15</v>
+      </c>
+      <c r="G180" t="s">
+        <v>598</v>
+      </c>
+      <c r="H180">
+        <v>9900123502</v>
+      </c>
+      <c r="I180">
+        <v>2</v>
+      </c>
+      <c r="J180">
+        <v>18769</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="M180" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181" t="s">
+        <v>599</v>
+      </c>
+      <c r="C181" t="s">
+        <v>600</v>
+      </c>
+      <c r="D181" t="s">
+        <v>601</v>
+      </c>
+      <c r="E181" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" t="s">
+        <v>15</v>
+      </c>
+      <c r="G181" t="s">
+        <v>15</v>
+      </c>
+      <c r="H181">
+        <v>9900543215</v>
+      </c>
+      <c r="I181">
+        <v>2</v>
+      </c>
+      <c r="J181">
+        <v>15782</v>
+      </c>
+      <c r="K181">
+        <v>2</v>
+      </c>
+      <c r="M181" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>11</v>
+      </c>
+      <c r="B182" t="s">
+        <v>602</v>
+      </c>
+      <c r="C182" t="s">
+        <v>603</v>
+      </c>
+      <c r="D182" t="s">
+        <v>604</v>
+      </c>
+      <c r="E182" t="s">
+        <v>15</v>
+      </c>
+      <c r="F182" t="s">
+        <v>15</v>
+      </c>
+      <c r="G182" t="s">
+        <v>605</v>
+      </c>
+      <c r="H182">
+        <v>9900765439</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>13551</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="M182" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>11</v>
+      </c>
+      <c r="B183" t="s">
+        <v>606</v>
+      </c>
+      <c r="C183" t="s">
+        <v>607</v>
+      </c>
+      <c r="D183" t="s">
+        <v>608</v>
+      </c>
+      <c r="E183" t="s">
+        <v>15</v>
+      </c>
+      <c r="F183" t="s">
+        <v>15</v>
+      </c>
+      <c r="G183" t="s">
+        <v>15</v>
+      </c>
+      <c r="H183">
+        <v>9900984327</v>
+      </c>
+      <c r="I183">
+        <v>2</v>
+      </c>
+      <c r="J183">
+        <v>14770</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="M183" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>11</v>
+      </c>
+      <c r="B184" t="s">
+        <v>218</v>
+      </c>
+      <c r="C184" t="s">
+        <v>609</v>
+      </c>
+      <c r="D184" t="s">
+        <v>220</v>
+      </c>
+      <c r="E184" t="s">
+        <v>15</v>
+      </c>
+      <c r="F184" t="s">
+        <v>15</v>
+      </c>
+      <c r="G184" t="s">
+        <v>610</v>
+      </c>
+      <c r="H184">
+        <v>9900543227</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>17659</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="M184" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>11</v>
+      </c>
+      <c r="B185" t="s">
+        <v>611</v>
+      </c>
+      <c r="C185" t="s">
+        <v>612</v>
+      </c>
+      <c r="D185" t="s">
+        <v>613</v>
+      </c>
+      <c r="E185" t="s">
+        <v>15</v>
+      </c>
+      <c r="F185" t="s">
+        <v>15</v>
+      </c>
+      <c r="G185" t="s">
+        <v>614</v>
+      </c>
+      <c r="H185">
+        <v>9900876551</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185">
+        <v>16548</v>
+      </c>
+      <c r="K185">
+        <v>2</v>
+      </c>
+      <c r="M185" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>36</v>
+      </c>
+      <c r="B186" t="s">
+        <v>417</v>
+      </c>
+      <c r="C186" t="s">
+        <v>615</v>
+      </c>
+      <c r="D186" t="s">
+        <v>616</v>
+      </c>
+      <c r="E186" t="s">
+        <v>15</v>
+      </c>
+      <c r="F186" t="s">
+        <v>15</v>
+      </c>
+      <c r="G186" t="s">
+        <v>617</v>
+      </c>
+      <c r="H186">
+        <v>9900456792</v>
+      </c>
+      <c r="I186">
+        <v>2</v>
+      </c>
+      <c r="J186">
+        <v>14683</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="M186" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>36</v>
+      </c>
+      <c r="B187" t="s">
+        <v>618</v>
+      </c>
+      <c r="C187" t="s">
+        <v>619</v>
+      </c>
+      <c r="D187" t="s">
+        <v>620</v>
+      </c>
+      <c r="E187" t="s">
+        <v>15</v>
+      </c>
+      <c r="F187" t="s">
+        <v>15</v>
+      </c>
+      <c r="G187" t="s">
+        <v>15</v>
+      </c>
+      <c r="H187">
+        <v>9900654330</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>15472</v>
+      </c>
+      <c r="K187">
+        <v>2</v>
+      </c>
+      <c r="M187" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>36</v>
+      </c>
+      <c r="B188" t="s">
+        <v>621</v>
+      </c>
+      <c r="C188" t="s">
+        <v>622</v>
+      </c>
+      <c r="D188" t="s">
+        <v>623</v>
+      </c>
+      <c r="E188" t="s">
+        <v>15</v>
+      </c>
+      <c r="F188" t="s">
+        <v>15</v>
+      </c>
+      <c r="G188" t="s">
+        <v>624</v>
+      </c>
+      <c r="H188">
+        <v>9900234571</v>
+      </c>
+      <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188">
+        <v>14326</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="M188" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>36</v>
+      </c>
+      <c r="B189" t="s">
+        <v>625</v>
+      </c>
+      <c r="C189" t="s">
+        <v>626</v>
+      </c>
+      <c r="D189" t="s">
+        <v>627</v>
+      </c>
+      <c r="E189" t="s">
+        <v>15</v>
+      </c>
+      <c r="F189" t="s">
+        <v>15</v>
+      </c>
+      <c r="G189" t="s">
+        <v>628</v>
+      </c>
+      <c r="H189">
+        <v>9900984315</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>15992</v>
+      </c>
+      <c r="K189">
+        <v>2</v>
+      </c>
+      <c r="M189" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>36</v>
+      </c>
+      <c r="B190" t="s">
+        <v>629</v>
+      </c>
+      <c r="C190" t="s">
+        <v>630</v>
+      </c>
+      <c r="D190" t="s">
+        <v>631</v>
+      </c>
+      <c r="E190" t="s">
+        <v>15</v>
+      </c>
+      <c r="F190" t="s">
+        <v>15</v>
+      </c>
+      <c r="G190" t="s">
+        <v>15</v>
+      </c>
+      <c r="H190">
+        <v>9900654316</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
+      </c>
+      <c r="J190">
+        <v>17659</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="M190" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>36</v>
+      </c>
+      <c r="B191" t="s">
+        <v>632</v>
+      </c>
+      <c r="C191" t="s">
+        <v>633</v>
+      </c>
+      <c r="D191" t="s">
+        <v>634</v>
+      </c>
+      <c r="E191" t="s">
+        <v>15</v>
+      </c>
+      <c r="F191" t="s">
+        <v>15</v>
+      </c>
+      <c r="G191" t="s">
+        <v>635</v>
+      </c>
+      <c r="H191">
+        <v>9900876552</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>14572</v>
+      </c>
+      <c r="K191">
+        <v>2</v>
+      </c>
+      <c r="M191" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>36</v>
+      </c>
+      <c r="B192" t="s">
+        <v>636</v>
+      </c>
+      <c r="C192" t="s">
+        <v>637</v>
+      </c>
+      <c r="D192" t="s">
+        <v>638</v>
+      </c>
+      <c r="E192" t="s">
+        <v>15</v>
+      </c>
+      <c r="F192" t="s">
+        <v>15</v>
+      </c>
+      <c r="G192" t="s">
+        <v>639</v>
+      </c>
+      <c r="H192">
+        <v>9900123466</v>
+      </c>
+      <c r="I192">
+        <v>2</v>
+      </c>
+      <c r="J192">
+        <v>17895</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="M192" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>36</v>
+      </c>
+      <c r="B193" t="s">
+        <v>640</v>
+      </c>
+      <c r="C193" t="s">
+        <v>641</v>
+      </c>
+      <c r="D193" t="s">
+        <v>642</v>
+      </c>
+      <c r="E193" t="s">
+        <v>15</v>
+      </c>
+      <c r="F193" t="s">
+        <v>15</v>
+      </c>
+      <c r="G193" t="s">
+        <v>15</v>
+      </c>
+      <c r="H193">
+        <v>9900765440</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>16759</v>
+      </c>
+      <c r="K193">
+        <v>2</v>
+      </c>
+      <c r="M193" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>36</v>
+      </c>
+      <c r="B194" t="s">
+        <v>643</v>
+      </c>
+      <c r="C194" t="s">
+        <v>644</v>
+      </c>
+      <c r="D194" t="s">
+        <v>645</v>
+      </c>
+      <c r="E194" t="s">
+        <v>15</v>
+      </c>
+      <c r="F194" t="s">
+        <v>15</v>
+      </c>
+      <c r="G194" t="s">
+        <v>646</v>
+      </c>
+      <c r="H194">
+        <v>9900456793</v>
+      </c>
+      <c r="I194">
+        <v>2</v>
+      </c>
+      <c r="J194">
+        <v>14881</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="M194" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>36</v>
+      </c>
+      <c r="B195" t="s">
+        <v>647</v>
+      </c>
+      <c r="C195" t="s">
+        <v>648</v>
+      </c>
+      <c r="D195" t="s">
+        <v>649</v>
+      </c>
+      <c r="E195" t="s">
+        <v>15</v>
+      </c>
+      <c r="F195" t="s">
+        <v>15</v>
+      </c>
+      <c r="G195" t="s">
+        <v>650</v>
+      </c>
+      <c r="H195">
+        <v>9900654331</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>15329</v>
+      </c>
+      <c r="K195">
+        <v>2</v>
+      </c>
+      <c r="M195" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>48</v>
+      </c>
+      <c r="B196" t="s">
+        <v>254</v>
+      </c>
+      <c r="C196" t="s">
+        <v>651</v>
+      </c>
+      <c r="D196" t="s">
+        <v>652</v>
+      </c>
+      <c r="E196" t="s">
+        <v>15</v>
+      </c>
+      <c r="F196" t="s">
+        <v>15</v>
+      </c>
+      <c r="G196" t="s">
+        <v>653</v>
+      </c>
+      <c r="H196">
+        <v>9900789350</v>
+      </c>
+      <c r="I196">
+        <v>2</v>
+      </c>
+      <c r="J196">
+        <v>16548</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="M196" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>48</v>
+      </c>
+      <c r="B197" t="s">
+        <v>654</v>
+      </c>
+      <c r="C197" t="s">
+        <v>655</v>
+      </c>
+      <c r="D197" t="s">
+        <v>656</v>
+      </c>
+      <c r="E197" t="s">
+        <v>15</v>
+      </c>
+      <c r="F197" t="s">
+        <v>15</v>
+      </c>
+      <c r="G197" t="s">
+        <v>15</v>
+      </c>
+      <c r="H197">
+        <v>9900543216</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>15330</v>
+      </c>
+      <c r="K197">
+        <v>2</v>
+      </c>
+      <c r="M197" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>48</v>
+      </c>
+      <c r="B198" t="s">
+        <v>657</v>
+      </c>
+      <c r="C198" t="s">
+        <v>658</v>
+      </c>
+      <c r="D198" t="s">
+        <v>659</v>
+      </c>
+      <c r="E198" t="s">
+        <v>15</v>
+      </c>
+      <c r="F198" t="s">
+        <v>15</v>
+      </c>
+      <c r="G198" t="s">
+        <v>660</v>
+      </c>
+      <c r="H198">
+        <v>9900654332</v>
+      </c>
+      <c r="I198">
+        <v>2</v>
+      </c>
+      <c r="J198">
+        <v>14881</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="M198" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>48</v>
+      </c>
+      <c r="B199" t="s">
+        <v>661</v>
+      </c>
+      <c r="C199" t="s">
+        <v>662</v>
+      </c>
+      <c r="D199" t="s">
+        <v>663</v>
+      </c>
+      <c r="E199" t="s">
+        <v>15</v>
+      </c>
+      <c r="F199" t="s">
+        <v>15</v>
+      </c>
+      <c r="G199" t="s">
+        <v>664</v>
+      </c>
+      <c r="H199">
+        <v>9900123503</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>13659</v>
+      </c>
+      <c r="K199">
+        <v>2</v>
+      </c>
+      <c r="M199" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>48</v>
+      </c>
+      <c r="B200" t="s">
+        <v>665</v>
+      </c>
+      <c r="C200" t="s">
+        <v>666</v>
+      </c>
+      <c r="D200" t="s">
+        <v>667</v>
+      </c>
+      <c r="E200" t="s">
+        <v>15</v>
+      </c>
+      <c r="F200" t="s">
+        <v>15</v>
+      </c>
+      <c r="G200" t="s">
+        <v>15</v>
+      </c>
+      <c r="H200">
+        <v>9900765441</v>
+      </c>
+      <c r="I200">
+        <v>2</v>
+      </c>
+      <c r="J200">
+        <v>16347</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+      <c r="M200" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>48</v>
+      </c>
+      <c r="B201" t="s">
+        <v>668</v>
+      </c>
+      <c r="C201" t="s">
+        <v>669</v>
+      </c>
+      <c r="D201" t="s">
+        <v>670</v>
+      </c>
+      <c r="E201" t="s">
+        <v>15</v>
+      </c>
+      <c r="F201" t="s">
+        <v>15</v>
+      </c>
+      <c r="G201" t="s">
+        <v>671</v>
+      </c>
+      <c r="H201">
+        <v>9900984316</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>15472</v>
+      </c>
+      <c r="K201">
+        <v>2</v>
+      </c>
+      <c r="M201" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>48</v>
+      </c>
+      <c r="B202" t="s">
+        <v>672</v>
+      </c>
+      <c r="C202" t="s">
+        <v>673</v>
+      </c>
+      <c r="D202" t="s">
+        <v>674</v>
+      </c>
+      <c r="E202" t="s">
+        <v>15</v>
+      </c>
+      <c r="F202" t="s">
+        <v>15</v>
+      </c>
+      <c r="G202" t="s">
+        <v>15</v>
+      </c>
+      <c r="H202">
+        <v>9900876553</v>
+      </c>
+      <c r="I202">
+        <v>2</v>
+      </c>
+      <c r="J202">
+        <v>17660</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="M202" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>48</v>
+      </c>
+      <c r="B203" t="s">
+        <v>675</v>
+      </c>
+      <c r="C203" t="s">
+        <v>676</v>
+      </c>
+      <c r="D203" t="s">
+        <v>677</v>
+      </c>
+      <c r="E203" t="s">
+        <v>15</v>
+      </c>
+      <c r="F203" t="s">
+        <v>15</v>
+      </c>
+      <c r="G203" t="s">
+        <v>678</v>
+      </c>
+      <c r="H203">
+        <v>9900543228</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>17896</v>
+      </c>
+      <c r="K203">
+        <v>2</v>
+      </c>
+      <c r="M203" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>48</v>
+      </c>
+      <c r="B204" t="s">
+        <v>679</v>
+      </c>
+      <c r="C204" t="s">
+        <v>680</v>
+      </c>
+      <c r="D204" t="s">
+        <v>681</v>
+      </c>
+      <c r="E204" t="s">
+        <v>15</v>
+      </c>
+      <c r="F204" t="s">
+        <v>15</v>
+      </c>
+      <c r="G204" t="s">
+        <v>15</v>
+      </c>
+      <c r="H204">
+        <v>9900654333</v>
+      </c>
+      <c r="I204">
+        <v>2</v>
+      </c>
+      <c r="J204">
+        <v>16549</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="M204" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>48</v>
+      </c>
+      <c r="B205" t="s">
+        <v>682</v>
+      </c>
+      <c r="C205" t="s">
+        <v>683</v>
+      </c>
+      <c r="D205" t="s">
+        <v>684</v>
+      </c>
+      <c r="E205" t="s">
+        <v>15</v>
+      </c>
+      <c r="F205" t="s">
+        <v>15</v>
+      </c>
+      <c r="G205" t="s">
+        <v>685</v>
+      </c>
+      <c r="H205">
+        <v>9900123504</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>15331</v>
+      </c>
+      <c r="K205">
+        <v>2</v>
+      </c>
+      <c r="M205" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>11</v>
+      </c>
+      <c r="B206" t="s">
+        <v>686</v>
+      </c>
+      <c r="C206" t="s">
+        <v>687</v>
+      </c>
+      <c r="D206" t="s">
+        <v>688</v>
+      </c>
+      <c r="E206" t="s">
+        <v>15</v>
+      </c>
+      <c r="F206" t="s">
+        <v>15</v>
+      </c>
+      <c r="G206" t="s">
+        <v>689</v>
+      </c>
+      <c r="H206">
+        <v>9900125683</v>
+      </c>
+      <c r="I206">
+        <v>2</v>
+      </c>
+      <c r="J206">
+        <v>14240</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="M206" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>11</v>
+      </c>
+      <c r="B207" t="s">
+        <v>690</v>
+      </c>
+      <c r="C207" t="s">
+        <v>691</v>
+      </c>
+      <c r="D207" t="s">
+        <v>692</v>
+      </c>
+      <c r="E207" t="s">
+        <v>15</v>
+      </c>
+      <c r="F207" t="s">
+        <v>15</v>
+      </c>
+      <c r="G207" t="s">
+        <v>15</v>
+      </c>
+      <c r="H207">
+        <v>9900659881</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>15327</v>
+      </c>
+      <c r="K207">
+        <v>2</v>
+      </c>
+      <c r="M207" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>11</v>
+      </c>
+      <c r="B208" t="s">
+        <v>693</v>
+      </c>
+      <c r="C208" t="s">
+        <v>694</v>
+      </c>
+      <c r="D208" t="s">
+        <v>695</v>
+      </c>
+      <c r="E208" t="s">
+        <v>15</v>
+      </c>
+      <c r="F208" t="s">
+        <v>15</v>
+      </c>
+      <c r="G208" t="s">
+        <v>98</v>
+      </c>
+      <c r="H208">
+        <v>9900876537</v>
+      </c>
+      <c r="I208">
+        <v>2</v>
+      </c>
+      <c r="J208">
+        <v>13462</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="M208" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>11</v>
+      </c>
+      <c r="B209" t="s">
+        <v>696</v>
+      </c>
+      <c r="C209" t="s">
+        <v>697</v>
+      </c>
+      <c r="D209" t="s">
+        <v>698</v>
+      </c>
+      <c r="E209" t="s">
+        <v>15</v>
+      </c>
+      <c r="F209" t="s">
+        <v>15</v>
+      </c>
+      <c r="G209" t="s">
+        <v>699</v>
+      </c>
+      <c r="H209">
+        <v>9900987656</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <v>17660</v>
+      </c>
+      <c r="K209">
+        <v>2</v>
+      </c>
+      <c r="M209" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>11</v>
+      </c>
+      <c r="B210" t="s">
+        <v>700</v>
+      </c>
+      <c r="C210" t="s">
+        <v>701</v>
+      </c>
+      <c r="D210" t="s">
+        <v>702</v>
+      </c>
+      <c r="E210" t="s">
+        <v>15</v>
+      </c>
+      <c r="F210" t="s">
+        <v>15</v>
+      </c>
+      <c r="G210" t="s">
+        <v>703</v>
+      </c>
+      <c r="H210">
+        <v>9900123505</v>
+      </c>
+      <c r="I210">
+        <v>2</v>
+      </c>
+      <c r="J210">
+        <v>18770</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="M210" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>11</v>
+      </c>
+      <c r="B211" t="s">
+        <v>704</v>
+      </c>
+      <c r="C211" t="s">
+        <v>705</v>
+      </c>
+      <c r="D211" t="s">
+        <v>706</v>
+      </c>
+      <c r="E211" t="s">
+        <v>15</v>
+      </c>
+      <c r="F211" t="s">
+        <v>15</v>
+      </c>
+      <c r="G211" t="s">
+        <v>15</v>
+      </c>
+      <c r="H211">
+        <v>9900543217</v>
+      </c>
+      <c r="I211">
+        <v>2</v>
+      </c>
+      <c r="J211">
+        <v>15783</v>
+      </c>
+      <c r="K211">
+        <v>2</v>
+      </c>
+      <c r="M211" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>11</v>
+      </c>
+      <c r="B212" t="s">
+        <v>513</v>
+      </c>
+      <c r="C212" t="s">
+        <v>707</v>
+      </c>
+      <c r="D212" t="s">
+        <v>515</v>
+      </c>
+      <c r="E212" t="s">
+        <v>15</v>
+      </c>
+      <c r="F212" t="s">
+        <v>15</v>
+      </c>
+      <c r="G212" t="s">
+        <v>708</v>
+      </c>
+      <c r="H212">
+        <v>9900765442</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>13552</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
+      <c r="M212" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>11</v>
+      </c>
+      <c r="B213" t="s">
+        <v>310</v>
+      </c>
+      <c r="C213" t="s">
+        <v>709</v>
+      </c>
+      <c r="D213" t="s">
+        <v>312</v>
+      </c>
+      <c r="E213" t="s">
+        <v>15</v>
+      </c>
+      <c r="F213" t="s">
+        <v>15</v>
+      </c>
+      <c r="G213" t="s">
+        <v>15</v>
+      </c>
+      <c r="H213">
+        <v>9900984328</v>
+      </c>
+      <c r="I213">
+        <v>2</v>
+      </c>
+      <c r="J213">
+        <v>14771</v>
+      </c>
+      <c r="K213">
+        <v>2</v>
+      </c>
+      <c r="M213" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>11</v>
+      </c>
+      <c r="B214" t="s">
+        <v>710</v>
+      </c>
+      <c r="C214" t="s">
+        <v>711</v>
+      </c>
+      <c r="D214" t="s">
+        <v>712</v>
+      </c>
+      <c r="E214" t="s">
+        <v>15</v>
+      </c>
+      <c r="F214" t="s">
+        <v>15</v>
+      </c>
+      <c r="G214" t="s">
+        <v>713</v>
+      </c>
+      <c r="H214">
+        <v>9900543229</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>17661</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="M214" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>11</v>
+      </c>
+      <c r="B215" t="s">
+        <v>486</v>
+      </c>
+      <c r="C215" t="s">
+        <v>714</v>
+      </c>
+      <c r="D215" t="s">
+        <v>488</v>
+      </c>
+      <c r="E215" t="s">
+        <v>15</v>
+      </c>
+      <c r="F215" t="s">
+        <v>15</v>
+      </c>
+      <c r="G215" t="s">
+        <v>715</v>
+      </c>
+      <c r="H215">
+        <v>9900876554</v>
+      </c>
+      <c r="I215">
+        <v>2</v>
+      </c>
+      <c r="J215">
+        <v>16550</v>
+      </c>
+      <c r="K215">
+        <v>2</v>
+      </c>
+      <c r="M215" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>36</v>
+      </c>
+      <c r="B216" t="s">
+        <v>417</v>
+      </c>
+      <c r="C216" t="s">
+        <v>716</v>
+      </c>
+      <c r="D216" t="s">
+        <v>419</v>
+      </c>
+      <c r="E216" t="s">
+        <v>15</v>
+      </c>
+      <c r="F216" t="s">
+        <v>15</v>
+      </c>
+      <c r="G216" t="s">
+        <v>717</v>
+      </c>
+      <c r="H216">
+        <v>9900456794</v>
+      </c>
+      <c r="I216">
+        <v>2</v>
+      </c>
+      <c r="J216">
+        <v>14684</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="M216" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>36</v>
+      </c>
+      <c r="B217" t="s">
+        <v>420</v>
+      </c>
+      <c r="C217" t="s">
+        <v>718</v>
+      </c>
+      <c r="D217" t="s">
+        <v>422</v>
+      </c>
+      <c r="E217" t="s">
+        <v>15</v>
+      </c>
+      <c r="F217" t="s">
+        <v>15</v>
+      </c>
+      <c r="G217" t="s">
+        <v>15</v>
+      </c>
+      <c r="H217">
+        <v>9900654334</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>15473</v>
+      </c>
+      <c r="K217">
+        <v>2</v>
+      </c>
+      <c r="M217" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>36</v>
+      </c>
+      <c r="B218" t="s">
+        <v>719</v>
+      </c>
+      <c r="C218" t="s">
+        <v>720</v>
+      </c>
+      <c r="D218" t="s">
+        <v>721</v>
+      </c>
+      <c r="E218" t="s">
+        <v>15</v>
+      </c>
+      <c r="F218" t="s">
+        <v>15</v>
+      </c>
+      <c r="G218" t="s">
+        <v>722</v>
+      </c>
+      <c r="H218">
+        <v>9900234572</v>
+      </c>
+      <c r="I218">
+        <v>2</v>
+      </c>
+      <c r="J218">
+        <v>14327</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+      <c r="M218" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>36</v>
+      </c>
+      <c r="B219" t="s">
+        <v>723</v>
+      </c>
+      <c r="C219" t="s">
+        <v>724</v>
+      </c>
+      <c r="D219" t="s">
+        <v>725</v>
+      </c>
+      <c r="E219" t="s">
+        <v>15</v>
+      </c>
+      <c r="F219" t="s">
+        <v>15</v>
+      </c>
+      <c r="G219" t="s">
+        <v>726</v>
+      </c>
+      <c r="H219">
+        <v>9900984317</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>15993</v>
+      </c>
+      <c r="K219">
+        <v>2</v>
+      </c>
+      <c r="M219" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>36</v>
+      </c>
+      <c r="B220" t="s">
+        <v>727</v>
+      </c>
+      <c r="C220" t="s">
+        <v>728</v>
+      </c>
+      <c r="D220" t="s">
+        <v>729</v>
+      </c>
+      <c r="E220" t="s">
+        <v>15</v>
+      </c>
+      <c r="F220" t="s">
+        <v>15</v>
+      </c>
+      <c r="G220" t="s">
+        <v>15</v>
+      </c>
+      <c r="H220">
+        <v>9900654317</v>
+      </c>
+      <c r="I220">
+        <v>2</v>
+      </c>
+      <c r="J220">
+        <v>17660</v>
+      </c>
+      <c r="K220">
+        <v>1</v>
+      </c>
+      <c r="M220" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>36</v>
+      </c>
+      <c r="B221" t="s">
+        <v>730</v>
+      </c>
+      <c r="C221" t="s">
+        <v>731</v>
+      </c>
+      <c r="D221" t="s">
+        <v>732</v>
+      </c>
+      <c r="E221" t="s">
+        <v>15</v>
+      </c>
+      <c r="F221" t="s">
+        <v>15</v>
+      </c>
+      <c r="G221" t="s">
+        <v>733</v>
+      </c>
+      <c r="H221">
+        <v>9900876555</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>14573</v>
+      </c>
+      <c r="K221">
+        <v>2</v>
+      </c>
+      <c r="M221" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>36</v>
+      </c>
+      <c r="B222" t="s">
+        <v>734</v>
+      </c>
+      <c r="C222" t="s">
+        <v>735</v>
+      </c>
+      <c r="D222" t="s">
+        <v>736</v>
+      </c>
+      <c r="E222" t="s">
+        <v>15</v>
+      </c>
+      <c r="F222" t="s">
+        <v>15</v>
+      </c>
+      <c r="G222" t="s">
+        <v>737</v>
+      </c>
+      <c r="H222">
+        <v>9900123467</v>
+      </c>
+      <c r="I222">
+        <v>2</v>
+      </c>
+      <c r="J222">
+        <v>17896</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="M222" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>36</v>
+      </c>
+      <c r="B223" t="s">
+        <v>738</v>
+      </c>
+      <c r="C223" t="s">
+        <v>739</v>
+      </c>
+      <c r="D223" t="s">
+        <v>740</v>
+      </c>
+      <c r="E223" t="s">
+        <v>15</v>
+      </c>
+      <c r="F223" t="s">
+        <v>15</v>
+      </c>
+      <c r="G223" t="s">
+        <v>15</v>
+      </c>
+      <c r="H223">
+        <v>9900765443</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223">
+        <v>16760</v>
+      </c>
+      <c r="K223">
+        <v>2</v>
+      </c>
+      <c r="M223" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>36</v>
+      </c>
+      <c r="B224" t="s">
+        <v>444</v>
+      </c>
+      <c r="C224" t="s">
+        <v>741</v>
+      </c>
+      <c r="D224" t="s">
+        <v>446</v>
+      </c>
+      <c r="E224" t="s">
+        <v>15</v>
+      </c>
+      <c r="F224" t="s">
+        <v>15</v>
+      </c>
+      <c r="G224" t="s">
+        <v>742</v>
+      </c>
+      <c r="H224">
+        <v>9900456795</v>
+      </c>
+      <c r="I224">
+        <v>2</v>
+      </c>
+      <c r="J224">
+        <v>14882</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="M224" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>36</v>
+      </c>
+      <c r="B225" t="s">
+        <v>743</v>
+      </c>
+      <c r="C225" t="s">
+        <v>744</v>
+      </c>
+      <c r="D225" t="s">
+        <v>745</v>
+      </c>
+      <c r="E225" t="s">
+        <v>15</v>
+      </c>
+      <c r="F225" t="s">
+        <v>15</v>
+      </c>
+      <c r="G225" t="s">
+        <v>746</v>
+      </c>
+      <c r="H225">
+        <v>9900654335</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>15332</v>
+      </c>
+      <c r="K225">
+        <v>2</v>
+      </c>
+      <c r="M225" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>48</v>
+      </c>
+      <c r="B226" t="s">
+        <v>747</v>
+      </c>
+      <c r="C226" t="s">
+        <v>748</v>
+      </c>
+      <c r="D226" t="s">
+        <v>749</v>
+      </c>
+      <c r="E226" t="s">
+        <v>15</v>
+      </c>
+      <c r="F226" t="s">
+        <v>15</v>
+      </c>
+      <c r="G226" t="s">
+        <v>750</v>
+      </c>
+      <c r="H226">
+        <v>9900789351</v>
+      </c>
+      <c r="I226">
+        <v>2</v>
+      </c>
+      <c r="J226">
+        <v>16549</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+      <c r="M226" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>48</v>
+      </c>
+      <c r="B227" t="s">
+        <v>751</v>
+      </c>
+      <c r="C227" t="s">
+        <v>752</v>
+      </c>
+      <c r="D227" t="s">
+        <v>753</v>
+      </c>
+      <c r="E227" t="s">
+        <v>15</v>
+      </c>
+      <c r="F227" t="s">
+        <v>15</v>
+      </c>
+      <c r="G227" t="s">
+        <v>15</v>
+      </c>
+      <c r="H227">
+        <v>9900543218</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>15333</v>
+      </c>
+      <c r="K227">
+        <v>2</v>
+      </c>
+      <c r="M227" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>48</v>
+      </c>
+      <c r="B228" t="s">
+        <v>754</v>
+      </c>
+      <c r="C228" t="s">
+        <v>755</v>
+      </c>
+      <c r="D228" t="s">
+        <v>756</v>
+      </c>
+      <c r="E228" t="s">
+        <v>15</v>
+      </c>
+      <c r="F228" t="s">
+        <v>15</v>
+      </c>
+      <c r="G228" t="s">
+        <v>757</v>
+      </c>
+      <c r="H228">
+        <v>9900654336</v>
+      </c>
+      <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228">
+        <v>14882</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="M228" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>48</v>
+      </c>
+      <c r="B229" t="s">
+        <v>758</v>
+      </c>
+      <c r="C229" t="s">
+        <v>759</v>
+      </c>
+      <c r="D229" t="s">
+        <v>760</v>
+      </c>
+      <c r="E229" t="s">
+        <v>15</v>
+      </c>
+      <c r="F229" t="s">
+        <v>15</v>
+      </c>
+      <c r="G229" t="s">
+        <v>761</v>
+      </c>
+      <c r="H229">
+        <v>9900123506</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <v>13660</v>
+      </c>
+      <c r="K229">
+        <v>2</v>
+      </c>
+      <c r="M229" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>48</v>
+      </c>
+      <c r="B230" t="s">
+        <v>365</v>
+      </c>
+      <c r="C230" t="s">
+        <v>762</v>
+      </c>
+      <c r="D230" t="s">
+        <v>367</v>
+      </c>
+      <c r="E230" t="s">
+        <v>15</v>
+      </c>
+      <c r="F230" t="s">
+        <v>15</v>
+      </c>
+      <c r="G230" t="s">
+        <v>15</v>
+      </c>
+      <c r="H230">
+        <v>9900765444</v>
+      </c>
+      <c r="I230">
+        <v>2</v>
+      </c>
+      <c r="J230">
+        <v>16348</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="M230" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>48</v>
+      </c>
+      <c r="B231" t="s">
+        <v>763</v>
+      </c>
+      <c r="C231" t="s">
+        <v>764</v>
+      </c>
+      <c r="D231" t="s">
+        <v>765</v>
+      </c>
+      <c r="E231" t="s">
+        <v>15</v>
+      </c>
+      <c r="F231" t="s">
+        <v>15</v>
+      </c>
+      <c r="G231" t="s">
+        <v>766</v>
+      </c>
+      <c r="H231">
+        <v>9900984318</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>15473</v>
+      </c>
+      <c r="K231">
+        <v>2</v>
+      </c>
+      <c r="M231" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>48</v>
+      </c>
+      <c r="B232" t="s">
+        <v>568</v>
+      </c>
+      <c r="C232" t="s">
+        <v>767</v>
+      </c>
+      <c r="D232" t="s">
+        <v>570</v>
+      </c>
+      <c r="E232" t="s">
+        <v>15</v>
+      </c>
+      <c r="F232" t="s">
+        <v>15</v>
+      </c>
+      <c r="G232" t="s">
+        <v>15</v>
+      </c>
+      <c r="H232">
+        <v>9900876556</v>
+      </c>
+      <c r="I232">
+        <v>2</v>
+      </c>
+      <c r="J232">
+        <v>17661</v>
+      </c>
+      <c r="K232">
+        <v>1</v>
+      </c>
+      <c r="M232" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>48</v>
+      </c>
+      <c r="B233" t="s">
+        <v>768</v>
+      </c>
+      <c r="C233" t="s">
+        <v>769</v>
+      </c>
+      <c r="D233" t="s">
+        <v>770</v>
+      </c>
+      <c r="E233" t="s">
+        <v>15</v>
+      </c>
+      <c r="F233" t="s">
+        <v>15</v>
+      </c>
+      <c r="G233" t="s">
+        <v>771</v>
+      </c>
+      <c r="H233">
+        <v>9900543230</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <v>17897</v>
+      </c>
+      <c r="K233">
+        <v>2</v>
+      </c>
+      <c r="M233" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>48</v>
+      </c>
+      <c r="B234" t="s">
+        <v>772</v>
+      </c>
+      <c r="C234" t="s">
+        <v>773</v>
+      </c>
+      <c r="D234" t="s">
+        <v>774</v>
+      </c>
+      <c r="E234" t="s">
+        <v>15</v>
+      </c>
+      <c r="F234" t="s">
+        <v>15</v>
+      </c>
+      <c r="G234" t="s">
+        <v>15</v>
+      </c>
+      <c r="H234">
+        <v>9900654337</v>
+      </c>
+      <c r="I234">
+        <v>2</v>
+      </c>
+      <c r="J234">
+        <v>16550</v>
+      </c>
+      <c r="K234">
+        <v>1</v>
+      </c>
+      <c r="M234" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>48</v>
+      </c>
+      <c r="B235" t="s">
+        <v>775</v>
+      </c>
+      <c r="C235" t="s">
+        <v>776</v>
+      </c>
+      <c r="D235" t="s">
+        <v>777</v>
+      </c>
+      <c r="E235" t="s">
+        <v>15</v>
+      </c>
+      <c r="F235" t="s">
+        <v>15</v>
+      </c>
+      <c r="G235" t="s">
+        <v>778</v>
+      </c>
+      <c r="H235">
+        <v>9900123507</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>15334</v>
+      </c>
+      <c r="K235">
+        <v>2</v>
+      </c>
+      <c r="M235" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>11</v>
+      </c>
+      <c r="B236" t="s">
+        <v>779</v>
+      </c>
+      <c r="C236" t="s">
+        <v>780</v>
+      </c>
+      <c r="D236" t="s">
+        <v>781</v>
+      </c>
+      <c r="E236" t="s">
+        <v>15</v>
+      </c>
+      <c r="F236" t="s">
+        <v>15</v>
+      </c>
+      <c r="G236" t="s">
+        <v>782</v>
+      </c>
+      <c r="H236">
+        <v>9900125684</v>
+      </c>
+      <c r="I236">
+        <v>2</v>
+      </c>
+      <c r="J236">
+        <v>14241</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+      <c r="M236" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>11</v>
+      </c>
+      <c r="B237" t="s">
+        <v>783</v>
+      </c>
+      <c r="C237" t="s">
+        <v>784</v>
+      </c>
+      <c r="D237" t="s">
+        <v>785</v>
+      </c>
+      <c r="E237" t="s">
+        <v>15</v>
+      </c>
+      <c r="F237" t="s">
+        <v>15</v>
+      </c>
+      <c r="G237" t="s">
+        <v>15</v>
+      </c>
+      <c r="H237">
+        <v>9900659882</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>15328</v>
+      </c>
+      <c r="K237">
+        <v>2</v>
+      </c>
+      <c r="M237" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>11</v>
+      </c>
+      <c r="B238" t="s">
+        <v>786</v>
+      </c>
+      <c r="C238" t="s">
+        <v>787</v>
+      </c>
+      <c r="D238" t="s">
+        <v>788</v>
+      </c>
+      <c r="E238" t="s">
+        <v>15</v>
+      </c>
+      <c r="F238" t="s">
+        <v>15</v>
+      </c>
+      <c r="G238" t="s">
+        <v>789</v>
+      </c>
+      <c r="H238">
+        <v>9900876538</v>
+      </c>
+      <c r="I238">
+        <v>2</v>
+      </c>
+      <c r="J238">
+        <v>13463</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+      <c r="M238" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>11</v>
+      </c>
+      <c r="B239" t="s">
+        <v>790</v>
+      </c>
+      <c r="C239" t="s">
+        <v>791</v>
+      </c>
+      <c r="D239" t="s">
+        <v>792</v>
+      </c>
+      <c r="E239" t="s">
+        <v>15</v>
+      </c>
+      <c r="F239" t="s">
+        <v>15</v>
+      </c>
+      <c r="G239" t="s">
+        <v>793</v>
+      </c>
+      <c r="H239">
+        <v>9900987657</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>17661</v>
+      </c>
+      <c r="K239">
+        <v>2</v>
+      </c>
+      <c r="M239" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>11</v>
+      </c>
+      <c r="B240" t="s">
+        <v>794</v>
+      </c>
+      <c r="C240" t="s">
+        <v>795</v>
+      </c>
+      <c r="D240" t="s">
+        <v>796</v>
+      </c>
+      <c r="E240" t="s">
+        <v>15</v>
+      </c>
+      <c r="F240" t="s">
+        <v>15</v>
+      </c>
+      <c r="G240" t="s">
+        <v>797</v>
+      </c>
+      <c r="H240">
+        <v>9900123508</v>
+      </c>
+      <c r="I240">
+        <v>2</v>
+      </c>
+      <c r="J240">
+        <v>18771</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+      <c r="M240" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>11</v>
+      </c>
+      <c r="B241" t="s">
+        <v>798</v>
+      </c>
+      <c r="C241" t="s">
+        <v>799</v>
+      </c>
+      <c r="D241" t="s">
+        <v>800</v>
+      </c>
+      <c r="E241" t="s">
+        <v>15</v>
+      </c>
+      <c r="F241" t="s">
+        <v>15</v>
+      </c>
+      <c r="G241" t="s">
+        <v>15</v>
+      </c>
+      <c r="H241">
+        <v>9900543219</v>
+      </c>
+      <c r="I241">
+        <v>2</v>
+      </c>
+      <c r="J241">
+        <v>15784</v>
+      </c>
+      <c r="K241">
+        <v>2</v>
+      </c>
+      <c r="M241" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>11</v>
+      </c>
+      <c r="B242" t="s">
+        <v>801</v>
+      </c>
+      <c r="C242" t="s">
+        <v>802</v>
+      </c>
+      <c r="D242" t="s">
+        <v>803</v>
+      </c>
+      <c r="E242" t="s">
+        <v>15</v>
+      </c>
+      <c r="F242" t="s">
+        <v>15</v>
+      </c>
+      <c r="G242" t="s">
+        <v>804</v>
+      </c>
+      <c r="H242">
+        <v>9900765445</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242">
+        <v>13553</v>
+      </c>
+      <c r="K242">
+        <v>1</v>
+      </c>
+      <c r="M242" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>11</v>
+      </c>
+      <c r="B243" t="s">
+        <v>805</v>
+      </c>
+      <c r="C243" t="s">
+        <v>806</v>
+      </c>
+      <c r="D243" t="s">
+        <v>807</v>
+      </c>
+      <c r="E243" t="s">
+        <v>15</v>
+      </c>
+      <c r="F243" t="s">
+        <v>15</v>
+      </c>
+      <c r="G243" t="s">
+        <v>15</v>
+      </c>
+      <c r="H243">
+        <v>9900984329</v>
+      </c>
+      <c r="I243">
+        <v>2</v>
+      </c>
+      <c r="J243">
+        <v>14772</v>
+      </c>
+      <c r="K243">
+        <v>2</v>
+      </c>
+      <c r="M243" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>11</v>
+      </c>
+      <c r="B244" t="s">
+        <v>808</v>
+      </c>
+      <c r="C244" t="s">
+        <v>809</v>
+      </c>
+      <c r="D244" t="s">
+        <v>810</v>
+      </c>
+      <c r="E244" t="s">
+        <v>15</v>
+      </c>
+      <c r="F244" t="s">
+        <v>15</v>
+      </c>
+      <c r="G244" t="s">
+        <v>811</v>
+      </c>
+      <c r="H244">
+        <v>9900543231</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>17662</v>
+      </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
+      <c r="M244" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>11</v>
+      </c>
+      <c r="B245" t="s">
+        <v>812</v>
+      </c>
+      <c r="C245" t="s">
+        <v>813</v>
+      </c>
+      <c r="D245" t="s">
+        <v>814</v>
+      </c>
+      <c r="E245" t="s">
+        <v>15</v>
+      </c>
+      <c r="F245" t="s">
+        <v>15</v>
+      </c>
+      <c r="G245" t="s">
+        <v>815</v>
+      </c>
+      <c r="H245">
+        <v>9900876557</v>
+      </c>
+      <c r="I245">
+        <v>2</v>
+      </c>
+      <c r="J245">
+        <v>16551</v>
+      </c>
+      <c r="K245">
+        <v>2</v>
+      </c>
+      <c r="M245" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>36</v>
+      </c>
+      <c r="B246" t="s">
+        <v>816</v>
+      </c>
+      <c r="C246" t="s">
+        <v>817</v>
+      </c>
+      <c r="D246" t="s">
+        <v>818</v>
+      </c>
+      <c r="E246" t="s">
+        <v>15</v>
+      </c>
+      <c r="F246" t="s">
+        <v>15</v>
+      </c>
+      <c r="G246" t="s">
+        <v>819</v>
+      </c>
+      <c r="H246">
+        <v>9900456796</v>
+      </c>
+      <c r="I246">
+        <v>2</v>
+      </c>
+      <c r="J246">
+        <v>14685</v>
+      </c>
+      <c r="K246">
+        <v>1</v>
+      </c>
+      <c r="M246" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>36</v>
+      </c>
+      <c r="B247" t="s">
+        <v>236</v>
+      </c>
+      <c r="C247" t="s">
+        <v>820</v>
+      </c>
+      <c r="D247" t="s">
+        <v>238</v>
+      </c>
+      <c r="E247" t="s">
+        <v>15</v>
+      </c>
+      <c r="F247" t="s">
+        <v>15</v>
+      </c>
+      <c r="G247" t="s">
+        <v>15</v>
+      </c>
+      <c r="H247">
+        <v>9900654338</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>15474</v>
+      </c>
+      <c r="K247">
+        <v>2</v>
+      </c>
+      <c r="M247" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>36</v>
+      </c>
+      <c r="B248" t="s">
+        <v>230</v>
+      </c>
+      <c r="C248" t="s">
+        <v>821</v>
+      </c>
+      <c r="D248" t="s">
+        <v>232</v>
+      </c>
+      <c r="E248" t="s">
+        <v>15</v>
+      </c>
+      <c r="F248" t="s">
+        <v>15</v>
+      </c>
+      <c r="G248" t="s">
+        <v>822</v>
+      </c>
+      <c r="H248">
+        <v>9900234573</v>
+      </c>
+      <c r="I248">
+        <v>2</v>
+      </c>
+      <c r="J248">
+        <v>14328</v>
+      </c>
+      <c r="K248">
+        <v>1</v>
+      </c>
+      <c r="M248" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>36</v>
+      </c>
+      <c r="B249" t="s">
+        <v>823</v>
+      </c>
+      <c r="C249" t="s">
+        <v>824</v>
+      </c>
+      <c r="D249" t="s">
+        <v>825</v>
+      </c>
+      <c r="E249" t="s">
+        <v>15</v>
+      </c>
+      <c r="F249" t="s">
+        <v>15</v>
+      </c>
+      <c r="G249" t="s">
+        <v>826</v>
+      </c>
+      <c r="H249">
+        <v>9900984319</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249">
+        <v>15994</v>
+      </c>
+      <c r="K249">
+        <v>2</v>
+      </c>
+      <c r="M249" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>36</v>
+      </c>
+      <c r="B250" t="s">
+        <v>827</v>
+      </c>
+      <c r="C250" t="s">
+        <v>828</v>
+      </c>
+      <c r="D250" t="s">
+        <v>829</v>
+      </c>
+      <c r="E250" t="s">
+        <v>15</v>
+      </c>
+      <c r="F250" t="s">
+        <v>15</v>
+      </c>
+      <c r="G250" t="s">
+        <v>15</v>
+      </c>
+      <c r="H250">
+        <v>9900654318</v>
+      </c>
+      <c r="I250">
+        <v>2</v>
+      </c>
+      <c r="J250">
+        <v>17661</v>
+      </c>
+      <c r="K250">
+        <v>1</v>
+      </c>
+      <c r="M250" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>36</v>
+      </c>
+      <c r="B251" t="s">
+        <v>830</v>
+      </c>
+      <c r="C251" t="s">
+        <v>831</v>
+      </c>
+      <c r="D251" t="s">
+        <v>832</v>
+      </c>
+      <c r="E251" t="s">
+        <v>15</v>
+      </c>
+      <c r="F251" t="s">
+        <v>15</v>
+      </c>
+      <c r="G251" t="s">
+        <v>833</v>
+      </c>
+      <c r="H251">
+        <v>9900876558</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251">
+        <v>14574</v>
+      </c>
+      <c r="K251">
+        <v>2</v>
+      </c>
+      <c r="M251" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>36</v>
+      </c>
+      <c r="B252" t="s">
+        <v>834</v>
+      </c>
+      <c r="C252" t="s">
+        <v>835</v>
+      </c>
+      <c r="D252" t="s">
+        <v>836</v>
+      </c>
+      <c r="E252" t="s">
+        <v>15</v>
+      </c>
+      <c r="F252" t="s">
+        <v>15</v>
+      </c>
+      <c r="G252" t="s">
+        <v>837</v>
+      </c>
+      <c r="H252">
+        <v>9900123468</v>
+      </c>
+      <c r="I252">
+        <v>2</v>
+      </c>
+      <c r="J252">
+        <v>17897</v>
+      </c>
+      <c r="K252">
+        <v>1</v>
+      </c>
+      <c r="M252" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>36</v>
+      </c>
+      <c r="B253" t="s">
+        <v>838</v>
+      </c>
+      <c r="C253" t="s">
+        <v>839</v>
+      </c>
+      <c r="D253" t="s">
+        <v>840</v>
+      </c>
+      <c r="E253" t="s">
+        <v>15</v>
+      </c>
+      <c r="F253" t="s">
+        <v>15</v>
+      </c>
+      <c r="G253" t="s">
+        <v>15</v>
+      </c>
+      <c r="H253">
+        <v>9900765446</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253">
+        <v>16761</v>
+      </c>
+      <c r="K253">
+        <v>2</v>
+      </c>
+      <c r="M253" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>36</v>
+      </c>
+      <c r="B254" t="s">
+        <v>841</v>
+      </c>
+      <c r="C254" t="s">
+        <v>842</v>
+      </c>
+      <c r="D254" t="s">
+        <v>843</v>
+      </c>
+      <c r="E254" t="s">
+        <v>15</v>
+      </c>
+      <c r="F254" t="s">
+        <v>15</v>
+      </c>
+      <c r="G254" t="s">
+        <v>844</v>
+      </c>
+      <c r="H254">
+        <v>9900456797</v>
+      </c>
+      <c r="I254">
+        <v>2</v>
+      </c>
+      <c r="J254">
+        <v>14883</v>
+      </c>
+      <c r="K254">
+        <v>1</v>
+      </c>
+      <c r="M254" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>36</v>
+      </c>
+      <c r="B255" t="s">
+        <v>845</v>
+      </c>
+      <c r="C255" t="s">
+        <v>846</v>
+      </c>
+      <c r="D255" t="s">
+        <v>847</v>
+      </c>
+      <c r="E255" t="s">
+        <v>15</v>
+      </c>
+      <c r="F255" t="s">
+        <v>15</v>
+      </c>
+      <c r="G255" t="s">
+        <v>848</v>
+      </c>
+      <c r="H255">
+        <v>9900654339</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255">
+        <v>15335</v>
+      </c>
+      <c r="K255">
+        <v>2</v>
+      </c>
+      <c r="M255" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>48</v>
+      </c>
+      <c r="B256" t="s">
+        <v>849</v>
+      </c>
+      <c r="C256" t="s">
+        <v>850</v>
+      </c>
+      <c r="D256" t="s">
+        <v>851</v>
+      </c>
+      <c r="E256" t="s">
+        <v>15</v>
+      </c>
+      <c r="F256" t="s">
+        <v>15</v>
+      </c>
+      <c r="G256" t="s">
+        <v>852</v>
+      </c>
+      <c r="H256">
+        <v>9900789352</v>
+      </c>
+      <c r="I256">
+        <v>2</v>
+      </c>
+      <c r="J256">
+        <v>16550</v>
+      </c>
+      <c r="K256">
+        <v>1</v>
+      </c>
+      <c r="M256" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>48</v>
+      </c>
+      <c r="B257" t="s">
+        <v>454</v>
+      </c>
+      <c r="C257" t="s">
+        <v>853</v>
+      </c>
+      <c r="D257" t="s">
+        <v>456</v>
+      </c>
+      <c r="E257" t="s">
+        <v>15</v>
+      </c>
+      <c r="F257" t="s">
+        <v>15</v>
+      </c>
+      <c r="G257" t="s">
+        <v>15</v>
+      </c>
+      <c r="H257">
+        <v>9900543220</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257">
+        <v>15336</v>
+      </c>
+      <c r="K257">
+        <v>2</v>
+      </c>
+      <c r="M257" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>48</v>
+      </c>
+      <c r="B258" t="s">
+        <v>556</v>
+      </c>
+      <c r="C258" t="s">
+        <v>854</v>
+      </c>
+      <c r="D258" t="s">
+        <v>558</v>
+      </c>
+      <c r="E258" t="s">
+        <v>15</v>
+      </c>
+      <c r="F258" t="s">
+        <v>15</v>
+      </c>
+      <c r="G258" t="s">
+        <v>855</v>
+      </c>
+      <c r="H258">
+        <v>9900654340</v>
+      </c>
+      <c r="I258">
+        <v>2</v>
+      </c>
+      <c r="J258">
+        <v>14884</v>
+      </c>
+      <c r="K258">
+        <v>1</v>
+      </c>
+      <c r="M258" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>48</v>
+      </c>
+      <c r="B259" t="s">
+        <v>362</v>
+      </c>
+      <c r="C259" t="s">
+        <v>856</v>
+      </c>
+      <c r="D259" t="s">
+        <v>364</v>
+      </c>
+      <c r="E259" t="s">
+        <v>15</v>
+      </c>
+      <c r="F259" t="s">
+        <v>15</v>
+      </c>
+      <c r="G259" t="s">
+        <v>857</v>
+      </c>
+      <c r="H259">
+        <v>9900123509</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259">
+        <v>13661</v>
+      </c>
+      <c r="K259">
+        <v>2</v>
+      </c>
+      <c r="M259" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>48</v>
+      </c>
+      <c r="B260" t="s">
+        <v>858</v>
+      </c>
+      <c r="C260" t="s">
+        <v>859</v>
+      </c>
+      <c r="D260" t="s">
+        <v>860</v>
+      </c>
+      <c r="E260" t="s">
+        <v>15</v>
+      </c>
+      <c r="F260" t="s">
+        <v>15</v>
+      </c>
+      <c r="G260" t="s">
+        <v>15</v>
+      </c>
+      <c r="H260">
+        <v>9900765447</v>
+      </c>
+      <c r="I260">
+        <v>2</v>
+      </c>
+      <c r="J260">
+        <v>16349</v>
+      </c>
+      <c r="K260">
+        <v>1</v>
+      </c>
+      <c r="M260" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>48</v>
+      </c>
+      <c r="B261" t="s">
+        <v>861</v>
+      </c>
+      <c r="C261" t="s">
+        <v>862</v>
+      </c>
+      <c r="D261" t="s">
+        <v>863</v>
+      </c>
+      <c r="E261" t="s">
+        <v>15</v>
+      </c>
+      <c r="F261" t="s">
+        <v>15</v>
+      </c>
+      <c r="G261" t="s">
+        <v>864</v>
+      </c>
+      <c r="H261">
+        <v>9900984320</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261">
+        <v>15475</v>
+      </c>
+      <c r="K261">
+        <v>2</v>
+      </c>
+      <c r="M261" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>48</v>
+      </c>
+      <c r="B262" t="s">
+        <v>865</v>
+      </c>
+      <c r="C262" t="s">
+        <v>866</v>
+      </c>
+      <c r="D262" t="s">
+        <v>867</v>
+      </c>
+      <c r="E262" t="s">
+        <v>15</v>
+      </c>
+      <c r="F262" t="s">
+        <v>15</v>
+      </c>
+      <c r="G262" t="s">
+        <v>15</v>
+      </c>
+      <c r="H262">
+        <v>9900876559</v>
+      </c>
+      <c r="I262">
+        <v>2</v>
+      </c>
+      <c r="J262">
+        <v>17662</v>
+      </c>
+      <c r="K262">
+        <v>1</v>
+      </c>
+      <c r="M262" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>48</v>
+      </c>
+      <c r="B263" t="s">
+        <v>868</v>
+      </c>
+      <c r="C263" t="s">
+        <v>869</v>
+      </c>
+      <c r="D263" t="s">
+        <v>870</v>
+      </c>
+      <c r="E263" t="s">
+        <v>15</v>
+      </c>
+      <c r="F263" t="s">
+        <v>15</v>
+      </c>
+      <c r="G263" t="s">
+        <v>871</v>
+      </c>
+      <c r="H263">
+        <v>9900543232</v>
+      </c>
+      <c r="I263">
+        <v>1</v>
+      </c>
+      <c r="J263">
+        <v>17898</v>
+      </c>
+      <c r="K263">
+        <v>2</v>
+      </c>
+      <c r="M263" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>48</v>
+      </c>
+      <c r="B264" t="s">
+        <v>278</v>
+      </c>
+      <c r="C264" t="s">
+        <v>872</v>
+      </c>
+      <c r="D264" t="s">
+        <v>280</v>
+      </c>
+      <c r="E264" t="s">
+        <v>15</v>
+      </c>
+      <c r="F264" t="s">
+        <v>15</v>
+      </c>
+      <c r="G264" t="s">
+        <v>15</v>
+      </c>
+      <c r="H264">
+        <v>9900654341</v>
+      </c>
+      <c r="I264">
+        <v>2</v>
+      </c>
+      <c r="J264">
+        <v>16551</v>
+      </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
+      <c r="M264" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>48</v>
+      </c>
+      <c r="B265" t="s">
+        <v>873</v>
+      </c>
+      <c r="C265" t="s">
+        <v>874</v>
+      </c>
+      <c r="D265" t="s">
+        <v>875</v>
+      </c>
+      <c r="E265" t="s">
+        <v>15</v>
+      </c>
+      <c r="F265" t="s">
+        <v>15</v>
+      </c>
+      <c r="G265" t="s">
+        <v>876</v>
+      </c>
+      <c r="H265">
+        <v>9900123510</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265">
+        <v>15337</v>
+      </c>
+      <c r="K265">
+        <v>2</v>
+      </c>
+      <c r="M265" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>11</v>
+      </c>
+      <c r="B266" t="s">
+        <v>582</v>
+      </c>
+      <c r="C266" t="s">
+        <v>877</v>
+      </c>
+      <c r="D266" t="s">
+        <v>584</v>
+      </c>
+      <c r="E266" t="s">
+        <v>15</v>
+      </c>
+      <c r="F266" t="s">
+        <v>15</v>
+      </c>
+      <c r="G266" t="s">
+        <v>878</v>
+      </c>
+      <c r="H266">
+        <v>9900125690</v>
+      </c>
+      <c r="I266">
+        <v>2</v>
+      </c>
+      <c r="J266">
+        <v>14350</v>
+      </c>
+      <c r="K266">
+        <v>1</v>
+      </c>
+      <c r="M266" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>11</v>
+      </c>
+      <c r="B267" t="s">
+        <v>879</v>
+      </c>
+      <c r="C267" t="s">
+        <v>880</v>
+      </c>
+      <c r="D267" t="s">
+        <v>881</v>
+      </c>
+      <c r="E267" t="s">
+        <v>15</v>
+      </c>
+      <c r="F267" t="s">
+        <v>15</v>
+      </c>
+      <c r="G267" t="s">
+        <v>15</v>
+      </c>
+      <c r="H267">
+        <v>9900659890</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267">
+        <v>15430</v>
+      </c>
+      <c r="K267">
+        <v>2</v>
+      </c>
+      <c r="M267" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>11</v>
+      </c>
+      <c r="B268" t="s">
+        <v>882</v>
+      </c>
+      <c r="C268" t="s">
+        <v>883</v>
+      </c>
+      <c r="D268" t="s">
+        <v>884</v>
+      </c>
+      <c r="E268" t="s">
+        <v>15</v>
+      </c>
+      <c r="F268" t="s">
+        <v>15</v>
+      </c>
+      <c r="G268" t="s">
+        <v>885</v>
+      </c>
+      <c r="H268">
+        <v>9900876540</v>
+      </c>
+      <c r="I268">
+        <v>2</v>
+      </c>
+      <c r="J268">
+        <v>13580</v>
+      </c>
+      <c r="K268">
+        <v>1</v>
+      </c>
+      <c r="M268" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>11</v>
+      </c>
+      <c r="B269" t="s">
+        <v>593</v>
+      </c>
+      <c r="C269" t="s">
+        <v>886</v>
+      </c>
+      <c r="D269" t="s">
+        <v>595</v>
+      </c>
+      <c r="E269" t="s">
+        <v>15</v>
+      </c>
+      <c r="F269" t="s">
+        <v>15</v>
+      </c>
+      <c r="G269" t="s">
+        <v>887</v>
+      </c>
+      <c r="H269">
+        <v>9900987660</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>17720</v>
+      </c>
+      <c r="K269">
+        <v>2</v>
+      </c>
+      <c r="M269" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>11</v>
+      </c>
+      <c r="B270" t="s">
+        <v>888</v>
+      </c>
+      <c r="C270" t="s">
+        <v>889</v>
+      </c>
+      <c r="D270" t="s">
+        <v>890</v>
+      </c>
+      <c r="E270" t="s">
+        <v>15</v>
+      </c>
+      <c r="F270" t="s">
+        <v>15</v>
+      </c>
+      <c r="G270" t="s">
+        <v>891</v>
+      </c>
+      <c r="H270">
+        <v>9900123511</v>
+      </c>
+      <c r="I270">
+        <v>2</v>
+      </c>
+      <c r="J270">
+        <v>18890</v>
+      </c>
+      <c r="K270">
+        <v>1</v>
+      </c>
+      <c r="M270" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>11</v>
+      </c>
+      <c r="B271" t="s">
+        <v>892</v>
+      </c>
+      <c r="C271" t="s">
+        <v>893</v>
+      </c>
+      <c r="D271" t="s">
+        <v>894</v>
+      </c>
+      <c r="E271" t="s">
+        <v>15</v>
+      </c>
+      <c r="F271" t="s">
+        <v>15</v>
+      </c>
+      <c r="G271" t="s">
+        <v>15</v>
+      </c>
+      <c r="H271">
+        <v>9900543222</v>
+      </c>
+      <c r="I271">
+        <v>2</v>
+      </c>
+      <c r="J271">
+        <v>15890</v>
+      </c>
+      <c r="K271">
+        <v>2</v>
+      </c>
+      <c r="M271" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>11</v>
+      </c>
+      <c r="B272" t="s">
+        <v>895</v>
+      </c>
+      <c r="C272" t="s">
+        <v>896</v>
+      </c>
+      <c r="D272" t="s">
+        <v>897</v>
+      </c>
+      <c r="E272" t="s">
+        <v>15</v>
+      </c>
+      <c r="F272" t="s">
+        <v>15</v>
+      </c>
+      <c r="G272" t="s">
+        <v>898</v>
+      </c>
+      <c r="H272">
+        <v>9900765450</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272">
+        <v>13650</v>
+      </c>
+      <c r="K272">
+        <v>1</v>
+      </c>
+      <c r="M272" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>11</v>
+      </c>
+      <c r="B273" t="s">
+        <v>507</v>
+      </c>
+      <c r="C273" t="s">
+        <v>899</v>
+      </c>
+      <c r="D273" t="s">
+        <v>509</v>
+      </c>
+      <c r="E273" t="s">
+        <v>15</v>
+      </c>
+      <c r="F273" t="s">
+        <v>15</v>
+      </c>
+      <c r="G273" t="s">
+        <v>15</v>
+      </c>
+      <c r="H273">
+        <v>9900984331</v>
+      </c>
+      <c r="I273">
+        <v>2</v>
+      </c>
+      <c r="J273">
+        <v>14890</v>
+      </c>
+      <c r="K273">
+        <v>2</v>
+      </c>
+      <c r="M273" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>11</v>
+      </c>
+      <c r="B274" t="s">
+        <v>900</v>
+      </c>
+      <c r="C274" t="s">
+        <v>901</v>
+      </c>
+      <c r="D274" t="s">
+        <v>902</v>
+      </c>
+      <c r="E274" t="s">
+        <v>15</v>
+      </c>
+      <c r="F274" t="s">
+        <v>15</v>
+      </c>
+      <c r="G274" t="s">
+        <v>903</v>
+      </c>
+      <c r="H274">
+        <v>9900543234</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274">
+        <v>17770</v>
+      </c>
+      <c r="K274">
+        <v>1</v>
+      </c>
+      <c r="M274" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>11</v>
+      </c>
+      <c r="B275" t="s">
+        <v>904</v>
+      </c>
+      <c r="C275" t="s">
+        <v>905</v>
+      </c>
+      <c r="D275" t="s">
+        <v>906</v>
+      </c>
+      <c r="E275" t="s">
+        <v>15</v>
+      </c>
+      <c r="F275" t="s">
+        <v>15</v>
+      </c>
+      <c r="G275" t="s">
+        <v>907</v>
+      </c>
+      <c r="H275">
+        <v>9900876561</v>
+      </c>
+      <c r="I275">
+        <v>2</v>
+      </c>
+      <c r="J275">
+        <v>16660</v>
+      </c>
+      <c r="K275">
+        <v>2</v>
+      </c>
+      <c r="M275" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>36</v>
+      </c>
+      <c r="B276" t="s">
+        <v>908</v>
+      </c>
+      <c r="C276" t="s">
+        <v>909</v>
+      </c>
+      <c r="D276" t="s">
+        <v>910</v>
+      </c>
+      <c r="E276" t="s">
+        <v>15</v>
+      </c>
+      <c r="F276" t="s">
+        <v>15</v>
+      </c>
+      <c r="G276" t="s">
+        <v>911</v>
+      </c>
+      <c r="H276">
+        <v>9900456800</v>
+      </c>
+      <c r="I276">
+        <v>2</v>
+      </c>
+      <c r="J276">
+        <v>14790</v>
+      </c>
+      <c r="K276">
+        <v>1</v>
+      </c>
+      <c r="M276" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>36</v>
+      </c>
+      <c r="B277" t="s">
+        <v>430</v>
+      </c>
+      <c r="C277" t="s">
+        <v>912</v>
+      </c>
+      <c r="D277" t="s">
+        <v>432</v>
+      </c>
+      <c r="E277" t="s">
+        <v>15</v>
+      </c>
+      <c r="F277" t="s">
+        <v>15</v>
+      </c>
+      <c r="G277" t="s">
+        <v>15</v>
+      </c>
+      <c r="H277">
+        <v>9900654342</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277">
+        <v>15550</v>
+      </c>
+      <c r="K277">
+        <v>2</v>
+      </c>
+      <c r="M277" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>36</v>
+      </c>
+      <c r="B278" t="s">
+        <v>913</v>
+      </c>
+      <c r="C278" t="s">
+        <v>914</v>
+      </c>
+      <c r="D278" t="s">
+        <v>915</v>
+      </c>
+      <c r="E278" t="s">
+        <v>15</v>
+      </c>
+      <c r="F278" t="s">
+        <v>15</v>
+      </c>
+      <c r="G278" t="s">
+        <v>916</v>
+      </c>
+      <c r="H278">
+        <v>9900234574</v>
+      </c>
+      <c r="I278">
+        <v>2</v>
+      </c>
+      <c r="J278">
+        <v>14450</v>
+      </c>
+      <c r="K278">
+        <v>1</v>
+      </c>
+      <c r="M278" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>36</v>
+      </c>
+      <c r="B279" t="s">
+        <v>917</v>
+      </c>
+      <c r="C279" t="s">
+        <v>918</v>
+      </c>
+      <c r="D279" t="s">
+        <v>919</v>
+      </c>
+      <c r="E279" t="s">
+        <v>15</v>
+      </c>
+      <c r="F279" t="s">
+        <v>15</v>
+      </c>
+      <c r="G279" t="s">
+        <v>920</v>
+      </c>
+      <c r="H279">
+        <v>9900984321</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279">
+        <v>16050</v>
+      </c>
+      <c r="K279">
+        <v>2</v>
+      </c>
+      <c r="M279" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>36</v>
+      </c>
+      <c r="B280" t="s">
+        <v>323</v>
+      </c>
+      <c r="C280" t="s">
+        <v>921</v>
+      </c>
+      <c r="D280" t="s">
+        <v>325</v>
+      </c>
+      <c r="E280" t="s">
+        <v>15</v>
+      </c>
+      <c r="F280" t="s">
+        <v>15</v>
+      </c>
+      <c r="G280" t="s">
+        <v>15</v>
+      </c>
+      <c r="H280">
+        <v>9900654320</v>
+      </c>
+      <c r="I280">
+        <v>2</v>
+      </c>
+      <c r="J280">
+        <v>17750</v>
+      </c>
+      <c r="K280">
+        <v>1</v>
+      </c>
+      <c r="M280" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>36</v>
+      </c>
+      <c r="B281" t="s">
+        <v>922</v>
+      </c>
+      <c r="C281" t="s">
+        <v>923</v>
+      </c>
+      <c r="D281" t="s">
+        <v>924</v>
+      </c>
+      <c r="E281" t="s">
+        <v>15</v>
+      </c>
+      <c r="F281" t="s">
+        <v>15</v>
+      </c>
+      <c r="G281" t="s">
+        <v>925</v>
+      </c>
+      <c r="H281">
+        <v>9900876562</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281">
+        <v>14650</v>
+      </c>
+      <c r="K281">
+        <v>2</v>
+      </c>
+      <c r="M281" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>36</v>
+      </c>
+      <c r="B282" t="s">
+        <v>926</v>
+      </c>
+      <c r="C282" t="s">
+        <v>927</v>
+      </c>
+      <c r="D282" t="s">
+        <v>928</v>
+      </c>
+      <c r="E282" t="s">
+        <v>15</v>
+      </c>
+      <c r="F282" t="s">
+        <v>15</v>
+      </c>
+      <c r="G282" t="s">
+        <v>929</v>
+      </c>
+      <c r="H282">
+        <v>9900123470</v>
+      </c>
+      <c r="I282">
+        <v>2</v>
+      </c>
+      <c r="J282">
+        <v>17950</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
+      <c r="M282" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>36</v>
+      </c>
+      <c r="B283" t="s">
+        <v>930</v>
+      </c>
+      <c r="C283" t="s">
+        <v>931</v>
+      </c>
+      <c r="D283" t="s">
+        <v>932</v>
+      </c>
+      <c r="E283" t="s">
+        <v>15</v>
+      </c>
+      <c r="F283" t="s">
+        <v>15</v>
+      </c>
+      <c r="G283" t="s">
+        <v>15</v>
+      </c>
+      <c r="H283">
+        <v>9900765452</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="J283">
+        <v>16850</v>
+      </c>
+      <c r="K283">
+        <v>2</v>
+      </c>
+      <c r="M283" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>36</v>
+      </c>
+      <c r="B284" t="s">
+        <v>933</v>
+      </c>
+      <c r="C284" t="s">
+        <v>934</v>
+      </c>
+      <c r="D284" t="s">
+        <v>935</v>
+      </c>
+      <c r="E284" t="s">
+        <v>15</v>
+      </c>
+      <c r="F284" t="s">
+        <v>15</v>
+      </c>
+      <c r="G284" t="s">
+        <v>936</v>
+      </c>
+      <c r="H284">
+        <v>9900456801</v>
+      </c>
+      <c r="I284">
+        <v>2</v>
+      </c>
+      <c r="J284">
+        <v>14950</v>
+      </c>
+      <c r="K284">
+        <v>1</v>
+      </c>
+      <c r="M284" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>36</v>
+      </c>
+      <c r="B285" t="s">
+        <v>937</v>
+      </c>
+      <c r="C285" t="s">
+        <v>938</v>
+      </c>
+      <c r="D285" t="s">
+        <v>939</v>
+      </c>
+      <c r="E285" t="s">
+        <v>15</v>
+      </c>
+      <c r="F285" t="s">
+        <v>15</v>
+      </c>
+      <c r="G285" t="s">
+        <v>940</v>
+      </c>
+      <c r="H285">
+        <v>9900654343</v>
+      </c>
+      <c r="I285">
+        <v>1</v>
+      </c>
+      <c r="J285">
+        <v>15450</v>
+      </c>
+      <c r="K285">
+        <v>2</v>
+      </c>
+      <c r="M285" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>48</v>
+      </c>
+      <c r="B286" t="s">
+        <v>941</v>
+      </c>
+      <c r="C286" t="s">
+        <v>942</v>
+      </c>
+      <c r="D286" t="s">
+        <v>943</v>
+      </c>
+      <c r="E286" t="s">
+        <v>15</v>
+      </c>
+      <c r="F286" t="s">
+        <v>15</v>
+      </c>
+      <c r="G286" t="s">
+        <v>944</v>
+      </c>
+      <c r="H286">
+        <v>9900789353</v>
+      </c>
+      <c r="I286">
+        <v>2</v>
+      </c>
+      <c r="J286">
+        <v>16650</v>
+      </c>
+      <c r="K286">
+        <v>1</v>
+      </c>
+      <c r="M286" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>48</v>
+      </c>
+      <c r="B287" t="s">
+        <v>945</v>
+      </c>
+      <c r="C287" t="s">
+        <v>946</v>
+      </c>
+      <c r="D287" t="s">
+        <v>947</v>
+      </c>
+      <c r="E287" t="s">
+        <v>15</v>
+      </c>
+      <c r="F287" t="s">
+        <v>15</v>
+      </c>
+      <c r="G287" t="s">
+        <v>15</v>
+      </c>
+      <c r="H287">
+        <v>9900543223</v>
+      </c>
+      <c r="I287">
+        <v>1</v>
+      </c>
+      <c r="J287">
+        <v>15460</v>
+      </c>
+      <c r="K287">
+        <v>2</v>
+      </c>
+      <c r="M287" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>48</v>
+      </c>
+      <c r="B288" t="s">
+        <v>948</v>
+      </c>
+      <c r="C288" t="s">
+        <v>949</v>
+      </c>
+      <c r="D288" t="s">
+        <v>950</v>
+      </c>
+      <c r="E288" t="s">
+        <v>15</v>
+      </c>
+      <c r="F288" t="s">
+        <v>15</v>
+      </c>
+      <c r="G288" t="s">
+        <v>951</v>
+      </c>
+      <c r="H288">
+        <v>9900654344</v>
+      </c>
+      <c r="I288">
+        <v>2</v>
+      </c>
+      <c r="J288">
+        <v>14960</v>
+      </c>
+      <c r="K288">
+        <v>1</v>
+      </c>
+      <c r="M288" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>48</v>
+      </c>
+      <c r="B289" t="s">
+        <v>952</v>
+      </c>
+      <c r="C289" t="s">
+        <v>953</v>
+      </c>
+      <c r="D289" t="s">
+        <v>954</v>
+      </c>
+      <c r="E289" t="s">
+        <v>15</v>
+      </c>
+      <c r="F289" t="s">
+        <v>15</v>
+      </c>
+      <c r="G289" t="s">
+        <v>955</v>
+      </c>
+      <c r="H289">
+        <v>9900123512</v>
+      </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
+      <c r="J289">
+        <v>13760</v>
+      </c>
+      <c r="K289">
+        <v>2</v>
+      </c>
+      <c r="M289" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>48</v>
+      </c>
+      <c r="B290" t="s">
+        <v>956</v>
+      </c>
+      <c r="C290" t="s">
+        <v>957</v>
+      </c>
+      <c r="D290" t="s">
+        <v>958</v>
+      </c>
+      <c r="E290" t="s">
+        <v>15</v>
+      </c>
+      <c r="F290" t="s">
+        <v>15</v>
+      </c>
+      <c r="G290" t="s">
+        <v>15</v>
+      </c>
+      <c r="H290">
+        <v>9900765453</v>
+      </c>
+      <c r="I290">
+        <v>2</v>
+      </c>
+      <c r="J290">
+        <v>16460</v>
+      </c>
+      <c r="K290">
+        <v>1</v>
+      </c>
+      <c r="M290" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>48</v>
+      </c>
+      <c r="B291" t="s">
+        <v>190</v>
+      </c>
+      <c r="C291" t="s">
+        <v>959</v>
+      </c>
+      <c r="D291" t="s">
+        <v>192</v>
+      </c>
+      <c r="E291" t="s">
+        <v>15</v>
+      </c>
+      <c r="F291" t="s">
+        <v>15</v>
+      </c>
+      <c r="G291" t="s">
+        <v>960</v>
+      </c>
+      <c r="H291">
+        <v>9900984322</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="J291">
+        <v>15560</v>
+      </c>
+      <c r="K291">
+        <v>2</v>
+      </c>
+      <c r="M291" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>48</v>
+      </c>
+      <c r="B292" t="s">
+        <v>372</v>
+      </c>
+      <c r="C292" t="s">
+        <v>961</v>
+      </c>
+      <c r="D292" t="s">
+        <v>374</v>
+      </c>
+      <c r="E292" t="s">
+        <v>15</v>
+      </c>
+      <c r="F292" t="s">
+        <v>15</v>
+      </c>
+      <c r="G292" t="s">
+        <v>15</v>
+      </c>
+      <c r="H292">
+        <v>9900876563</v>
+      </c>
+      <c r="I292">
+        <v>2</v>
+      </c>
+      <c r="J292">
+        <v>17780</v>
+      </c>
+      <c r="K292">
+        <v>1</v>
+      </c>
+      <c r="M292" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>48</v>
+      </c>
+      <c r="B293" t="s">
+        <v>962</v>
+      </c>
+      <c r="C293" t="s">
+        <v>963</v>
+      </c>
+      <c r="D293" t="s">
+        <v>964</v>
+      </c>
+      <c r="E293" t="s">
+        <v>15</v>
+      </c>
+      <c r="F293" t="s">
+        <v>15</v>
+      </c>
+      <c r="G293" t="s">
+        <v>965</v>
+      </c>
+      <c r="H293">
+        <v>9900543235</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>17960</v>
+      </c>
+      <c r="K293">
+        <v>2</v>
+      </c>
+      <c r="M293" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>48</v>
+      </c>
+      <c r="B294" t="s">
+        <v>966</v>
+      </c>
+      <c r="C294" t="s">
+        <v>967</v>
+      </c>
+      <c r="D294" t="s">
+        <v>968</v>
+      </c>
+      <c r="E294" t="s">
+        <v>15</v>
+      </c>
+      <c r="F294" t="s">
+        <v>15</v>
+      </c>
+      <c r="G294" t="s">
+        <v>15</v>
+      </c>
+      <c r="H294">
+        <v>9900654345</v>
+      </c>
+      <c r="I294">
+        <v>2</v>
+      </c>
+      <c r="J294">
+        <v>16660</v>
+      </c>
+      <c r="K294">
+        <v>1</v>
+      </c>
+      <c r="M294" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>48</v>
+      </c>
+      <c r="B295" t="s">
+        <v>969</v>
+      </c>
+      <c r="C295" t="s">
+        <v>970</v>
+      </c>
+      <c r="D295" t="s">
+        <v>971</v>
+      </c>
+      <c r="E295" t="s">
+        <v>15</v>
+      </c>
+      <c r="F295" t="s">
+        <v>15</v>
+      </c>
+      <c r="G295" t="s">
+        <v>972</v>
+      </c>
+      <c r="H295">
+        <v>9900123513</v>
+      </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
+      <c r="J295">
+        <v>15470</v>
+      </c>
+      <c r="K295">
+        <v>2</v>
+      </c>
+      <c r="M295" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>11</v>
+      </c>
+      <c r="B296" t="s">
+        <v>973</v>
+      </c>
+      <c r="C296" t="s">
+        <v>974</v>
+      </c>
+      <c r="D296" t="s">
+        <v>975</v>
+      </c>
+      <c r="E296" t="s">
+        <v>15</v>
+      </c>
+      <c r="F296" t="s">
+        <v>15</v>
+      </c>
+      <c r="G296" t="s">
+        <v>976</v>
+      </c>
+      <c r="H296">
+        <v>9900125691</v>
+      </c>
+      <c r="I296">
+        <v>2</v>
+      </c>
+      <c r="J296">
+        <v>14400</v>
+      </c>
+      <c r="K296">
+        <v>1</v>
+      </c>
+      <c r="M296" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>11</v>
+      </c>
+      <c r="B297" t="s">
+        <v>690</v>
+      </c>
+      <c r="C297" t="s">
+        <v>977</v>
+      </c>
+      <c r="D297" t="s">
+        <v>692</v>
+      </c>
+      <c r="E297" t="s">
+        <v>15</v>
+      </c>
+      <c r="F297" t="s">
+        <v>15</v>
+      </c>
+      <c r="G297" t="s">
+        <v>15</v>
+      </c>
+      <c r="H297">
+        <v>9900659891</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297">
+        <v>15500</v>
+      </c>
+      <c r="K297">
+        <v>2</v>
+      </c>
+      <c r="M297" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>11</v>
+      </c>
+      <c r="B298" t="s">
+        <v>978</v>
+      </c>
+      <c r="C298" t="s">
+        <v>979</v>
+      </c>
+      <c r="D298" t="s">
+        <v>980</v>
+      </c>
+      <c r="E298" t="s">
+        <v>15</v>
+      </c>
+      <c r="F298" t="s">
+        <v>15</v>
+      </c>
+      <c r="G298" t="s">
+        <v>981</v>
+      </c>
+      <c r="H298">
+        <v>9900876541</v>
+      </c>
+      <c r="I298">
+        <v>2</v>
+      </c>
+      <c r="J298">
+        <v>13600</v>
+      </c>
+      <c r="K298">
+        <v>1</v>
+      </c>
+      <c r="M298" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>11</v>
+      </c>
+      <c r="B299" t="s">
+        <v>982</v>
+      </c>
+      <c r="C299" t="s">
+        <v>983</v>
+      </c>
+      <c r="D299" t="s">
+        <v>984</v>
+      </c>
+      <c r="E299" t="s">
+        <v>15</v>
+      </c>
+      <c r="F299" t="s">
+        <v>15</v>
+      </c>
+      <c r="G299" t="s">
+        <v>985</v>
+      </c>
+      <c r="H299">
+        <v>9900987661</v>
+      </c>
+      <c r="I299">
+        <v>1</v>
+      </c>
+      <c r="J299">
+        <v>17800</v>
+      </c>
+      <c r="K299">
+        <v>2</v>
+      </c>
+      <c r="M299" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>11</v>
+      </c>
+      <c r="B300" t="s">
+        <v>986</v>
+      </c>
+      <c r="C300" t="s">
+        <v>987</v>
+      </c>
+      <c r="D300" t="s">
+        <v>988</v>
+      </c>
+      <c r="E300" t="s">
+        <v>15</v>
+      </c>
+      <c r="F300" t="s">
+        <v>15</v>
+      </c>
+      <c r="G300" t="s">
+        <v>989</v>
+      </c>
+      <c r="H300">
+        <v>9900123514</v>
+      </c>
+      <c r="I300">
+        <v>2</v>
+      </c>
+      <c r="J300">
+        <v>18900</v>
+      </c>
+      <c r="K300">
+        <v>1</v>
+      </c>
+      <c r="M300" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>11</v>
+      </c>
+      <c r="B301" t="s">
+        <v>599</v>
+      </c>
+      <c r="C301" t="s">
+        <v>990</v>
+      </c>
+      <c r="D301" t="s">
+        <v>601</v>
+      </c>
+      <c r="E301" t="s">
+        <v>15</v>
+      </c>
+      <c r="F301" t="s">
+        <v>15</v>
+      </c>
+      <c r="G301" t="s">
+        <v>15</v>
+      </c>
+      <c r="H301">
+        <v>9900543224</v>
+      </c>
+      <c r="I301">
+        <v>2</v>
+      </c>
+      <c r="J301">
+        <v>15900</v>
+      </c>
+      <c r="K301">
+        <v>2</v>
+      </c>
+      <c r="M301" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>11</v>
+      </c>
+      <c r="B302" t="s">
+        <v>602</v>
+      </c>
+      <c r="C302" t="s">
+        <v>991</v>
+      </c>
+      <c r="D302" t="s">
+        <v>604</v>
+      </c>
+      <c r="E302" t="s">
+        <v>15</v>
+      </c>
+      <c r="F302" t="s">
+        <v>15</v>
+      </c>
+      <c r="G302" t="s">
+        <v>992</v>
+      </c>
+      <c r="H302">
+        <v>9900765454</v>
+      </c>
+      <c r="I302">
+        <v>1</v>
+      </c>
+      <c r="J302">
+        <v>13700</v>
+      </c>
+      <c r="K302">
+        <v>1</v>
+      </c>
+      <c r="M302" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>11</v>
+      </c>
+      <c r="B303" t="s">
+        <v>993</v>
+      </c>
+      <c r="C303" t="s">
+        <v>994</v>
+      </c>
+      <c r="D303" t="s">
+        <v>995</v>
+      </c>
+      <c r="E303" t="s">
+        <v>15</v>
+      </c>
+      <c r="F303" t="s">
+        <v>15</v>
+      </c>
+      <c r="G303" t="s">
+        <v>15</v>
+      </c>
+      <c r="H303">
+        <v>9900984332</v>
+      </c>
+      <c r="I303">
+        <v>2</v>
+      </c>
+      <c r="J303">
+        <v>14900</v>
+      </c>
+      <c r="K303">
+        <v>2</v>
+      </c>
+      <c r="M303" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>11</v>
+      </c>
+      <c r="B304" t="s">
+        <v>808</v>
+      </c>
+      <c r="C304" t="s">
+        <v>996</v>
+      </c>
+      <c r="D304" t="s">
+        <v>810</v>
+      </c>
+      <c r="E304" t="s">
+        <v>15</v>
+      </c>
+      <c r="F304" t="s">
+        <v>15</v>
+      </c>
+      <c r="G304" t="s">
+        <v>997</v>
+      </c>
+      <c r="H304">
+        <v>9900543236</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304">
+        <v>17800</v>
+      </c>
+      <c r="K304">
+        <v>1</v>
+      </c>
+      <c r="M304" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>11</v>
+      </c>
+      <c r="B305" t="s">
+        <v>783</v>
+      </c>
+      <c r="C305" t="s">
+        <v>998</v>
+      </c>
+      <c r="D305" t="s">
+        <v>785</v>
+      </c>
+      <c r="E305" t="s">
+        <v>15</v>
+      </c>
+      <c r="F305" t="s">
+        <v>15</v>
+      </c>
+      <c r="G305" t="s">
+        <v>999</v>
+      </c>
+      <c r="H305">
+        <v>9900876564</v>
+      </c>
+      <c r="I305">
+        <v>2</v>
+      </c>
+      <c r="J305">
+        <v>16700</v>
+      </c>
+      <c r="K305">
+        <v>2</v>
+      </c>
+      <c r="M305" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>36</v>
+      </c>
+      <c r="B306" t="s">
+        <v>816</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D306" t="s">
+        <v>818</v>
+      </c>
+      <c r="E306" t="s">
+        <v>15</v>
+      </c>
+      <c r="F306" t="s">
+        <v>15</v>
+      </c>
+      <c r="G306" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H306">
+        <v>9900456802</v>
+      </c>
+      <c r="I306">
+        <v>2</v>
+      </c>
+      <c r="J306">
+        <v>14800</v>
+      </c>
+      <c r="K306">
+        <v>1</v>
+      </c>
+      <c r="M306" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>36</v>
+      </c>
+      <c r="B307" t="s">
+        <v>236</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D307" t="s">
+        <v>238</v>
+      </c>
+      <c r="E307" t="s">
+        <v>15</v>
+      </c>
+      <c r="F307" t="s">
+        <v>15</v>
+      </c>
+      <c r="G307" t="s">
+        <v>15</v>
+      </c>
+      <c r="H307">
+        <v>9900654346</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
+      </c>
+      <c r="J307">
+        <v>15600</v>
+      </c>
+      <c r="K307">
+        <v>2</v>
+      </c>
+      <c r="M307" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>36</v>
+      </c>
+      <c r="B308" t="s">
+        <v>230</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D308" t="s">
+        <v>232</v>
+      </c>
+      <c r="E308" t="s">
+        <v>15</v>
+      </c>
+      <c r="F308" t="s">
+        <v>15</v>
+      </c>
+      <c r="G308" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H308">
+        <v>9900234575</v>
+      </c>
+      <c r="I308">
+        <v>2</v>
+      </c>
+      <c r="J308">
+        <v>14500</v>
+      </c>
+      <c r="K308">
+        <v>1</v>
+      </c>
+      <c r="M308" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>36</v>
+      </c>
+      <c r="B309" t="s">
+        <v>823</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D309" t="s">
+        <v>825</v>
+      </c>
+      <c r="E309" t="s">
+        <v>15</v>
+      </c>
+      <c r="F309" t="s">
+        <v>15</v>
+      </c>
+      <c r="G309" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H309">
+        <v>9900984323</v>
+      </c>
+      <c r="I309">
+        <v>1</v>
+      </c>
+      <c r="J309">
+        <v>16100</v>
+      </c>
+      <c r="K309">
+        <v>2</v>
+      </c>
+      <c r="M309" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>36</v>
+      </c>
+      <c r="B310" t="s">
+        <v>827</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D310" t="s">
+        <v>829</v>
+      </c>
+      <c r="E310" t="s">
+        <v>15</v>
+      </c>
+      <c r="F310" t="s">
+        <v>15</v>
+      </c>
+      <c r="G310" t="s">
+        <v>15</v>
+      </c>
+      <c r="H310">
+        <v>9900654321</v>
+      </c>
+      <c r="I310">
+        <v>2</v>
+      </c>
+      <c r="J310">
+        <v>17800</v>
+      </c>
+      <c r="K310">
+        <v>1</v>
+      </c>
+      <c r="M310" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>36</v>
+      </c>
+      <c r="B311" t="s">
+        <v>830</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D311" t="s">
+        <v>832</v>
+      </c>
+      <c r="E311" t="s">
+        <v>15</v>
+      </c>
+      <c r="F311" t="s">
+        <v>15</v>
+      </c>
+      <c r="G311" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H311">
+        <v>9900876565</v>
+      </c>
+      <c r="I311">
+        <v>1</v>
+      </c>
+      <c r="J311">
+        <v>14700</v>
+      </c>
+      <c r="K311">
+        <v>2</v>
+      </c>
+      <c r="M311" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>36</v>
+      </c>
+      <c r="B312" t="s">
+        <v>834</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D312" t="s">
+        <v>836</v>
+      </c>
+      <c r="E312" t="s">
+        <v>15</v>
+      </c>
+      <c r="F312" t="s">
+        <v>15</v>
+      </c>
+      <c r="G312" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H312">
+        <v>9900123471</v>
+      </c>
+      <c r="I312">
+        <v>2</v>
+      </c>
+      <c r="J312">
+        <v>18000</v>
+      </c>
+      <c r="K312">
+        <v>1</v>
+      </c>
+      <c r="M312" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>36</v>
+      </c>
+      <c r="B313" t="s">
+        <v>838</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D313" t="s">
+        <v>840</v>
+      </c>
+      <c r="E313" t="s">
+        <v>15</v>
+      </c>
+      <c r="F313" t="s">
+        <v>15</v>
+      </c>
+      <c r="G313" t="s">
+        <v>15</v>
+      </c>
+      <c r="H313">
+        <v>9900765455</v>
+      </c>
+      <c r="I313">
+        <v>1</v>
+      </c>
+      <c r="J313">
+        <v>16900</v>
+      </c>
+      <c r="K313">
+        <v>2</v>
+      </c>
+      <c r="M313" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>36</v>
+      </c>
+      <c r="B314" t="s">
+        <v>841</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D314" t="s">
+        <v>843</v>
+      </c>
+      <c r="E314" t="s">
+        <v>15</v>
+      </c>
+      <c r="F314" t="s">
+        <v>15</v>
+      </c>
+      <c r="G314" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H314">
+        <v>9900456803</v>
+      </c>
+      <c r="I314">
+        <v>2</v>
+      </c>
+      <c r="J314">
+        <v>15000</v>
+      </c>
+      <c r="K314">
+        <v>1</v>
+      </c>
+      <c r="M314" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>36</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E315" t="s">
+        <v>15</v>
+      </c>
+      <c r="F315" t="s">
+        <v>15</v>
+      </c>
+      <c r="G315" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H315">
+        <v>9900654347</v>
+      </c>
+      <c r="I315">
+        <v>1</v>
+      </c>
+      <c r="J315">
+        <v>15500</v>
+      </c>
+      <c r="K315">
+        <v>2</v>
+      </c>
+      <c r="M315" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>48</v>
+      </c>
+      <c r="B316" t="s">
+        <v>849</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D316" t="s">
+        <v>851</v>
+      </c>
+      <c r="E316" t="s">
+        <v>15</v>
+      </c>
+      <c r="F316" t="s">
+        <v>15</v>
+      </c>
+      <c r="G316" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H316">
+        <v>9900789354</v>
+      </c>
+      <c r="I316">
+        <v>2</v>
+      </c>
+      <c r="J316">
+        <v>16700</v>
+      </c>
+      <c r="K316">
+        <v>1</v>
+      </c>
+      <c r="M316" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>48</v>
+      </c>
+      <c r="B317" t="s">
+        <v>454</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D317" t="s">
+        <v>456</v>
+      </c>
+      <c r="E317" t="s">
+        <v>15</v>
+      </c>
+      <c r="F317" t="s">
+        <v>15</v>
+      </c>
+      <c r="G317" t="s">
+        <v>15</v>
+      </c>
+      <c r="H317">
+        <v>9900543225</v>
+      </c>
+      <c r="I317">
+        <v>1</v>
+      </c>
+      <c r="J317">
+        <v>15500</v>
+      </c>
+      <c r="K317">
+        <v>2</v>
+      </c>
+      <c r="M317" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>48</v>
+      </c>
+      <c r="B318" t="s">
+        <v>556</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D318" t="s">
+        <v>558</v>
+      </c>
+      <c r="E318" t="s">
+        <v>15</v>
+      </c>
+      <c r="F318" t="s">
+        <v>15</v>
+      </c>
+      <c r="G318" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H318">
+        <v>9900654348</v>
+      </c>
+      <c r="I318">
+        <v>2</v>
+      </c>
+      <c r="J318">
+        <v>15000</v>
+      </c>
+      <c r="K318">
+        <v>1</v>
+      </c>
+      <c r="M318" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>48</v>
+      </c>
+      <c r="B319" t="s">
+        <v>362</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D319" t="s">
+        <v>364</v>
+      </c>
+      <c r="E319" t="s">
+        <v>15</v>
+      </c>
+      <c r="F319" t="s">
+        <v>15</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H319">
+        <v>9900123515</v>
+      </c>
+      <c r="I319">
+        <v>1</v>
+      </c>
+      <c r="J319">
+        <v>13800</v>
+      </c>
+      <c r="K319">
+        <v>2</v>
+      </c>
+      <c r="M319" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>48</v>
+      </c>
+      <c r="B320" t="s">
+        <v>858</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D320" t="s">
+        <v>860</v>
+      </c>
+      <c r="E320" t="s">
+        <v>15</v>
+      </c>
+      <c r="F320" t="s">
+        <v>15</v>
+      </c>
+      <c r="G320" t="s">
+        <v>15</v>
+      </c>
+      <c r="H320">
+        <v>9900765456</v>
+      </c>
+      <c r="I320">
+        <v>2</v>
+      </c>
+      <c r="J320">
+        <v>16500</v>
+      </c>
+      <c r="K320">
+        <v>1</v>
+      </c>
+      <c r="M320" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>48</v>
+      </c>
+      <c r="B321" t="s">
+        <v>861</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D321" t="s">
+        <v>863</v>
+      </c>
+      <c r="E321" t="s">
+        <v>15</v>
+      </c>
+      <c r="F321" t="s">
+        <v>15</v>
+      </c>
+      <c r="G321" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H321">
+        <v>9900984324</v>
+      </c>
+      <c r="I321">
+        <v>1</v>
+      </c>
+      <c r="J321">
+        <v>15600</v>
+      </c>
+      <c r="K321">
+        <v>2</v>
+      </c>
+      <c r="M321" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>48</v>
+      </c>
+      <c r="B322" t="s">
+        <v>865</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D322" t="s">
+        <v>867</v>
+      </c>
+      <c r="E322" t="s">
+        <v>15</v>
+      </c>
+      <c r="F322" t="s">
+        <v>15</v>
+      </c>
+      <c r="G322" t="s">
+        <v>15</v>
+      </c>
+      <c r="H322">
+        <v>9900876566</v>
+      </c>
+      <c r="I322">
+        <v>2</v>
+      </c>
+      <c r="J322">
+        <v>17800</v>
+      </c>
+      <c r="K322">
+        <v>1</v>
+      </c>
+      <c r="M322" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>48</v>
+      </c>
+      <c r="B323" t="s">
+        <v>868</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D323" t="s">
+        <v>870</v>
+      </c>
+      <c r="E323" t="s">
+        <v>15</v>
+      </c>
+      <c r="F323" t="s">
+        <v>15</v>
+      </c>
+      <c r="G323" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H323">
+        <v>9900543237</v>
+      </c>
+      <c r="I323">
+        <v>1</v>
+      </c>
+      <c r="J323">
+        <v>18000</v>
+      </c>
+      <c r="K323">
+        <v>2</v>
+      </c>
+      <c r="M323" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>48</v>
+      </c>
+      <c r="B324" t="s">
+        <v>278</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D324" t="s">
+        <v>280</v>
+      </c>
+      <c r="E324" t="s">
+        <v>15</v>
+      </c>
+      <c r="F324" t="s">
+        <v>15</v>
+      </c>
+      <c r="G324" t="s">
+        <v>15</v>
+      </c>
+      <c r="H324">
+        <v>9900654349</v>
+      </c>
+      <c r="I324">
+        <v>2</v>
+      </c>
+      <c r="J324">
+        <v>16700</v>
+      </c>
+      <c r="K324">
+        <v>1</v>
+      </c>
+      <c r="M324" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>48</v>
+      </c>
+      <c r="B325" t="s">
+        <v>873</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D325" t="s">
+        <v>875</v>
+      </c>
+      <c r="E325" t="s">
+        <v>15</v>
+      </c>
+      <c r="F325" t="s">
+        <v>15</v>
+      </c>
+      <c r="G325" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H325">
+        <v>9900123516</v>
+      </c>
+      <c r="I325">
+        <v>1</v>
+      </c>
+      <c r="J325">
+        <v>15500</v>
+      </c>
+      <c r="K325">
+        <v>2</v>
+      </c>
+      <c r="M325" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>11</v>
+      </c>
+      <c r="B326" t="s">
+        <v>209</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D326" t="s">
+        <v>211</v>
+      </c>
+      <c r="E326" t="s">
+        <v>15</v>
+      </c>
+      <c r="F326" t="s">
+        <v>15</v>
+      </c>
+      <c r="G326" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H326">
+        <v>9900987654</v>
+      </c>
+      <c r="I326">
+        <v>2</v>
+      </c>
+      <c r="J326">
+        <v>15500</v>
+      </c>
+      <c r="K326">
+        <v>1</v>
+      </c>
+      <c r="M326" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>11</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E327" t="s">
+        <v>15</v>
+      </c>
+      <c r="F327" t="s">
+        <v>15</v>
+      </c>
+      <c r="G327" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H327">
+        <v>9900765432</v>
+      </c>
+      <c r="I327">
+        <v>1</v>
+      </c>
+      <c r="J327">
+        <v>14200</v>
+      </c>
+      <c r="K327">
+        <v>2</v>
+      </c>
+      <c r="M327" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>11</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E328" t="s">
+        <v>15</v>
+      </c>
+      <c r="F328" t="s">
+        <v>15</v>
+      </c>
+      <c r="G328" t="s">
+        <v>152</v>
+      </c>
+      <c r="H328">
+        <v>9900654321</v>
+      </c>
+      <c r="I328">
+        <v>2</v>
+      </c>
+      <c r="J328">
+        <v>16300</v>
+      </c>
+      <c r="K328">
+        <v>1</v>
+      </c>
+      <c r="M328" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>11</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E329" t="s">
+        <v>15</v>
+      </c>
+      <c r="F329" t="s">
+        <v>15</v>
+      </c>
+      <c r="G329" t="s">
+        <v>118</v>
+      </c>
+      <c r="H329">
+        <v>9900987654</v>
+      </c>
+      <c r="I329">
+        <v>1</v>
+      </c>
+      <c r="J329">
+        <v>17400</v>
+      </c>
+      <c r="K329">
+        <v>2</v>
+      </c>
+      <c r="M329" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>11</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D330" t="s">
+        <v>64</v>
+      </c>
+      <c r="E330" t="s">
+        <v>15</v>
+      </c>
+      <c r="F330" t="s">
+        <v>15</v>
+      </c>
+      <c r="G330" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H330">
+        <v>9900987655</v>
+      </c>
+      <c r="I330">
+        <v>2</v>
+      </c>
+      <c r="J330">
+        <v>18900</v>
+      </c>
+      <c r="K330">
+        <v>1</v>
+      </c>
+      <c r="M330" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>11</v>
+      </c>
+      <c r="B331" t="s">
+        <v>892</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D331" t="s">
+        <v>894</v>
+      </c>
+      <c r="E331" t="s">
+        <v>15</v>
+      </c>
+      <c r="F331" t="s">
+        <v>15</v>
+      </c>
+      <c r="G331" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H331">
+        <v>9900876543</v>
+      </c>
+      <c r="I331">
+        <v>2</v>
+      </c>
+      <c r="J331">
+        <v>15800</v>
+      </c>
+      <c r="K331">
+        <v>2</v>
+      </c>
+      <c r="M331" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>11</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E332" t="s">
+        <v>15</v>
+      </c>
+      <c r="F332" t="s">
+        <v>15</v>
+      </c>
+      <c r="G332" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H332">
+        <v>9900765433</v>
+      </c>
+      <c r="I332">
+        <v>1</v>
+      </c>
+      <c r="J332">
+        <v>13500</v>
+      </c>
+      <c r="K332">
+        <v>1</v>
+      </c>
+      <c r="M332" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>11</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E333" t="s">
+        <v>15</v>
+      </c>
+      <c r="F333" t="s">
+        <v>15</v>
+      </c>
+      <c r="G333" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H333">
+        <v>9900984321</v>
+      </c>
+      <c r="I333">
+        <v>2</v>
+      </c>
+      <c r="J333">
+        <v>14600</v>
+      </c>
+      <c r="K333">
+        <v>2</v>
+      </c>
+      <c r="M333" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>11</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E334" t="s">
+        <v>15</v>
+      </c>
+      <c r="F334" t="s">
+        <v>15</v>
+      </c>
+      <c r="G334" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H334">
+        <v>9900876544</v>
+      </c>
+      <c r="I334">
+        <v>1</v>
+      </c>
+      <c r="J334">
+        <v>17900</v>
+      </c>
+      <c r="K334">
+        <v>1</v>
+      </c>
+      <c r="M334" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>11</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D335" t="s">
+        <v>90</v>
+      </c>
+      <c r="E335" t="s">
+        <v>15</v>
+      </c>
+      <c r="F335" t="s">
+        <v>15</v>
+      </c>
+      <c r="G335" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H335">
+        <v>9900987656</v>
+      </c>
+      <c r="I335">
+        <v>2</v>
+      </c>
+      <c r="J335">
+        <v>15200</v>
+      </c>
+      <c r="K335">
+        <v>2</v>
+      </c>
+      <c r="M335" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>36</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E336" t="s">
+        <v>15</v>
+      </c>
+      <c r="F336" t="s">
+        <v>15</v>
+      </c>
+      <c r="G336" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H336">
+        <v>9900987657</v>
+      </c>
+      <c r="I336">
+        <v>2</v>
+      </c>
+      <c r="J336">
+        <v>15500</v>
+      </c>
+      <c r="K336">
+        <v>1</v>
+      </c>
+      <c r="M336" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>36</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E337" t="s">
+        <v>15</v>
+      </c>
+      <c r="F337" t="s">
+        <v>15</v>
+      </c>
+      <c r="G337" t="s">
+        <v>22</v>
+      </c>
+      <c r="H337">
+        <v>9900765434</v>
+      </c>
+      <c r="I337">
+        <v>1</v>
+      </c>
+      <c r="J337">
+        <v>14800</v>
+      </c>
+      <c r="K337">
+        <v>2</v>
+      </c>
+      <c r="M337" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>36</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E338" t="s">
+        <v>15</v>
+      </c>
+      <c r="F338" t="s">
+        <v>15</v>
+      </c>
+      <c r="G338" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H338">
+        <v>9900654322</v>
+      </c>
+      <c r="I338">
+        <v>2</v>
+      </c>
+      <c r="J338">
+        <v>16200</v>
+      </c>
+      <c r="K338">
+        <v>1</v>
+      </c>
+      <c r="M338" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>36</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E339" t="s">
+        <v>15</v>
+      </c>
+      <c r="F339" t="s">
+        <v>15</v>
+      </c>
+      <c r="G339" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H339">
+        <v>9900543210</v>
+      </c>
+      <c r="I339">
+        <v>1</v>
+      </c>
+      <c r="J339">
+        <v>17900</v>
+      </c>
+      <c r="K339">
+        <v>2</v>
+      </c>
+      <c r="M339" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>36</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E340" t="s">
+        <v>15</v>
+      </c>
+      <c r="F340" t="s">
+        <v>15</v>
+      </c>
+      <c r="G340" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H340">
+        <v>9900987658</v>
+      </c>
+      <c r="I340">
+        <v>2</v>
+      </c>
+      <c r="J340">
+        <v>18600</v>
+      </c>
+      <c r="K340">
+        <v>1</v>
+      </c>
+      <c r="M340" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>36</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E341" t="s">
+        <v>15</v>
+      </c>
+      <c r="F341" t="s">
+        <v>15</v>
+      </c>
+      <c r="G341" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H341">
+        <v>9900876545</v>
+      </c>
+      <c r="I341">
+        <v>2</v>
+      </c>
+      <c r="J341">
+        <v>16000</v>
+      </c>
+      <c r="K341">
+        <v>2</v>
+      </c>
+      <c r="M341" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>36</v>
+      </c>
+      <c r="B342" t="s">
+        <v>926</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E342" t="s">
+        <v>15</v>
+      </c>
+      <c r="F342" t="s">
+        <v>15</v>
+      </c>
+      <c r="G342" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H342">
+        <v>9900765435</v>
+      </c>
+      <c r="I342">
+        <v>1</v>
+      </c>
+      <c r="J342">
+        <v>13700</v>
+      </c>
+      <c r="K342">
+        <v>1</v>
+      </c>
+      <c r="M342" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>36</v>
+      </c>
+      <c r="B343" t="s">
+        <v>730</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D343" t="s">
+        <v>732</v>
+      </c>
+      <c r="E343" t="s">
+        <v>15</v>
+      </c>
+      <c r="F343" t="s">
+        <v>15</v>
+      </c>
+      <c r="G343" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H343">
+        <v>9900654323</v>
+      </c>
+      <c r="I343">
+        <v>2</v>
+      </c>
+      <c r="J343">
+        <v>17500</v>
+      </c>
+      <c r="K343">
+        <v>2</v>
+      </c>
+      <c r="M343" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>36</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E344" t="s">
+        <v>15</v>
+      </c>
+      <c r="F344" t="s">
+        <v>15</v>
+      </c>
+      <c r="G344" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H344">
+        <v>9900987659</v>
+      </c>
+      <c r="I344">
+        <v>1</v>
+      </c>
+      <c r="J344">
+        <v>18200</v>
+      </c>
+      <c r="K344">
+        <v>1</v>
+      </c>
+      <c r="M344" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>36</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E345" t="s">
+        <v>15</v>
+      </c>
+      <c r="F345" t="s">
+        <v>15</v>
+      </c>
+      <c r="G345" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H345">
+        <v>9900876546</v>
+      </c>
+      <c r="I345">
+        <v>2</v>
+      </c>
+      <c r="J345">
+        <v>16900</v>
+      </c>
+      <c r="K345">
+        <v>2</v>
+      </c>
+      <c r="M345" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>48</v>
+      </c>
+      <c r="B346" t="s">
+        <v>941</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D346" t="s">
+        <v>943</v>
+      </c>
+      <c r="E346" t="s">
+        <v>15</v>
+      </c>
+      <c r="F346" t="s">
+        <v>15</v>
+      </c>
+      <c r="G346" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H346">
+        <v>9900654324</v>
+      </c>
+      <c r="I346">
+        <v>2</v>
+      </c>
+      <c r="J346">
+        <v>15800</v>
+      </c>
+      <c r="K346">
+        <v>1</v>
+      </c>
+      <c r="M346" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>48</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E347" t="s">
+        <v>15</v>
+      </c>
+      <c r="F347" t="s">
+        <v>15</v>
+      </c>
+      <c r="G347" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H347">
+        <v>9900987650</v>
+      </c>
+      <c r="I347">
+        <v>1</v>
+      </c>
+      <c r="J347">
+        <v>14100</v>
+      </c>
+      <c r="K347">
+        <v>2</v>
+      </c>
+      <c r="M347" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>48</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E348" t="s">
+        <v>15</v>
+      </c>
+      <c r="F348" t="s">
+        <v>15</v>
+      </c>
+      <c r="G348" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H348">
+        <v>9900876547</v>
+      </c>
+      <c r="I348">
+        <v>2</v>
+      </c>
+      <c r="J348">
+        <v>17500</v>
+      </c>
+      <c r="K348">
+        <v>1</v>
+      </c>
+      <c r="M348" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>48</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E349" t="s">
+        <v>15</v>
+      </c>
+      <c r="F349" t="s">
+        <v>15</v>
+      </c>
+      <c r="G349" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H349">
+        <v>9900654325</v>
+      </c>
+      <c r="I349">
+        <v>1</v>
+      </c>
+      <c r="J349">
+        <v>15400</v>
+      </c>
+      <c r="K349">
+        <v>2</v>
+      </c>
+      <c r="M349" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>48</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E350" t="s">
+        <v>15</v>
+      </c>
+      <c r="F350" t="s">
+        <v>15</v>
+      </c>
+      <c r="G350" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H350">
+        <v>9900987651</v>
+      </c>
+      <c r="I350">
+        <v>2</v>
+      </c>
+      <c r="J350">
+        <v>16900</v>
+      </c>
+      <c r="K350">
+        <v>1</v>
+      </c>
+      <c r="M350" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>48</v>
+      </c>
+      <c r="B351" t="s">
+        <v>254</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D351" t="s">
+        <v>256</v>
+      </c>
+      <c r="E351" t="s">
+        <v>15</v>
+      </c>
+      <c r="F351" t="s">
+        <v>15</v>
+      </c>
+      <c r="G351" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H351">
+        <v>9900876548</v>
+      </c>
+      <c r="I351">
+        <v>1</v>
+      </c>
+      <c r="J351">
+        <v>16000</v>
+      </c>
+      <c r="K351">
+        <v>2</v>
+      </c>
+      <c r="M351" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>48</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E352" t="s">
+        <v>15</v>
+      </c>
+      <c r="F352" t="s">
+        <v>15</v>
+      </c>
+      <c r="G352" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H352">
+        <v>9900765436</v>
+      </c>
+      <c r="I352">
+        <v>2</v>
+      </c>
+      <c r="J352">
+        <v>18000</v>
+      </c>
+      <c r="K352">
+        <v>1</v>
+      </c>
+      <c r="M352" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>48</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E353" t="s">
+        <v>15</v>
+      </c>
+      <c r="F353" t="s">
+        <v>15</v>
+      </c>
+      <c r="G353" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H353">
+        <v>9900987652</v>
+      </c>
+      <c r="I353">
+        <v>1</v>
+      </c>
+      <c r="J353">
+        <v>17800</v>
+      </c>
+      <c r="K353">
+        <v>2</v>
+      </c>
+      <c r="M353" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>48</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E354" t="s">
+        <v>15</v>
+      </c>
+      <c r="F354" t="s">
+        <v>15</v>
+      </c>
+      <c r="G354" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H354">
+        <v>9900654326</v>
+      </c>
+      <c r="I354">
+        <v>2</v>
+      </c>
+      <c r="J354">
+        <v>16200</v>
+      </c>
+      <c r="K354">
+        <v>1</v>
+      </c>
+      <c r="M354" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>48</v>
+      </c>
+      <c r="B355" t="s">
+        <v>575</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D355" t="s">
+        <v>577</v>
+      </c>
+      <c r="E355" t="s">
+        <v>15</v>
+      </c>
+      <c r="F355" t="s">
+        <v>15</v>
+      </c>
+      <c r="G355" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H355">
+        <v>9900876549</v>
+      </c>
+      <c r="I355">
+        <v>1</v>
+      </c>
+      <c r="J355">
+        <v>15500</v>
+      </c>
+      <c r="K355">
+        <v>2</v>
+      </c>
+      <c r="M355" t="s">
         <v>485</v>
       </c>
     </row>
